--- a/BackTest/2019-10-15 BackTest BAT.xlsx
+++ b/BackTest/2019-10-15 BackTest BAT.xlsx
@@ -957,7 +957,9 @@
       <c r="J12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>50</v>
+      </c>
       <c r="L12" t="n">
         <v>255.3</v>
       </c>
@@ -1008,7 +1010,9 @@
       <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>50</v>
+      </c>
       <c r="L13" t="n">
         <v>255.5</v>
       </c>
@@ -1059,7 +1063,9 @@
       <c r="J14" t="n">
         <v>4</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>255.7</v>
       </c>
@@ -1110,7 +1116,9 @@
       <c r="J15" t="n">
         <v>4</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>255.8</v>
       </c>
@@ -1155,7 +1163,9 @@
       <c r="J16" t="n">
         <v>5</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
       <c r="L16" t="n">
         <v>255.9</v>
       </c>
@@ -1200,7 +1210,9 @@
       <c r="J17" t="n">
         <v>6</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
       <c r="L17" t="n">
         <v>256.2</v>
       </c>
@@ -1245,7 +1257,9 @@
       <c r="J18" t="n">
         <v>6</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
       <c r="L18" t="n">
         <v>256.5</v>
       </c>
@@ -1290,7 +1304,9 @@
       <c r="J19" t="n">
         <v>6</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>100</v>
+      </c>
       <c r="L19" t="n">
         <v>256.7</v>
       </c>
@@ -1335,7 +1351,9 @@
       <c r="J20" t="n">
         <v>6</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
       <c r="L20" t="n">
         <v>256.9</v>
       </c>
@@ -1380,7 +1398,9 @@
       <c r="J21" t="n">
         <v>9</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
       <c r="L21" t="n">
         <v>257.4</v>
       </c>
@@ -1427,7 +1447,9 @@
       <c r="J22" t="n">
         <v>10</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>66.66666666666666</v>
+      </c>
       <c r="L22" t="n">
         <v>257.8</v>
       </c>
@@ -1475,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="K23" t="n">
-        <v>60</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L23" t="n">
         <v>258.2</v>
@@ -1524,7 +1546,7 @@
         <v>11</v>
       </c>
       <c r="K24" t="n">
-        <v>63.63636363636363</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L24" t="n">
         <v>258.7</v>
@@ -1573,7 +1595,7 @@
         <v>13</v>
       </c>
       <c r="K25" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L25" t="n">
         <v>259</v>
@@ -1622,7 +1644,7 @@
         <v>15</v>
       </c>
       <c r="K26" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>259.4</v>
@@ -1671,7 +1693,7 @@
         <v>17</v>
       </c>
       <c r="K27" t="n">
-        <v>28.57142857142857</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L27" t="n">
         <v>259.5</v>
@@ -1720,7 +1742,7 @@
         <v>17</v>
       </c>
       <c r="K28" t="n">
-        <v>28.57142857142857</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L28" t="n">
         <v>259.6</v>
@@ -1769,7 +1791,7 @@
         <v>17</v>
       </c>
       <c r="K29" t="n">
-        <v>23.07692307692308</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L29" t="n">
         <v>259.7</v>
@@ -1818,7 +1840,7 @@
         <v>17</v>
       </c>
       <c r="K30" t="n">
-        <v>23.07692307692308</v>
+        <v>-25</v>
       </c>
       <c r="L30" t="n">
         <v>259.8</v>
@@ -1867,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="K31" t="n">
-        <v>28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>259.7</v>
@@ -1918,7 +1940,7 @@
         <v>19</v>
       </c>
       <c r="K32" t="n">
-        <v>33.33333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L32" t="n">
         <v>259.8</v>
@@ -1969,7 +1991,7 @@
         <v>20</v>
       </c>
       <c r="K33" t="n">
-        <v>25</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L33" t="n">
         <v>259.8</v>
@@ -2020,7 +2042,7 @@
         <v>20</v>
       </c>
       <c r="K34" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L34" t="n">
         <v>259.7</v>
@@ -2071,7 +2093,7 @@
         <v>20</v>
       </c>
       <c r="K35" t="n">
-        <v>25</v>
+        <v>-20</v>
       </c>
       <c r="L35" t="n">
         <v>259.8</v>
@@ -2122,7 +2144,7 @@
         <v>20</v>
       </c>
       <c r="K36" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>259.7</v>
@@ -2173,7 +2195,7 @@
         <v>20</v>
       </c>
       <c r="K37" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>259.8</v>
@@ -2224,7 +2246,7 @@
         <v>21</v>
       </c>
       <c r="K38" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L38" t="n">
         <v>260</v>
@@ -2275,7 +2297,7 @@
         <v>22</v>
       </c>
       <c r="K39" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L39" t="n">
         <v>260.1</v>
@@ -2326,7 +2348,7 @@
         <v>22</v>
       </c>
       <c r="K40" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>260.2</v>
@@ -2377,7 +2399,7 @@
         <v>23</v>
       </c>
       <c r="K41" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L41" t="n">
         <v>260.1</v>
@@ -2479,7 +2501,7 @@
         <v>25</v>
       </c>
       <c r="K43" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L43" t="n">
         <v>260.1</v>
@@ -2530,7 +2552,7 @@
         <v>28</v>
       </c>
       <c r="K44" t="n">
-        <v>-17.64705882352941</v>
+        <v>-25</v>
       </c>
       <c r="L44" t="n">
         <v>259.9</v>
@@ -2581,7 +2603,7 @@
         <v>29</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L45" t="n">
         <v>259.8</v>
@@ -2683,7 +2705,7 @@
         <v>30</v>
       </c>
       <c r="K47" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>259.4</v>
@@ -2734,7 +2756,7 @@
         <v>30</v>
       </c>
       <c r="K48" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L48" t="n">
         <v>259.1</v>
@@ -2785,7 +2807,7 @@
         <v>30</v>
       </c>
       <c r="K49" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L49" t="n">
         <v>258.9</v>
@@ -2887,7 +2909,7 @@
         <v>31</v>
       </c>
       <c r="K51" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L51" t="n">
         <v>258.8</v>
@@ -2938,7 +2960,7 @@
         <v>32</v>
       </c>
       <c r="K52" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L52" t="n">
         <v>258.8</v>
@@ -2989,7 +3011,7 @@
         <v>34</v>
       </c>
       <c r="K53" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>258.5</v>
@@ -3040,7 +3062,7 @@
         <v>34</v>
       </c>
       <c r="K54" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L54" t="n">
         <v>258.5</v>
@@ -3091,7 +3113,7 @@
         <v>35</v>
       </c>
       <c r="K55" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L55" t="n">
         <v>258.5</v>
@@ -3142,7 +3164,7 @@
         <v>36</v>
       </c>
       <c r="K56" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>258.5</v>
@@ -3193,7 +3215,7 @@
         <v>37</v>
       </c>
       <c r="K57" t="n">
-        <v>-17.64705882352941</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L57" t="n">
         <v>258.4</v>
@@ -3244,7 +3266,7 @@
         <v>37</v>
       </c>
       <c r="K58" t="n">
-        <v>-25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L58" t="n">
         <v>258.3</v>
@@ -3295,7 +3317,7 @@
         <v>38</v>
       </c>
       <c r="K59" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L59" t="n">
         <v>258.3</v>
@@ -3346,7 +3368,7 @@
         <v>39</v>
       </c>
       <c r="K60" t="n">
-        <v>-17.64705882352941</v>
+        <v>-25</v>
       </c>
       <c r="L60" t="n">
         <v>258.1</v>
@@ -3397,7 +3419,7 @@
         <v>40</v>
       </c>
       <c r="K61" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L61" t="n">
         <v>257.8</v>
@@ -3448,7 +3470,7 @@
         <v>40</v>
       </c>
       <c r="K62" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>257.4</v>
@@ -3550,7 +3572,7 @@
         <v>41</v>
       </c>
       <c r="K64" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L64" t="n">
         <v>257.1</v>
@@ -3601,7 +3623,7 @@
         <v>41</v>
       </c>
       <c r="K65" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L65" t="n">
         <v>256.9</v>
@@ -3652,7 +3674,7 @@
         <v>41</v>
       </c>
       <c r="K66" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>256.8</v>
@@ -3703,7 +3725,7 @@
         <v>42</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L67" t="n">
         <v>256.9</v>
@@ -3754,7 +3776,7 @@
         <v>44</v>
       </c>
       <c r="K68" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>256.8</v>
@@ -3805,7 +3827,7 @@
         <v>45</v>
       </c>
       <c r="K69" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>256.5</v>
@@ -3856,7 +3878,7 @@
         <v>45</v>
       </c>
       <c r="K70" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L70" t="n">
         <v>256.3</v>
@@ -3907,7 +3929,7 @@
         <v>45</v>
       </c>
       <c r="K71" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L71" t="n">
         <v>256.2</v>
@@ -3958,7 +3980,7 @@
         <v>46</v>
       </c>
       <c r="K72" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>256.2</v>
@@ -4009,7 +4031,7 @@
         <v>48</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L73" t="n">
         <v>256.4</v>
@@ -4060,7 +4082,7 @@
         <v>49</v>
       </c>
       <c r="K74" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>256.4</v>
@@ -4111,7 +4133,7 @@
         <v>50</v>
       </c>
       <c r="K75" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L75" t="n">
         <v>256.3</v>
@@ -4162,7 +4184,7 @@
         <v>51</v>
       </c>
       <c r="K76" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L76" t="n">
         <v>256.3</v>
@@ -4213,7 +4235,7 @@
         <v>52</v>
       </c>
       <c r="K77" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L77" t="n">
         <v>256.3</v>
@@ -4264,7 +4286,7 @@
         <v>52</v>
       </c>
       <c r="K78" t="n">
-        <v>6.666666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L78" t="n">
         <v>256.5</v>
@@ -4315,7 +4337,7 @@
         <v>52</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L79" t="n">
         <v>256.8</v>
@@ -4366,7 +4388,7 @@
         <v>52</v>
       </c>
       <c r="K80" t="n">
-        <v>7.692307692307693</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L80" t="n">
         <v>257.1</v>
@@ -4417,7 +4439,7 @@
         <v>53</v>
       </c>
       <c r="K81" t="n">
-        <v>23.07692307692308</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L81" t="n">
         <v>257.5</v>
@@ -4468,7 +4490,7 @@
         <v>53</v>
       </c>
       <c r="K82" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L82" t="n">
         <v>257.8</v>
@@ -4519,7 +4541,7 @@
         <v>54</v>
       </c>
       <c r="K83" t="n">
-        <v>28.57142857142857</v>
+        <v>60</v>
       </c>
       <c r="L83" t="n">
         <v>258</v>
@@ -4570,7 +4592,7 @@
         <v>54</v>
       </c>
       <c r="K84" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L84" t="n">
         <v>258.3</v>
@@ -4621,7 +4643,7 @@
         <v>54</v>
       </c>
       <c r="K85" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L85" t="n">
         <v>258.7</v>
@@ -4672,7 +4694,7 @@
         <v>56</v>
       </c>
       <c r="K86" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>258.8</v>
@@ -4723,7 +4745,7 @@
         <v>58</v>
       </c>
       <c r="K87" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>259</v>
@@ -4774,7 +4796,7 @@
         <v>58</v>
       </c>
       <c r="K88" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>259.2</v>
@@ -4825,7 +4847,7 @@
         <v>58</v>
       </c>
       <c r="K89" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>259.4</v>
@@ -4876,7 +4898,7 @@
         <v>59</v>
       </c>
       <c r="K90" t="n">
-        <v>28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>259.5</v>
@@ -4927,7 +4949,7 @@
         <v>60</v>
       </c>
       <c r="K91" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L91" t="n">
         <v>259.6</v>
@@ -4978,7 +5000,7 @@
         <v>60</v>
       </c>
       <c r="K92" t="n">
-        <v>28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>259.7</v>
@@ -5029,7 +5051,7 @@
         <v>62</v>
       </c>
       <c r="K93" t="n">
-        <v>28.57142857142857</v>
+        <v>25</v>
       </c>
       <c r="L93" t="n">
         <v>259.9</v>
@@ -5080,7 +5102,7 @@
         <v>62</v>
       </c>
       <c r="K94" t="n">
-        <v>38.46153846153847</v>
+        <v>25</v>
       </c>
       <c r="L94" t="n">
         <v>260.1</v>
@@ -5131,7 +5153,7 @@
         <v>62</v>
       </c>
       <c r="K95" t="n">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L95" t="n">
         <v>260.3</v>
@@ -5182,7 +5204,7 @@
         <v>62</v>
       </c>
       <c r="K96" t="n">
-        <v>45.45454545454545</v>
+        <v>50</v>
       </c>
       <c r="L96" t="n">
         <v>260.7</v>
@@ -5233,7 +5255,7 @@
         <v>62</v>
       </c>
       <c r="K97" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L97" t="n">
         <v>260.9</v>
@@ -5284,7 +5306,7 @@
         <v>64</v>
       </c>
       <c r="K98" t="n">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L98" t="n">
         <v>261.3</v>
@@ -5335,7 +5357,7 @@
         <v>65</v>
       </c>
       <c r="K99" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L99" t="n">
         <v>261.8</v>
@@ -5386,7 +5408,7 @@
         <v>65</v>
       </c>
       <c r="K100" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
         <v>262.4</v>
@@ -5437,7 +5459,7 @@
         <v>65</v>
       </c>
       <c r="K101" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L101" t="n">
         <v>262.9</v>
@@ -5488,7 +5510,7 @@
         <v>65</v>
       </c>
       <c r="K102" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
         <v>263.4</v>
@@ -5539,7 +5561,7 @@
         <v>66</v>
       </c>
       <c r="K103" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L103" t="n">
         <v>263.8</v>
@@ -5590,7 +5612,7 @@
         <v>67</v>
       </c>
       <c r="K104" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L104" t="n">
         <v>264.3</v>
@@ -5641,7 +5663,7 @@
         <v>67</v>
       </c>
       <c r="K105" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L105" t="n">
         <v>264.8</v>
@@ -5692,7 +5714,7 @@
         <v>68</v>
       </c>
       <c r="K106" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L106" t="n">
         <v>265.4</v>
@@ -5743,7 +5765,7 @@
         <v>69</v>
       </c>
       <c r="K107" t="n">
-        <v>63.63636363636363</v>
+        <v>60</v>
       </c>
       <c r="L107" t="n">
         <v>265.9</v>
@@ -5794,7 +5816,7 @@
         <v>70</v>
       </c>
       <c r="K108" t="n">
-        <v>66.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L108" t="n">
         <v>266.3</v>
@@ -5845,7 +5867,7 @@
         <v>71</v>
       </c>
       <c r="K109" t="n">
-        <v>53.84615384615385</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>266.5</v>
@@ -5896,7 +5918,7 @@
         <v>72</v>
       </c>
       <c r="K110" t="n">
-        <v>53.84615384615385</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L110" t="n">
         <v>266.6</v>
@@ -5947,7 +5969,7 @@
         <v>73</v>
       </c>
       <c r="K111" t="n">
-        <v>38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>266.6</v>
@@ -5998,7 +6020,7 @@
         <v>75</v>
       </c>
       <c r="K112" t="n">
-        <v>46.66666666666666</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L112" t="n">
         <v>266.8</v>
@@ -6049,7 +6071,7 @@
         <v>76</v>
       </c>
       <c r="K113" t="n">
-        <v>28.57142857142857</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L113" t="n">
         <v>266.8</v>
@@ -6100,7 +6122,7 @@
         <v>78</v>
       </c>
       <c r="K114" t="n">
-        <v>37.5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L114" t="n">
         <v>266.9</v>
@@ -6151,7 +6173,7 @@
         <v>80</v>
       </c>
       <c r="K115" t="n">
-        <v>22.22222222222222</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L115" t="n">
         <v>266.8</v>
@@ -6202,7 +6224,7 @@
         <v>81</v>
       </c>
       <c r="K116" t="n">
-        <v>15.78947368421053</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L116" t="n">
         <v>266.5</v>
@@ -6253,7 +6275,7 @@
         <v>81</v>
       </c>
       <c r="K117" t="n">
-        <v>15.78947368421053</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L117" t="n">
         <v>266.3</v>
@@ -6304,7 +6326,7 @@
         <v>81</v>
       </c>
       <c r="K118" t="n">
-        <v>5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L118" t="n">
         <v>266</v>
@@ -6355,7 +6377,7 @@
         <v>83</v>
       </c>
       <c r="K119" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L119" t="n">
         <v>266</v>
@@ -6406,7 +6428,7 @@
         <v>83</v>
       </c>
       <c r="K120" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L120" t="n">
         <v>266.1</v>
@@ -6457,7 +6479,7 @@
         <v>84</v>
       </c>
       <c r="K121" t="n">
-        <v>5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L121" t="n">
         <v>266.2</v>
@@ -6508,7 +6530,7 @@
         <v>85</v>
       </c>
       <c r="K122" t="n">
-        <v>10</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L122" t="n">
         <v>266.2</v>
@@ -6559,7 +6581,7 @@
         <v>85</v>
       </c>
       <c r="K123" t="n">
-        <v>5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L123" t="n">
         <v>266.3</v>
@@ -6610,7 +6632,7 @@
         <v>85</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L124" t="n">
         <v>266.2</v>
@@ -6661,7 +6683,7 @@
         <v>85</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L125" t="n">
         <v>266.3</v>
@@ -6712,7 +6734,7 @@
         <v>86</v>
       </c>
       <c r="K126" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L126" t="n">
         <v>266.4</v>
@@ -6763,7 +6785,7 @@
         <v>86</v>
       </c>
       <c r="K127" t="n">
-        <v>-5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L127" t="n">
         <v>266.5</v>
@@ -6814,7 +6836,7 @@
         <v>88</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L128" t="n">
         <v>266.8</v>
@@ -6967,7 +6989,7 @@
         <v>92</v>
       </c>
       <c r="K131" t="n">
-        <v>-5.263157894736842</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L131" t="n">
         <v>266.5</v>
@@ -7018,7 +7040,7 @@
         <v>93</v>
       </c>
       <c r="K132" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L132" t="n">
         <v>266.3</v>
@@ -7069,7 +7091,7 @@
         <v>95</v>
       </c>
       <c r="K133" t="n">
-        <v>-15.78947368421053</v>
+        <v>-40</v>
       </c>
       <c r="L133" t="n">
         <v>265.9</v>
@@ -7120,7 +7142,7 @@
         <v>96</v>
       </c>
       <c r="K134" t="n">
-        <v>-22.22222222222222</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L134" t="n">
         <v>265.6</v>
@@ -7171,7 +7193,7 @@
         <v>96</v>
       </c>
       <c r="K135" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L135" t="n">
         <v>265.3</v>
@@ -7222,7 +7244,7 @@
         <v>97</v>
       </c>
       <c r="K136" t="n">
-        <v>-12.5</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L136" t="n">
         <v>265</v>
@@ -7273,7 +7295,7 @@
         <v>97</v>
       </c>
       <c r="K137" t="n">
-        <v>-12.5</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L137" t="n">
         <v>264.7</v>
@@ -7324,7 +7346,7 @@
         <v>98</v>
       </c>
       <c r="K138" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>264.3</v>
@@ -7375,7 +7397,7 @@
         <v>98</v>
       </c>
       <c r="K139" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L139" t="n">
         <v>264</v>
@@ -7426,7 +7448,7 @@
         <v>98</v>
       </c>
       <c r="K140" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>263.8</v>
@@ -7477,7 +7499,7 @@
         <v>98</v>
       </c>
       <c r="K141" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L141" t="n">
         <v>263.8</v>
@@ -7528,7 +7550,7 @@
         <v>99</v>
       </c>
       <c r="K142" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>263.6</v>
@@ -7579,7 +7601,7 @@
         <v>101</v>
       </c>
       <c r="K143" t="n">
-        <v>-37.5</v>
+        <v>-60</v>
       </c>
       <c r="L143" t="n">
         <v>263.4</v>
@@ -7630,7 +7652,7 @@
         <v>101</v>
       </c>
       <c r="K144" t="n">
-        <v>-37.5</v>
+        <v>-60</v>
       </c>
       <c r="L144" t="n">
         <v>263.1</v>
@@ -7681,7 +7703,7 @@
         <v>103</v>
       </c>
       <c r="K145" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>263</v>
@@ -7732,7 +7754,7 @@
         <v>103</v>
       </c>
       <c r="K146" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>263</v>
@@ -7783,7 +7805,7 @@
         <v>105</v>
       </c>
       <c r="K147" t="n">
-        <v>-26.31578947368421</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L147" t="n">
         <v>262.8</v>
@@ -7834,7 +7856,7 @@
         <v>108</v>
       </c>
       <c r="K148" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="L148" t="n">
         <v>262.2</v>
@@ -7885,7 +7907,7 @@
         <v>112</v>
       </c>
       <c r="K149" t="n">
-        <v>-21.73913043478261</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L149" t="n">
         <v>262</v>
@@ -7936,7 +7958,7 @@
         <v>112</v>
       </c>
       <c r="K150" t="n">
-        <v>-18.18181818181818</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L150" t="n">
         <v>261.8</v>
@@ -8038,7 +8060,7 @@
         <v>113</v>
       </c>
       <c r="K152" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>261.3</v>
@@ -8089,7 +8111,7 @@
         <v>114</v>
       </c>
       <c r="K153" t="n">
-        <v>-15.78947368421053</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L153" t="n">
         <v>261.2</v>
@@ -8140,7 +8162,7 @@
         <v>118</v>
       </c>
       <c r="K154" t="n">
-        <v>-36.36363636363637</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L154" t="n">
         <v>260.7</v>
@@ -8191,7 +8213,7 @@
         <v>119</v>
       </c>
       <c r="K155" t="n">
-        <v>-30.43478260869566</v>
+        <v>-37.5</v>
       </c>
       <c r="L155" t="n">
         <v>260.1</v>
@@ -8242,7 +8264,7 @@
         <v>119</v>
       </c>
       <c r="K156" t="n">
-        <v>-27.27272727272727</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L156" t="n">
         <v>259.5</v>
@@ -8293,7 +8315,7 @@
         <v>119</v>
       </c>
       <c r="K157" t="n">
-        <v>-27.27272727272727</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L157" t="n">
         <v>259.1</v>
@@ -8344,7 +8366,7 @@
         <v>119</v>
       </c>
       <c r="K158" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L158" t="n">
         <v>259</v>
@@ -8395,7 +8417,7 @@
         <v>120</v>
       </c>
       <c r="K159" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L159" t="n">
         <v>258.6</v>
@@ -8446,7 +8468,7 @@
         <v>123</v>
       </c>
       <c r="K160" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>258.5</v>
@@ -8497,7 +8519,7 @@
         <v>125</v>
       </c>
       <c r="K161" t="n">
-        <v>-3.703703703703703</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L161" t="n">
         <v>258.7</v>
@@ -8548,7 +8570,7 @@
         <v>127</v>
       </c>
       <c r="K162" t="n">
-        <v>7.142857142857142</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L162" t="n">
         <v>259.1</v>
@@ -8599,7 +8621,7 @@
         <v>129</v>
       </c>
       <c r="K163" t="n">
-        <v>7.142857142857142</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L163" t="n">
         <v>259.4</v>
@@ -8650,7 +8672,7 @@
         <v>131</v>
       </c>
       <c r="K164" t="n">
-        <v>13.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L164" t="n">
         <v>260.3</v>
@@ -8701,7 +8723,7 @@
         <v>131</v>
       </c>
       <c r="K165" t="n">
-        <v>7.142857142857142</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L165" t="n">
         <v>261.1</v>
@@ -8752,7 +8774,7 @@
         <v>132</v>
       </c>
       <c r="K166" t="n">
-        <v>10.3448275862069</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L166" t="n">
         <v>262</v>
@@ -8803,7 +8825,7 @@
         <v>133</v>
       </c>
       <c r="K167" t="n">
-        <v>14.28571428571428</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L167" t="n">
         <v>262.8</v>
@@ -8854,7 +8876,7 @@
         <v>134</v>
       </c>
       <c r="K168" t="n">
-        <v>30.76923076923077</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L168" t="n">
         <v>263.7</v>
@@ -8905,7 +8927,7 @@
         <v>134</v>
       </c>
       <c r="K169" t="n">
-        <v>18.18181818181818</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L169" t="n">
         <v>264.5</v>
@@ -8956,7 +8978,7 @@
         <v>136</v>
       </c>
       <c r="K170" t="n">
-        <v>8.333333333333332</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L170" t="n">
         <v>264.8</v>
@@ -9007,7 +9029,7 @@
         <v>136</v>
       </c>
       <c r="K171" t="n">
-        <v>13.04347826086956</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L171" t="n">
         <v>264.9</v>
@@ -9058,7 +9080,7 @@
         <v>137</v>
       </c>
       <c r="K172" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L172" t="n">
         <v>264.9</v>
@@ -9109,7 +9131,7 @@
         <v>138</v>
       </c>
       <c r="K173" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L173" t="n">
         <v>265.2</v>
@@ -9160,7 +9182,7 @@
         <v>138</v>
       </c>
       <c r="K174" t="n">
-        <v>50</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L174" t="n">
         <v>265.3</v>
@@ -9211,7 +9233,7 @@
         <v>139</v>
       </c>
       <c r="K175" t="n">
-        <v>40</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L175" t="n">
         <v>265.3</v>
@@ -9262,7 +9284,7 @@
         <v>139</v>
       </c>
       <c r="K176" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>265.2</v>
@@ -9313,7 +9335,7 @@
         <v>139</v>
       </c>
       <c r="K177" t="n">
-        <v>40</v>
+        <v>-20</v>
       </c>
       <c r="L177" t="n">
         <v>265.2</v>
@@ -9364,7 +9386,7 @@
         <v>140</v>
       </c>
       <c r="K178" t="n">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>265.2</v>
@@ -9415,7 +9437,7 @@
         <v>141</v>
       </c>
       <c r="K179" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="L179" t="n">
         <v>265.3</v>
@@ -9466,7 +9488,7 @@
         <v>141</v>
       </c>
       <c r="K180" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L180" t="n">
         <v>265.6</v>
@@ -9517,7 +9539,7 @@
         <v>142</v>
       </c>
       <c r="K181" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L181" t="n">
         <v>265.8</v>
@@ -9568,7 +9590,7 @@
         <v>143</v>
       </c>
       <c r="K182" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L182" t="n">
         <v>266</v>
@@ -9619,7 +9641,7 @@
         <v>145</v>
       </c>
       <c r="K183" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L183" t="n">
         <v>265.9</v>
@@ -9772,7 +9794,7 @@
         <v>145</v>
       </c>
       <c r="K186" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>265.8</v>
@@ -9823,7 +9845,7 @@
         <v>145</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L187" t="n">
         <v>265.8</v>
@@ -9874,7 +9896,7 @@
         <v>145</v>
       </c>
       <c r="K188" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L188" t="n">
         <v>265.7</v>
@@ -9925,7 +9947,7 @@
         <v>146</v>
       </c>
       <c r="K189" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L189" t="n">
         <v>265.4</v>
@@ -9976,7 +9998,7 @@
         <v>146</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L190" t="n">
         <v>265.1</v>
@@ -10027,7 +10049,7 @@
         <v>147</v>
       </c>
       <c r="K191" t="n">
-        <v>9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L191" t="n">
         <v>265</v>
@@ -10078,7 +10100,7 @@
         <v>148</v>
       </c>
       <c r="K192" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>264.9</v>
@@ -10129,7 +10151,7 @@
         <v>149</v>
       </c>
       <c r="K193" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>264.9</v>
@@ -10180,7 +10202,7 @@
         <v>149</v>
       </c>
       <c r="K194" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>264.9</v>
@@ -10282,7 +10304,7 @@
         <v>150</v>
       </c>
       <c r="K196" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L196" t="n">
         <v>264.8</v>
@@ -10333,7 +10355,7 @@
         <v>152</v>
       </c>
       <c r="K197" t="n">
-        <v>-23.07692307692308</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L197" t="n">
         <v>264.5</v>
@@ -10435,7 +10457,7 @@
         <v>152</v>
       </c>
       <c r="K199" t="n">
-        <v>-45.45454545454545</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L199" t="n">
         <v>264</v>
@@ -10486,7 +10508,7 @@
         <v>153</v>
       </c>
       <c r="K200" t="n">
-        <v>-50</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L200" t="n">
         <v>263.7</v>
@@ -10537,7 +10559,7 @@
         <v>154</v>
       </c>
       <c r="K201" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L201" t="n">
         <v>263.4</v>
@@ -10588,7 +10610,7 @@
         <v>154</v>
       </c>
       <c r="K202" t="n">
-        <v>-45.45454545454545</v>
+        <v>-60</v>
       </c>
       <c r="L202" t="n">
         <v>263</v>
@@ -10639,7 +10661,7 @@
         <v>154</v>
       </c>
       <c r="K203" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L203" t="n">
         <v>262.7</v>
@@ -10690,7 +10712,7 @@
         <v>154</v>
       </c>
       <c r="K204" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L204" t="n">
         <v>262.4</v>
@@ -10741,7 +10763,7 @@
         <v>154</v>
       </c>
       <c r="K205" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L205" t="n">
         <v>262.1</v>
@@ -10792,7 +10814,7 @@
         <v>154</v>
       </c>
       <c r="K206" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>261.9</v>
@@ -10843,7 +10865,7 @@
         <v>155</v>
       </c>
       <c r="K207" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>262</v>
@@ -10894,7 +10916,7 @@
         <v>156</v>
       </c>
       <c r="K208" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>262</v>
@@ -10945,7 +10967,7 @@
         <v>156</v>
       </c>
       <c r="K209" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L209" t="n">
         <v>262</v>
@@ -10996,7 +11018,7 @@
         <v>156</v>
       </c>
       <c r="K210" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>262.1</v>
@@ -11047,7 +11069,7 @@
         <v>157</v>
       </c>
       <c r="K211" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L211" t="n">
         <v>262.2</v>
@@ -11098,7 +11120,7 @@
         <v>157</v>
       </c>
       <c r="K212" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L212" t="n">
         <v>262.3</v>
@@ -11149,7 +11171,7 @@
         <v>158</v>
       </c>
       <c r="K213" t="n">
-        <v>-11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L213" t="n">
         <v>262.5</v>
@@ -11200,7 +11222,7 @@
         <v>160</v>
       </c>
       <c r="K214" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>262.5</v>
@@ -11251,7 +11273,7 @@
         <v>161</v>
       </c>
       <c r="K215" t="n">
-        <v>-16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L215" t="n">
         <v>262.6</v>
@@ -11302,7 +11324,7 @@
         <v>165</v>
       </c>
       <c r="K216" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L216" t="n">
         <v>263.1</v>
@@ -11353,7 +11375,7 @@
         <v>167</v>
       </c>
       <c r="K217" t="n">
-        <v>46.66666666666666</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L217" t="n">
         <v>263.7</v>
@@ -11404,7 +11426,7 @@
         <v>167</v>
       </c>
       <c r="K218" t="n">
-        <v>46.66666666666666</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L218" t="n">
         <v>264.4</v>
@@ -11455,7 +11477,7 @@
         <v>167</v>
       </c>
       <c r="K219" t="n">
-        <v>46.66666666666666</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L219" t="n">
         <v>265.1</v>
@@ -11506,7 +11528,7 @@
         <v>168</v>
       </c>
       <c r="K220" t="n">
-        <v>60</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L220" t="n">
         <v>265.9</v>
@@ -11557,7 +11579,7 @@
         <v>169</v>
       </c>
       <c r="K221" t="n">
-        <v>46.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L221" t="n">
         <v>266.5</v>
@@ -11659,7 +11681,7 @@
         <v>171</v>
       </c>
       <c r="K223" t="n">
-        <v>52.94117647058824</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L223" t="n">
         <v>267.9</v>
@@ -11710,7 +11732,7 @@
         <v>172</v>
       </c>
       <c r="K224" t="n">
-        <v>55.55555555555556</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L224" t="n">
         <v>268.9</v>
@@ -11761,7 +11783,7 @@
         <v>172</v>
       </c>
       <c r="K225" t="n">
-        <v>55.55555555555556</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L225" t="n">
         <v>269.8</v>
@@ -11812,7 +11834,7 @@
         <v>172</v>
       </c>
       <c r="K226" t="n">
-        <v>55.55555555555556</v>
+        <v>60</v>
       </c>
       <c r="L226" t="n">
         <v>270.3</v>
@@ -11863,7 +11885,7 @@
         <v>174</v>
       </c>
       <c r="K227" t="n">
-        <v>36.84210526315789</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L227" t="n">
         <v>270.4</v>
@@ -11914,7 +11936,7 @@
         <v>174</v>
       </c>
       <c r="K228" t="n">
-        <v>44.44444444444444</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L228" t="n">
         <v>270.5</v>
@@ -11965,7 +11987,7 @@
         <v>175</v>
       </c>
       <c r="K229" t="n">
-        <v>36.84210526315789</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L229" t="n">
         <v>270.5</v>
@@ -12016,7 +12038,7 @@
         <v>176</v>
       </c>
       <c r="K230" t="n">
-        <v>40</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L230" t="n">
         <v>270.5</v>
@@ -12067,7 +12089,7 @@
         <v>176</v>
       </c>
       <c r="K231" t="n">
-        <v>36.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>270.6</v>
@@ -12118,7 +12140,7 @@
         <v>177</v>
       </c>
       <c r="K232" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>270.7</v>
@@ -12169,7 +12191,7 @@
         <v>178</v>
       </c>
       <c r="K233" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>270.8</v>
@@ -12220,7 +12242,7 @@
         <v>178</v>
       </c>
       <c r="K234" t="n">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>270.8</v>
@@ -12271,7 +12293,7 @@
         <v>178</v>
       </c>
       <c r="K235" t="n">
-        <v>52.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>270.8</v>
@@ -12322,7 +12344,7 @@
         <v>178</v>
       </c>
       <c r="K236" t="n">
-        <v>38.46153846153847</v>
+        <v>50</v>
       </c>
       <c r="L236" t="n">
         <v>270.8</v>
@@ -12373,7 +12395,7 @@
         <v>179</v>
       </c>
       <c r="K237" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L237" t="n">
         <v>271.1</v>
@@ -12424,7 +12446,7 @@
         <v>180</v>
       </c>
       <c r="K238" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L238" t="n">
         <v>271.5</v>
@@ -12475,7 +12497,7 @@
         <v>183</v>
       </c>
       <c r="K239" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L239" t="n">
         <v>271.7</v>
@@ -12526,7 +12548,7 @@
         <v>184</v>
       </c>
       <c r="K240" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L240" t="n">
         <v>271.9</v>
@@ -12577,7 +12599,7 @@
         <v>184</v>
       </c>
       <c r="K241" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L241" t="n">
         <v>272.1</v>
@@ -12679,7 +12701,7 @@
         <v>186</v>
       </c>
       <c r="K243" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L243" t="n">
         <v>272.6</v>
@@ -12730,7 +12752,7 @@
         <v>186</v>
       </c>
       <c r="K244" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L244" t="n">
         <v>272.8</v>
@@ -12832,7 +12854,7 @@
         <v>189</v>
       </c>
       <c r="K246" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>272.9</v>
@@ -12883,7 +12905,7 @@
         <v>190</v>
       </c>
       <c r="K247" t="n">
-        <v>12.5</v>
+        <v>-20</v>
       </c>
       <c r="L247" t="n">
         <v>272.8</v>
@@ -12934,7 +12956,7 @@
         <v>190</v>
       </c>
       <c r="K248" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L248" t="n">
         <v>272.6</v>
@@ -12985,7 +13007,7 @@
         <v>191</v>
       </c>
       <c r="K249" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L249" t="n">
         <v>272.6</v>
@@ -13036,7 +13058,7 @@
         <v>191</v>
       </c>
       <c r="K250" t="n">
-        <v>6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L250" t="n">
         <v>272.5</v>
@@ -13087,7 +13109,7 @@
         <v>193</v>
       </c>
       <c r="K251" t="n">
-        <v>-5.88235294117647</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L251" t="n">
         <v>272.2</v>
@@ -13138,7 +13160,7 @@
         <v>193</v>
       </c>
       <c r="K252" t="n">
-        <v>-12.5</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L252" t="n">
         <v>271.7</v>
@@ -13189,7 +13211,7 @@
         <v>194</v>
       </c>
       <c r="K253" t="n">
-        <v>-25</v>
+        <v>-75</v>
       </c>
       <c r="L253" t="n">
         <v>271.1</v>
@@ -13240,7 +13262,7 @@
         <v>195</v>
       </c>
       <c r="K254" t="n">
-        <v>-17.64705882352941</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L254" t="n">
         <v>270.6</v>
@@ -13291,7 +13313,7 @@
         <v>197</v>
       </c>
       <c r="K255" t="n">
-        <v>-26.31578947368421</v>
+        <v>-75</v>
       </c>
       <c r="L255" t="n">
         <v>270.1</v>
@@ -13342,7 +13364,7 @@
         <v>199</v>
       </c>
       <c r="K256" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L256" t="n">
         <v>269.7</v>
@@ -13393,7 +13415,7 @@
         <v>200</v>
       </c>
       <c r="K257" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L257" t="n">
         <v>269.5</v>
@@ -13444,7 +13466,7 @@
         <v>201</v>
       </c>
       <c r="K258" t="n">
-        <v>-23.80952380952381</v>
+        <v>-20</v>
       </c>
       <c r="L258" t="n">
         <v>269.2</v>
@@ -13495,7 +13517,7 @@
         <v>202</v>
       </c>
       <c r="K259" t="n">
-        <v>-5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L259" t="n">
         <v>269.1</v>
@@ -13546,7 +13568,7 @@
         <v>202</v>
       </c>
       <c r="K260" t="n">
-        <v>-11.11111111111111</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L260" t="n">
         <v>269</v>
@@ -13597,7 +13619,7 @@
         <v>204</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L261" t="n">
         <v>269.3</v>
@@ -13648,7 +13670,7 @@
         <v>204</v>
       </c>
       <c r="K262" t="n">
-        <v>-11.11111111111111</v>
+        <v>40</v>
       </c>
       <c r="L262" t="n">
         <v>269.6</v>
@@ -13699,7 +13721,7 @@
         <v>205</v>
       </c>
       <c r="K263" t="n">
-        <v>-15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L263" t="n">
         <v>269.9</v>
@@ -13750,7 +13772,7 @@
         <v>206</v>
       </c>
       <c r="K264" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L264" t="n">
         <v>270</v>
@@ -13801,7 +13823,7 @@
         <v>207</v>
       </c>
       <c r="K265" t="n">
-        <v>-5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L265" t="n">
         <v>270.4</v>
@@ -13852,7 +13874,7 @@
         <v>207</v>
       </c>
       <c r="K266" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L266" t="n">
         <v>270.6</v>
@@ -13903,7 +13925,7 @@
         <v>207</v>
       </c>
       <c r="K267" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>270.7</v>
@@ -13954,7 +13976,7 @@
         <v>207</v>
       </c>
       <c r="K268" t="n">
-        <v>-5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L268" t="n">
         <v>270.9</v>
@@ -14005,7 +14027,7 @@
         <v>209</v>
       </c>
       <c r="K269" t="n">
-        <v>11.11111111111111</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L269" t="n">
         <v>271.2</v>
@@ -14056,7 +14078,7 @@
         <v>210</v>
       </c>
       <c r="K270" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L270" t="n">
         <v>271.6</v>
@@ -14107,7 +14129,7 @@
         <v>210</v>
       </c>
       <c r="K271" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>271.8</v>
@@ -14158,7 +14180,7 @@
         <v>210</v>
       </c>
       <c r="K272" t="n">
-        <v>29.41176470588236</v>
+        <v>60</v>
       </c>
       <c r="L272" t="n">
         <v>272</v>
@@ -14209,7 +14231,7 @@
         <v>211</v>
       </c>
       <c r="K273" t="n">
-        <v>41.17647058823529</v>
+        <v>100</v>
       </c>
       <c r="L273" t="n">
         <v>272.4</v>
@@ -14260,7 +14282,7 @@
         <v>211</v>
       </c>
       <c r="K274" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L274" t="n">
         <v>272.9</v>
@@ -14311,7 +14333,7 @@
         <v>212</v>
       </c>
       <c r="K275" t="n">
-        <v>46.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L275" t="n">
         <v>273.2</v>
@@ -14362,7 +14384,7 @@
         <v>214</v>
       </c>
       <c r="K276" t="n">
-        <v>46.66666666666666</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L276" t="n">
         <v>273.7</v>
@@ -14413,7 +14435,7 @@
         <v>216</v>
       </c>
       <c r="K277" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L277" t="n">
         <v>274</v>
@@ -14464,7 +14486,7 @@
         <v>217</v>
       </c>
       <c r="K278" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="L278" t="n">
         <v>274.4</v>
@@ -14515,7 +14537,7 @@
         <v>218</v>
       </c>
       <c r="K279" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="L279" t="n">
         <v>274.7</v>
@@ -14566,7 +14588,7 @@
         <v>219</v>
       </c>
       <c r="K280" t="n">
-        <v>41.17647058823529</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L280" t="n">
         <v>275</v>
@@ -14617,7 +14639,7 @@
         <v>220</v>
       </c>
       <c r="K281" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L281" t="n">
         <v>275.2</v>
@@ -14668,7 +14690,7 @@
         <v>221</v>
       </c>
       <c r="K282" t="n">
-        <v>29.41176470588236</v>
+        <v>20</v>
       </c>
       <c r="L282" t="n">
         <v>275.5</v>
@@ -14719,7 +14741,7 @@
         <v>221</v>
       </c>
       <c r="K283" t="n">
-        <v>37.5</v>
+        <v>20</v>
       </c>
       <c r="L283" t="n">
         <v>275.7</v>
@@ -14770,7 +14792,7 @@
         <v>221</v>
       </c>
       <c r="K284" t="n">
-        <v>46.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L284" t="n">
         <v>275.9</v>
@@ -14821,7 +14843,7 @@
         <v>222</v>
       </c>
       <c r="K285" t="n">
-        <v>46.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L285" t="n">
         <v>276.3</v>
@@ -14872,7 +14894,7 @@
         <v>223</v>
       </c>
       <c r="K286" t="n">
-        <v>50</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L286" t="n">
         <v>276.6</v>
@@ -14923,7 +14945,7 @@
         <v>224</v>
       </c>
       <c r="K287" t="n">
-        <v>52.94117647058824</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L287" t="n">
         <v>277.2</v>
@@ -14974,7 +14996,7 @@
         <v>224</v>
       </c>
       <c r="K288" t="n">
-        <v>52.94117647058824</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L288" t="n">
         <v>277.7</v>
@@ -15025,7 +15047,7 @@
         <v>224</v>
       </c>
       <c r="K289" t="n">
-        <v>46.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L289" t="n">
         <v>278.1</v>
@@ -15076,7 +15098,7 @@
         <v>225</v>
       </c>
       <c r="K290" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L290" t="n">
         <v>278.3</v>
@@ -15127,7 +15149,7 @@
         <v>226</v>
       </c>
       <c r="K291" t="n">
-        <v>37.5</v>
+        <v>60</v>
       </c>
       <c r="L291" t="n">
         <v>278.7</v>
@@ -15178,7 +15200,7 @@
         <v>226</v>
       </c>
       <c r="K292" t="n">
-        <v>37.5</v>
+        <v>60</v>
       </c>
       <c r="L292" t="n">
         <v>279</v>
@@ -15229,7 +15251,7 @@
         <v>226</v>
       </c>
       <c r="K293" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L293" t="n">
         <v>279.3</v>
@@ -15280,7 +15302,7 @@
         <v>228</v>
       </c>
       <c r="K294" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L294" t="n">
         <v>279.4</v>
@@ -15331,7 +15353,7 @@
         <v>230</v>
       </c>
       <c r="K295" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L295" t="n">
         <v>279.6</v>
@@ -15382,7 +15404,7 @@
         <v>230</v>
       </c>
       <c r="K296" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L296" t="n">
         <v>279.7</v>
@@ -15433,7 +15455,7 @@
         <v>231</v>
       </c>
       <c r="K297" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L297" t="n">
         <v>279.6</v>
@@ -15484,7 +15506,7 @@
         <v>233</v>
       </c>
       <c r="K298" t="n">
-        <v>37.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L298" t="n">
         <v>279.7</v>
@@ -15535,7 +15557,7 @@
         <v>234</v>
       </c>
       <c r="K299" t="n">
-        <v>37.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L299" t="n">
         <v>279.9</v>
@@ -15586,7 +15608,7 @@
         <v>234</v>
       </c>
       <c r="K300" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L300" t="n">
         <v>280.2</v>
@@ -15637,7 +15659,7 @@
         <v>236</v>
       </c>
       <c r="K301" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>280.2</v>
@@ -15688,7 +15710,7 @@
         <v>239</v>
       </c>
       <c r="K302" t="n">
-        <v>33.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L302" t="n">
         <v>280.5</v>
@@ -15739,7 +15761,7 @@
         <v>246</v>
       </c>
       <c r="K303" t="n">
-        <v>-4</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L303" t="n">
         <v>280.1</v>
@@ -15790,7 +15812,7 @@
         <v>252</v>
       </c>
       <c r="K304" t="n">
-        <v>16.12903225806452</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L304" t="n">
         <v>280.5</v>
@@ -15841,7 +15863,7 @@
         <v>257</v>
       </c>
       <c r="K305" t="n">
-        <v>-2.857142857142857</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L305" t="n">
         <v>280.2</v>
@@ -15943,7 +15965,7 @@
         <v>260</v>
       </c>
       <c r="K307" t="n">
-        <v>-5.555555555555555</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L307" t="n">
         <v>280</v>
@@ -15994,7 +16016,7 @@
         <v>261</v>
       </c>
       <c r="K308" t="n">
-        <v>-8.108108108108109</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L308" t="n">
         <v>279.6</v>
@@ -16045,7 +16067,7 @@
         <v>263</v>
       </c>
       <c r="K309" t="n">
-        <v>-12.82051282051282</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L309" t="n">
         <v>278.9</v>
@@ -16096,7 +16118,7 @@
         <v>263</v>
       </c>
       <c r="K310" t="n">
-        <v>-10.52631578947368</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L310" t="n">
         <v>278.2</v>
@@ -16147,7 +16169,7 @@
         <v>265</v>
       </c>
       <c r="K311" t="n">
-        <v>-17.94871794871795</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L311" t="n">
         <v>277.5</v>
@@ -16198,7 +16220,7 @@
         <v>266</v>
       </c>
       <c r="K312" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="L312" t="n">
         <v>276.6</v>
@@ -16249,7 +16271,7 @@
         <v>266</v>
       </c>
       <c r="K313" t="n">
-        <v>-15</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L313" t="n">
         <v>276.4</v>
@@ -16300,7 +16322,7 @@
         <v>267</v>
       </c>
       <c r="K314" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L314" t="n">
         <v>275.7</v>
@@ -16351,7 +16373,7 @@
         <v>267</v>
       </c>
       <c r="K315" t="n">
-        <v>-13.51351351351351</v>
+        <v>-50</v>
       </c>
       <c r="L315" t="n">
         <v>275.5</v>
@@ -16402,7 +16424,7 @@
         <v>269</v>
       </c>
       <c r="K316" t="n">
-        <v>-17.94871794871795</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L316" t="n">
         <v>274.9</v>
@@ -16453,7 +16475,7 @@
         <v>270</v>
       </c>
       <c r="K317" t="n">
-        <v>-12.82051282051282</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L317" t="n">
         <v>274.5</v>
@@ -16504,7 +16526,7 @@
         <v>270</v>
       </c>
       <c r="K318" t="n">
-        <v>-18.91891891891892</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L318" t="n">
         <v>274.2</v>
@@ -16555,7 +16577,7 @@
         <v>270</v>
       </c>
       <c r="K319" t="n">
-        <v>-22.22222222222222</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L319" t="n">
         <v>274.1</v>
@@ -16606,7 +16628,7 @@
         <v>272</v>
       </c>
       <c r="K320" t="n">
-        <v>-26.31578947368421</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L320" t="n">
         <v>273.8</v>
@@ -16657,7 +16679,7 @@
         <v>273</v>
       </c>
       <c r="K321" t="n">
-        <v>-18.91891891891892</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L321" t="n">
         <v>273.8</v>
@@ -16708,7 +16730,7 @@
         <v>274</v>
       </c>
       <c r="K322" t="n">
-        <v>-25.71428571428571</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>273.8</v>
@@ -16759,7 +16781,7 @@
         <v>275</v>
       </c>
       <c r="K323" t="n">
-        <v>-10.3448275862069</v>
+        <v>-25</v>
       </c>
       <c r="L323" t="n">
         <v>273.7</v>
@@ -16810,7 +16832,7 @@
         <v>278</v>
       </c>
       <c r="K324" t="n">
-        <v>-23.07692307692308</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L324" t="n">
         <v>273.8</v>
@@ -16861,7 +16883,7 @@
         <v>278</v>
       </c>
       <c r="K325" t="n">
-        <v>-4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L325" t="n">
         <v>273.9</v>
@@ -16912,7 +16934,7 @@
         <v>278</v>
       </c>
       <c r="K326" t="n">
-        <v>-15.78947368421053</v>
+        <v>25</v>
       </c>
       <c r="L326" t="n">
         <v>274.2</v>
@@ -16963,7 +16985,7 @@
         <v>282</v>
       </c>
       <c r="K327" t="n">
-        <v>-27.27272727272727</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L327" t="n">
         <v>274</v>
@@ -17014,7 +17036,7 @@
         <v>284</v>
       </c>
       <c r="K328" t="n">
-        <v>-30.43478260869566</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L328" t="n">
         <v>273.6</v>
@@ -17065,7 +17087,7 @@
         <v>286</v>
       </c>
       <c r="K329" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L329" t="n">
         <v>273.4</v>
@@ -17116,7 +17138,7 @@
         <v>286</v>
       </c>
       <c r="K330" t="n">
-        <v>-13.04347826086956</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L330" t="n">
         <v>273.4</v>
@@ -17167,7 +17189,7 @@
         <v>286</v>
       </c>
       <c r="K331" t="n">
-        <v>-4.761904761904762</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L331" t="n">
         <v>273.3</v>
@@ -17218,7 +17240,7 @@
         <v>286</v>
       </c>
       <c r="K332" t="n">
-        <v>-10</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L332" t="n">
         <v>273.1</v>
@@ -17269,7 +17291,7 @@
         <v>286</v>
       </c>
       <c r="K333" t="n">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="L333" t="n">
         <v>273</v>
@@ -17320,7 +17342,7 @@
         <v>287</v>
       </c>
       <c r="K334" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L334" t="n">
         <v>272.7</v>
@@ -17371,7 +17393,7 @@
         <v>288</v>
       </c>
       <c r="K335" t="n">
-        <v>-14.28571428571428</v>
+        <v>-40</v>
       </c>
       <c r="L335" t="n">
         <v>272.3</v>
@@ -17422,7 +17444,7 @@
         <v>289</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L336" t="n">
         <v>272</v>
@@ -17473,7 +17495,7 @@
         <v>292</v>
       </c>
       <c r="K337" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L337" t="n">
         <v>271.8</v>
@@ -17524,7 +17546,7 @@
         <v>292</v>
       </c>
       <c r="K338" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L338" t="n">
         <v>271.8</v>
@@ -17575,7 +17597,7 @@
         <v>292</v>
       </c>
       <c r="K339" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L339" t="n">
         <v>271.6</v>
@@ -17677,7 +17699,7 @@
         <v>294</v>
       </c>
       <c r="K341" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>271.6</v>

--- a/BackTest/2019-10-15 BackTest BAT.xlsx
+++ b/BackTest/2019-10-15 BackTest BAT.xlsx
@@ -451,17 +451,13 @@
         <v>253.3666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>254</v>
-      </c>
-      <c r="K2" t="n">
-        <v>254</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>253.35</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>254</v>
-      </c>
-      <c r="K3" t="n">
-        <v>254</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>253.3166666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>253</v>
-      </c>
-      <c r="K4" t="n">
-        <v>254</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>253.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>255</v>
-      </c>
-      <c r="K5" t="n">
-        <v>254</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>253.3333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>256</v>
-      </c>
-      <c r="K6" t="n">
-        <v>254</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>253.3666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>256</v>
-      </c>
-      <c r="K7" t="n">
-        <v>254</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>253.3833333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>255</v>
-      </c>
-      <c r="K8" t="n">
-        <v>254</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>253.4166666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>256</v>
-      </c>
-      <c r="K9" t="n">
-        <v>254</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>253.4666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>256</v>
-      </c>
-      <c r="K10" t="n">
-        <v>254</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>253.5166666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>256</v>
-      </c>
-      <c r="K11" t="n">
-        <v>254</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>253.55</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>256</v>
-      </c>
-      <c r="K12" t="n">
-        <v>254</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>253.6166666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>256</v>
-      </c>
-      <c r="K13" t="n">
-        <v>254</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>253.65</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>256</v>
-      </c>
-      <c r="K14" t="n">
-        <v>254</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>253.6833333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>256</v>
-      </c>
-      <c r="K15" t="n">
-        <v>254</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>253.7333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>257</v>
-      </c>
-      <c r="K16" t="n">
-        <v>254</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>253.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>258</v>
-      </c>
-      <c r="K17" t="n">
-        <v>254</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1141,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>254</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1182,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>254</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1223,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>254</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>254</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1305,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>254</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1346,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>254</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1387,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>254</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1428,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>254</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1466,17 +1294,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>254</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1507,17 +1329,11 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>254</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1551,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>254</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1592,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>254</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1633,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>254</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1674,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>254</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1715,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>254</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1756,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>254</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1797,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>254</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1838,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>254</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1879,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>254</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1920,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>254</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1961,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>254</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2002,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>254</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2043,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>254</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2084,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>254</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2125,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>254</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2166,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>254</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2207,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>254</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2248,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>254</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2289,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>254</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2330,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>254</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2371,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>254</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2412,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>254</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2453,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>254</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2494,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>254</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2535,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>254</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2576,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>254</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2617,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>254</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2658,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>254</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2699,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>254</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2740,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>254</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2781,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>254</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2822,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>254</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2863,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>254</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2904,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>254</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2945,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>254</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2986,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>254</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3027,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>254</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3068,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>254</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3109,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>254</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3150,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>254</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3191,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>254</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3232,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>254</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3273,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>254</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3314,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>254</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3355,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>254</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3396,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>254</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3431,20 +2971,18 @@
         <v>258.3833333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>258</v>
+      </c>
       <c r="K74" t="n">
-        <v>254</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3479,11 +3017,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -3513,18 +3051,20 @@
         <v>258.3833333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>256</v>
+      </c>
       <c r="K76" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -3554,20 +3094,18 @@
         <v>258.3833333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>257</v>
+      </c>
       <c r="K77" t="n">
-        <v>254</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3602,11 +3140,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -3643,11 +3181,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -3683,14 +3221,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>254</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3724,14 +3256,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>254</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3765,14 +3291,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>254</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3806,14 +3326,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>254</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3847,14 +3361,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>254</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3888,14 +3396,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>254</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3929,14 +3431,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>254</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3970,14 +3466,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>254</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4011,14 +3501,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>254</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4052,14 +3536,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>254</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4093,14 +3571,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>254</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4134,14 +3606,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>254</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4175,14 +3641,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>254</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4216,14 +3676,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>254</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4257,14 +3711,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>254</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4298,14 +3746,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>254</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4339,14 +3781,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>254</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4380,14 +3816,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>254</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4421,14 +3851,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>254</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4462,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>254</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4503,14 +3921,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>254</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4544,14 +3956,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>254</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4585,14 +3991,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>254</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4626,14 +4026,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>254</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4667,14 +4061,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>254</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4708,14 +4096,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>254</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4746,19 +4128,13 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>254</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>1.05011811023622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -4787,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4857,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4892,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -5032,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -6639,13 +6015,17 @@
         <v>263.9166666666667</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>258</v>
+      </c>
+      <c r="K160" t="n">
+        <v>258</v>
+      </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
@@ -6674,14 +6054,22 @@
         <v>263.8833333333333</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>261</v>
+      </c>
+      <c r="K161" t="n">
+        <v>258</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6709,14 +6097,22 @@
         <v>263.8833333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>263</v>
+      </c>
+      <c r="K162" t="n">
+        <v>258</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6744,14 +6140,22 @@
         <v>263.8333333333333</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>265</v>
+      </c>
+      <c r="K163" t="n">
+        <v>258</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6785,8 +6189,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>258</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6820,8 +6230,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>258</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6855,8 +6271,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>258</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6890,8 +6312,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>258</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6925,8 +6353,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>258</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6960,8 +6394,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>258</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6995,8 +6435,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>258</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7030,8 +6476,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>258</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7065,8 +6517,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>258</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7100,8 +6558,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>258</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7135,8 +6599,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>258</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7170,8 +6640,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>258</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7205,8 +6681,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>258</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7240,8 +6722,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>258</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7275,8 +6763,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>258</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7310,8 +6804,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>258</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7345,8 +6845,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>258</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7380,8 +6886,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>258</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7415,8 +6927,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>258</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +6968,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>258</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7485,8 +7009,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>258</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7520,8 +7050,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>258</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7555,8 +7091,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>258</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7590,8 +7132,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>258</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7625,8 +7173,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>258</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7660,8 +7214,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>258</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7695,8 +7255,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>258</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7730,8 +7296,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>258</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7765,8 +7337,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>258</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7800,8 +7378,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>258</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7835,8 +7419,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>258</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7870,8 +7460,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>258</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7905,8 +7501,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>258</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7940,8 +7542,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>258</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7975,8 +7583,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>258</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8010,8 +7624,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>258</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8045,8 +7665,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>258</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8080,8 +7706,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>258</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8115,8 +7747,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>258</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8150,8 +7788,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>258</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8185,8 +7829,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>258</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8220,8 +7870,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>258</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8255,8 +7911,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>258</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8290,8 +7952,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>258</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8325,8 +7993,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>258</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8360,8 +8034,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>258</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8395,8 +8075,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>258</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8430,8 +8116,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>258</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8465,8 +8157,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>258</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8500,8 +8198,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>258</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8535,8 +8239,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>258</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8570,8 +8280,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>258</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8321,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>258</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8640,8 +8362,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>258</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8675,8 +8403,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>258</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8710,8 +8444,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>258</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8745,8 +8485,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>258</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8780,8 +8526,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>258</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8815,8 +8567,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>258</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8850,8 +8608,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>258</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8885,8 +8649,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>258</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8920,8 +8690,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>258</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8955,8 +8731,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>258</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8990,8 +8772,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>258</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9025,8 +8813,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>258</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9060,8 +8854,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>258</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9095,8 +8895,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>258</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9130,8 +8936,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>258</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9165,8 +8977,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>258</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9200,8 +9018,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>258</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9235,8 +9059,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>258</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9270,8 +9100,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>258</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9305,8 +9141,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>258</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9340,8 +9182,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>258</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9375,8 +9223,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>258</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9410,8 +9264,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>258</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9445,8 +9305,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>258</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9480,8 +9346,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>258</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9515,8 +9387,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>258</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9550,8 +9428,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>258</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9585,8 +9469,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>258</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9620,8 +9510,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>258</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9655,8 +9551,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>258</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9690,8 +9592,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>258</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9725,8 +9633,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>258</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +9674,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>258</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9795,8 +9715,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>258</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9830,8 +9756,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>258</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9865,8 +9797,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>258</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9900,8 +9838,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>258</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9935,8 +9879,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>258</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9970,8 +9920,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>258</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10005,8 +9961,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>258</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10040,8 +10002,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>258</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10075,8 +10043,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>258</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10110,8 +10084,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>258</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10145,8 +10125,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>258</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10180,8 +10166,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>258</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10215,8 +10207,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>258</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10250,8 +10248,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>258</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10285,8 +10289,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>258</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10320,8 +10330,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>258</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10355,8 +10371,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>258</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10390,8 +10412,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>258</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10425,8 +10453,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>258</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10460,8 +10494,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>258</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10495,8 +10535,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>258</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10530,8 +10576,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>258</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10565,8 +10617,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>258</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10600,8 +10658,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>258</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10635,8 +10699,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>258</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10670,8 +10740,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>258</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10705,8 +10781,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>258</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10740,8 +10822,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>258</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10775,8 +10863,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>258</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10810,8 +10904,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>258</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10845,8 +10945,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>258</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10880,8 +10986,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>258</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10915,8 +11027,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>258</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10950,8 +11068,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>258</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10985,8 +11109,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>258</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11020,8 +11150,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>258</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11055,8 +11191,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>258</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11090,8 +11232,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>258</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11125,8 +11273,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>258</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11157,13 +11311,19 @@
         <v>0</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>258</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M289" t="n">
-        <v>1</v>
+        <v>1.080271317829457</v>
       </c>
     </row>
     <row r="290">
@@ -11192,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
@@ -11227,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>

--- a/BackTest/2019-10-15 BackTest BAT.xlsx
+++ b/BackTest/2019-10-15 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M320"/>
+  <dimension ref="A1:M321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>254</v>
       </c>
       <c r="F2" t="n">
-        <v>829.21</v>
+        <v>138.1791</v>
       </c>
       <c r="G2" t="n">
-        <v>253.3666666666667</v>
+        <v>253.3833333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>254</v>
       </c>
       <c r="F3" t="n">
-        <v>2602.273</v>
+        <v>829.21</v>
       </c>
       <c r="G3" t="n">
-        <v>253.35</v>
+        <v>253.3666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C4" t="n">
         <v>254</v>
@@ -512,13 +512,13 @@
         <v>254</v>
       </c>
       <c r="E4" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F4" t="n">
-        <v>1014.2391</v>
+        <v>2602.273</v>
       </c>
       <c r="G4" t="n">
-        <v>253.3166666666667</v>
+        <v>253.35</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C5" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E5" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F5" t="n">
-        <v>30023.3764</v>
+        <v>1014.2391</v>
       </c>
       <c r="G5" t="n">
-        <v>253.3</v>
+        <v>253.3166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D6" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E6" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F6" t="n">
-        <v>21851.4726</v>
+        <v>30023.3764</v>
       </c>
       <c r="G6" t="n">
-        <v>253.3333333333333</v>
+        <v>253.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>256</v>
       </c>
       <c r="C7" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D7" t="n">
         <v>256</v>
       </c>
       <c r="E7" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F7" t="n">
-        <v>2803.96048125</v>
+        <v>21851.4726</v>
       </c>
       <c r="G7" t="n">
-        <v>253.3666666666667</v>
+        <v>253.3333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C8" t="n">
         <v>255</v>
       </c>
       <c r="D8" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E8" t="n">
         <v>255</v>
       </c>
       <c r="F8" t="n">
-        <v>449.2165</v>
+        <v>2803.96048125</v>
       </c>
       <c r="G8" t="n">
-        <v>253.3833333333333</v>
+        <v>253.3666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D9" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E9" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" t="n">
-        <v>256.8671</v>
+        <v>449.2165</v>
       </c>
       <c r="G9" t="n">
-        <v>253.4166666666667</v>
+        <v>253.3833333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>256</v>
       </c>
       <c r="F10" t="n">
-        <v>9826.58</v>
+        <v>256.8671</v>
       </c>
       <c r="G10" t="n">
-        <v>253.4666666666667</v>
+        <v>253.4166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>256</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>9826.58</v>
       </c>
       <c r="G11" t="n">
-        <v>253.5166666666667</v>
+        <v>253.4666666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>256</v>
       </c>
       <c r="F12" t="n">
-        <v>1.8686</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>253.55</v>
+        <v>253.5166666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>256</v>
       </c>
       <c r="F13" t="n">
-        <v>2637.993</v>
+        <v>1.8686</v>
       </c>
       <c r="G13" t="n">
-        <v>253.6166666666667</v>
+        <v>253.55</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>256</v>
       </c>
       <c r="F14" t="n">
-        <v>5525.5109</v>
+        <v>2637.993</v>
       </c>
       <c r="G14" t="n">
-        <v>253.65</v>
+        <v>253.6166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>256</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>5525.5109</v>
       </c>
       <c r="G15" t="n">
-        <v>253.6833333333333</v>
+        <v>253.65</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D16" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E16" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F16" t="n">
-        <v>7378.5355</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>253.7333333333333</v>
+        <v>253.6833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D17" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E17" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F17" t="n">
-        <v>3548.8139</v>
+        <v>7378.5355</v>
       </c>
       <c r="G17" t="n">
-        <v>253.8</v>
+        <v>253.7333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>258</v>
       </c>
       <c r="F18" t="n">
-        <v>4153.0386</v>
+        <v>3548.8139</v>
       </c>
       <c r="G18" t="n">
-        <v>253.8666666666667</v>
+        <v>253.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>258</v>
       </c>
       <c r="F19" t="n">
-        <v>3218.7209</v>
+        <v>4153.0386</v>
       </c>
       <c r="G19" t="n">
-        <v>253.95</v>
+        <v>253.8666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1069,16 +1069,16 @@
         <v>258</v>
       </c>
       <c r="D20" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E20" t="n">
         <v>258</v>
       </c>
       <c r="F20" t="n">
-        <v>15283.7978</v>
+        <v>3218.7209</v>
       </c>
       <c r="G20" t="n">
-        <v>254.0166666666667</v>
+        <v>253.95</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C21" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D21" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E21" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F21" t="n">
-        <v>9632.3925</v>
+        <v>15283.7978</v>
       </c>
       <c r="G21" t="n">
-        <v>254.1333333333333</v>
+        <v>254.0166666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>260</v>
+      </c>
+      <c r="C22" t="n">
         <v>261</v>
-      </c>
-      <c r="C22" t="n">
-        <v>260</v>
       </c>
       <c r="D22" t="n">
         <v>261</v>
@@ -1145,10 +1145,10 @@
         <v>260</v>
       </c>
       <c r="F22" t="n">
-        <v>36522.8416</v>
+        <v>9632.3925</v>
       </c>
       <c r="G22" t="n">
-        <v>254.25</v>
+        <v>254.1333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C23" t="n">
         <v>260</v>
       </c>
       <c r="D23" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E23" t="n">
         <v>260</v>
       </c>
       <c r="F23" t="n">
-        <v>815</v>
+        <v>36522.8416</v>
       </c>
       <c r="G23" t="n">
-        <v>254.3666666666667</v>
+        <v>254.25</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>260</v>
       </c>
       <c r="C24" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D24" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E24" t="n">
         <v>260</v>
       </c>
       <c r="F24" t="n">
-        <v>81582.86659999999</v>
+        <v>815</v>
       </c>
       <c r="G24" t="n">
-        <v>254.4833333333333</v>
+        <v>254.3666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>260</v>
+      </c>
+      <c r="C25" t="n">
         <v>261</v>
       </c>
-      <c r="C25" t="n">
-        <v>259</v>
-      </c>
       <c r="D25" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E25" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F25" t="n">
-        <v>30879.3587</v>
+        <v>81582.86659999999</v>
       </c>
       <c r="G25" t="n">
-        <v>254.5666666666667</v>
+        <v>254.4833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,28 +1273,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C26" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D26" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E26" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F26" t="n">
-        <v>3213.83591954023</v>
+        <v>30879.3587</v>
       </c>
       <c r="G26" t="n">
-        <v>254.7166666666667</v>
+        <v>254.5666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1308,28 +1308,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C27" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D27" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E27" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F27" t="n">
-        <v>880.3088</v>
+        <v>3213.83591954023</v>
       </c>
       <c r="G27" t="n">
-        <v>254.8</v>
+        <v>254.7166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" t="n">
         <v>259</v>
       </c>
       <c r="D28" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E28" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F28" t="n">
-        <v>9894.507140916045</v>
+        <v>880.3088</v>
       </c>
       <c r="G28" t="n">
-        <v>254.8833333333333</v>
+        <v>254.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C29" t="n">
         <v>259</v>
       </c>
       <c r="D29" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E29" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F29" t="n">
-        <v>2398.2992</v>
+        <v>9894.507140916045</v>
       </c>
       <c r="G29" t="n">
-        <v>254.9666666666667</v>
+        <v>254.8833333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>259</v>
       </c>
       <c r="F30" t="n">
-        <v>303.226</v>
+        <v>2398.2992</v>
       </c>
       <c r="G30" t="n">
-        <v>255.0666666666667</v>
+        <v>254.9666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C31" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D31" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E31" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F31" t="n">
-        <v>1415.9277</v>
+        <v>303.226</v>
       </c>
       <c r="G31" t="n">
-        <v>255.1833333333333</v>
+        <v>255.0666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>260</v>
       </c>
       <c r="C32" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D32" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E32" t="n">
         <v>260</v>
       </c>
       <c r="F32" t="n">
-        <v>878.7527</v>
+        <v>1415.9277</v>
       </c>
       <c r="G32" t="n">
-        <v>255.3333333333333</v>
+        <v>255.1833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>260</v>
       </c>
       <c r="C33" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D33" t="n">
         <v>261</v>
@@ -1530,10 +1530,10 @@
         <v>260</v>
       </c>
       <c r="F33" t="n">
-        <v>4532.2798</v>
+        <v>878.7527</v>
       </c>
       <c r="G33" t="n">
-        <v>255.45</v>
+        <v>255.3333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1559,16 +1559,16 @@
         <v>260</v>
       </c>
       <c r="D34" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E34" t="n">
         <v>260</v>
       </c>
       <c r="F34" t="n">
-        <v>2100.3434</v>
+        <v>4532.2798</v>
       </c>
       <c r="G34" t="n">
-        <v>255.5833333333333</v>
+        <v>255.45</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>260</v>
       </c>
       <c r="F35" t="n">
-        <v>582.0386</v>
+        <v>2100.3434</v>
       </c>
       <c r="G35" t="n">
-        <v>255.7166666666667</v>
+        <v>255.5833333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>260</v>
       </c>
       <c r="F36" t="n">
-        <v>5312.479</v>
+        <v>582.0386</v>
       </c>
       <c r="G36" t="n">
-        <v>255.8333333333333</v>
+        <v>255.7166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>260</v>
       </c>
       <c r="F37" t="n">
-        <v>1410.7171</v>
+        <v>5312.479</v>
       </c>
       <c r="G37" t="n">
-        <v>255.9666666666667</v>
+        <v>255.8333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D38" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E38" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F38" t="n">
-        <v>2900.6781</v>
+        <v>1410.7171</v>
       </c>
       <c r="G38" t="n">
-        <v>256.1166666666667</v>
+        <v>255.9666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C39" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D39" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E39" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F39" t="n">
-        <v>3690.9038</v>
+        <v>2900.6781</v>
       </c>
       <c r="G39" t="n">
-        <v>256.2333333333333</v>
+        <v>256.1166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C40" t="n">
         <v>260</v>
@@ -1772,13 +1772,13 @@
         <v>260</v>
       </c>
       <c r="E40" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F40" t="n">
-        <v>484.0461</v>
+        <v>3690.9038</v>
       </c>
       <c r="G40" t="n">
-        <v>256.3333333333333</v>
+        <v>256.2333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C41" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D41" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E41" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F41" t="n">
-        <v>2250.2085</v>
+        <v>484.0461</v>
       </c>
       <c r="G41" t="n">
-        <v>256.4166666666667</v>
+        <v>256.3333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>259</v>
       </c>
       <c r="C42" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D42" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E42" t="n">
         <v>259</v>
       </c>
       <c r="F42" t="n">
-        <v>39627.50217471264</v>
+        <v>2250.2085</v>
       </c>
       <c r="G42" t="n">
-        <v>256.5166666666667</v>
+        <v>256.4166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>259</v>
+      </c>
+      <c r="C43" t="n">
         <v>260</v>
-      </c>
-      <c r="C43" t="n">
-        <v>261</v>
       </c>
       <c r="D43" t="n">
         <v>261</v>
       </c>
       <c r="E43" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F43" t="n">
-        <v>4381.4175</v>
+        <v>39627.50217471264</v>
       </c>
       <c r="G43" t="n">
-        <v>256.65</v>
+        <v>256.5166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>260</v>
+      </c>
+      <c r="C44" t="n">
         <v>261</v>
-      </c>
-      <c r="C44" t="n">
-        <v>258</v>
       </c>
       <c r="D44" t="n">
         <v>261</v>
       </c>
       <c r="E44" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F44" t="n">
-        <v>200</v>
+        <v>4381.4175</v>
       </c>
       <c r="G44" t="n">
-        <v>256.7</v>
+        <v>256.65</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C45" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D45" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E45" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F45" t="n">
-        <v>2444.3568</v>
+        <v>200</v>
       </c>
       <c r="G45" t="n">
-        <v>256.7666666666667</v>
+        <v>256.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C46" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D46" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E46" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F46" t="n">
-        <v>600.0625</v>
+        <v>2444.3568</v>
       </c>
       <c r="G46" t="n">
-        <v>256.8166666666667</v>
+        <v>256.7666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>258</v>
       </c>
       <c r="F47" t="n">
-        <v>17186.5095</v>
+        <v>600.0625</v>
       </c>
       <c r="G47" t="n">
-        <v>256.8833333333333</v>
+        <v>256.8166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>258</v>
       </c>
       <c r="F48" t="n">
-        <v>256.2249</v>
+        <v>17186.5095</v>
       </c>
       <c r="G48" t="n">
-        <v>256.9666666666666</v>
+        <v>256.8833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C49" t="n">
         <v>258</v>
       </c>
       <c r="D49" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E49" t="n">
         <v>258</v>
       </c>
       <c r="F49" t="n">
-        <v>1886.923</v>
+        <v>256.2249</v>
       </c>
       <c r="G49" t="n">
-        <v>257.0666666666667</v>
+        <v>256.9666666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>260</v>
       </c>
       <c r="C50" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D50" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E50" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F50" t="n">
-        <v>5502.1612</v>
+        <v>1886.923</v>
       </c>
       <c r="G50" t="n">
-        <v>257.15</v>
+        <v>257.0666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C51" t="n">
         <v>259</v>
       </c>
       <c r="D51" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E51" t="n">
         <v>259</v>
       </c>
       <c r="F51" t="n">
-        <v>25.8283</v>
+        <v>5502.1612</v>
       </c>
       <c r="G51" t="n">
-        <v>257.2333333333333</v>
+        <v>257.15</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C52" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D52" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E52" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F52" t="n">
-        <v>3781.5499</v>
+        <v>25.8283</v>
       </c>
       <c r="G52" t="n">
-        <v>257.3833333333333</v>
+        <v>257.2333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C53" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D53" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E53" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F53" t="n">
-        <v>1250.1407</v>
+        <v>3781.5499</v>
       </c>
       <c r="G53" t="n">
-        <v>257.5</v>
+        <v>257.3833333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>258</v>
       </c>
       <c r="F54" t="n">
-        <v>1364.8931</v>
+        <v>1250.1407</v>
       </c>
       <c r="G54" t="n">
-        <v>257.5833333333333</v>
+        <v>257.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>258</v>
       </c>
       <c r="C55" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D55" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E55" t="n">
         <v>258</v>
       </c>
       <c r="F55" t="n">
-        <v>732.341</v>
+        <v>1364.8931</v>
       </c>
       <c r="G55" t="n">
-        <v>257.6666666666667</v>
+        <v>257.5833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>258</v>
       </c>
       <c r="C56" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D56" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E56" t="n">
         <v>258</v>
       </c>
       <c r="F56" t="n">
-        <v>395.5523</v>
+        <v>732.341</v>
       </c>
       <c r="G56" t="n">
-        <v>257.7666666666667</v>
+        <v>257.6666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>258</v>
       </c>
       <c r="C57" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D57" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E57" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F57" t="n">
-        <v>4875.972</v>
+        <v>395.5523</v>
       </c>
       <c r="G57" t="n">
-        <v>257.8833333333333</v>
+        <v>257.7666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C58" t="n">
         <v>257</v>
       </c>
       <c r="D58" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E58" t="n">
         <v>257</v>
       </c>
       <c r="F58" t="n">
-        <v>3908.1518</v>
+        <v>4875.972</v>
       </c>
       <c r="G58" t="n">
-        <v>257.9666666666666</v>
+        <v>257.8833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>257</v>
       </c>
       <c r="C59" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D59" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E59" t="n">
         <v>257</v>
       </c>
       <c r="F59" t="n">
-        <v>21334.3824</v>
+        <v>3908.1518</v>
       </c>
       <c r="G59" t="n">
-        <v>258.05</v>
+        <v>257.9666666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>257</v>
       </c>
       <c r="C60" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D60" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E60" t="n">
         <v>257</v>
       </c>
       <c r="F60" t="n">
-        <v>777.0300999999999</v>
+        <v>21334.3824</v>
       </c>
       <c r="G60" t="n">
-        <v>258.1166666666667</v>
+        <v>258.05</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C61" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D61" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E61" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F61" t="n">
-        <v>96.92319999999999</v>
+        <v>777.0300999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>258.15</v>
+        <v>258.1166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C62" t="n">
         <v>256</v>
       </c>
       <c r="D62" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E62" t="n">
         <v>256</v>
       </c>
       <c r="F62" t="n">
-        <v>48915.7548</v>
+        <v>96.92319999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>258.1833333333333</v>
+        <v>258.15</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C63" t="n">
         <v>256</v>
       </c>
       <c r="D63" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E63" t="n">
         <v>256</v>
       </c>
       <c r="F63" t="n">
-        <v>3600.3285</v>
+        <v>48915.7548</v>
       </c>
       <c r="G63" t="n">
-        <v>258.2166666666666</v>
+        <v>258.1833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>257</v>
       </c>
       <c r="C64" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D64" t="n">
         <v>257</v>
       </c>
       <c r="E64" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F64" t="n">
-        <v>175.7363</v>
+        <v>3600.3285</v>
       </c>
       <c r="G64" t="n">
-        <v>258.2666666666667</v>
+        <v>258.2166666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C65" t="n">
         <v>257</v>
       </c>
       <c r="D65" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E65" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F65" t="n">
-        <v>3782.7989</v>
+        <v>175.7363</v>
       </c>
       <c r="G65" t="n">
-        <v>258.3</v>
+        <v>258.2666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C66" t="n">
         <v>257</v>
       </c>
       <c r="D66" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E66" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F66" t="n">
-        <v>1082.9532</v>
+        <v>3782.7989</v>
       </c>
       <c r="G66" t="n">
-        <v>258.3166666666667</v>
+        <v>258.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C67" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D67" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E67" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>1082.9532</v>
       </c>
       <c r="G67" t="n">
-        <v>258.3666666666667</v>
+        <v>258.3166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C68" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D68" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E68" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F68" t="n">
-        <v>655.8649</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>258.3833333333333</v>
+        <v>258.3666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C69" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D69" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E69" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F69" t="n">
-        <v>323.7221</v>
+        <v>655.8649</v>
       </c>
       <c r="G69" t="n">
-        <v>258.3666666666667</v>
+        <v>258.3833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>255</v>
       </c>
       <c r="F70" t="n">
-        <v>2403.0389</v>
+        <v>323.7221</v>
       </c>
       <c r="G70" t="n">
-        <v>258.35</v>
+        <v>258.3666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>255</v>
       </c>
       <c r="F71" t="n">
-        <v>228.3741</v>
+        <v>2403.0389</v>
       </c>
       <c r="G71" t="n">
-        <v>258.3333333333333</v>
+        <v>258.35</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,19 +2883,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D72" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E72" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F72" t="n">
-        <v>88.3496</v>
+        <v>228.3741</v>
       </c>
       <c r="G72" t="n">
         <v>258.3333333333333</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C73" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D73" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E73" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F73" t="n">
-        <v>3.1976</v>
+        <v>88.3496</v>
       </c>
       <c r="G73" t="n">
-        <v>258.3666666666667</v>
+        <v>258.3333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C74" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D74" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E74" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F74" t="n">
-        <v>4175.5968</v>
+        <v>3.1976</v>
       </c>
       <c r="G74" t="n">
-        <v>258.3833333333333</v>
+        <v>258.3666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K74" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
@@ -2992,19 +2992,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C75" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D75" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E75" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F75" t="n">
-        <v>1267.4629</v>
+        <v>4175.5968</v>
       </c>
       <c r="G75" t="n">
         <v>258.3833333333333</v>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3033,34 +3033,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C76" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D76" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E76" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F76" t="n">
-        <v>2419.448</v>
+        <v>1267.4629</v>
       </c>
       <c r="G76" t="n">
         <v>258.3833333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
         <v>256</v>
-      </c>
-      <c r="K76" t="n">
-        <v>258</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3076,19 +3074,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C77" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D77" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E77" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F77" t="n">
-        <v>619.8539</v>
+        <v>2419.448</v>
       </c>
       <c r="G77" t="n">
         <v>258.3833333333333</v>
@@ -3100,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K77" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
@@ -3127,20 +3125,22 @@
         <v>258</v>
       </c>
       <c r="F78" t="n">
-        <v>606</v>
+        <v>619.8539</v>
       </c>
       <c r="G78" t="n">
         <v>258.3833333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>257</v>
+      </c>
       <c r="K78" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3168,20 +3168,22 @@
         <v>258</v>
       </c>
       <c r="F79" t="n">
-        <v>2126.1561</v>
+        <v>606</v>
       </c>
       <c r="G79" t="n">
         <v>258.3833333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>258</v>
+      </c>
       <c r="K79" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3209,7 +3211,7 @@
         <v>258</v>
       </c>
       <c r="F80" t="n">
-        <v>2829.7438</v>
+        <v>2126.1561</v>
       </c>
       <c r="G80" t="n">
         <v>258.3833333333333</v>
@@ -3235,19 +3237,19 @@
         <v>258</v>
       </c>
       <c r="C81" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D81" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E81" t="n">
         <v>258</v>
       </c>
       <c r="F81" t="n">
-        <v>2900</v>
+        <v>2829.7438</v>
       </c>
       <c r="G81" t="n">
-        <v>258.35</v>
+        <v>258.3833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3267,7 +3269,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C82" t="n">
         <v>259</v>
@@ -3276,13 +3278,13 @@
         <v>259</v>
       </c>
       <c r="E82" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F82" t="n">
-        <v>2798.6093</v>
+        <v>2900</v>
       </c>
       <c r="G82" t="n">
-        <v>258.3333333333333</v>
+        <v>258.35</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3302,19 +3304,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C83" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D83" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E83" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F83" t="n">
-        <v>53.0576</v>
+        <v>2798.6093</v>
       </c>
       <c r="G83" t="n">
         <v>258.3333333333333</v>
@@ -3349,10 +3351,10 @@
         <v>260</v>
       </c>
       <c r="F84" t="n">
-        <v>2034.7096</v>
+        <v>53.0576</v>
       </c>
       <c r="G84" t="n">
-        <v>258.3166666666667</v>
+        <v>258.3333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3384,10 +3386,10 @@
         <v>260</v>
       </c>
       <c r="F85" t="n">
-        <v>478.6384</v>
+        <v>2034.7096</v>
       </c>
       <c r="G85" t="n">
-        <v>258.3333333333333</v>
+        <v>258.3166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3407,22 +3409,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C86" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D86" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E86" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F86" t="n">
-        <v>3076.9593</v>
+        <v>478.6384</v>
       </c>
       <c r="G86" t="n">
-        <v>258.2833333333334</v>
+        <v>258.3333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3445,19 +3447,19 @@
         <v>258</v>
       </c>
       <c r="C87" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D87" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E87" t="n">
         <v>258</v>
       </c>
       <c r="F87" t="n">
-        <v>3476.9593</v>
+        <v>3076.9593</v>
       </c>
       <c r="G87" t="n">
-        <v>258.3</v>
+        <v>258.2833333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3477,7 +3479,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C88" t="n">
         <v>260</v>
@@ -3486,13 +3488,13 @@
         <v>260</v>
       </c>
       <c r="E88" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F88" t="n">
-        <v>5038.2461</v>
+        <v>3476.9593</v>
       </c>
       <c r="G88" t="n">
-        <v>258.3166666666667</v>
+        <v>258.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3524,10 +3526,10 @@
         <v>260</v>
       </c>
       <c r="F89" t="n">
-        <v>3398.3882</v>
+        <v>5038.2461</v>
       </c>
       <c r="G89" t="n">
-        <v>258.3333333333333</v>
+        <v>258.3166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3547,19 +3549,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C90" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D90" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E90" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F90" t="n">
-        <v>10000</v>
+        <v>3398.3882</v>
       </c>
       <c r="G90" t="n">
         <v>258.3333333333333</v>
@@ -3582,19 +3584,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C91" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E91" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F91" t="n">
-        <v>9990.861538461539</v>
+        <v>10000</v>
       </c>
       <c r="G91" t="n">
         <v>258.3333333333333</v>
@@ -3629,10 +3631,10 @@
         <v>260</v>
       </c>
       <c r="F92" t="n">
-        <v>9.138461538461538</v>
+        <v>9990.861538461539</v>
       </c>
       <c r="G92" t="n">
-        <v>258.3166666666667</v>
+        <v>258.3333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3652,22 +3654,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C93" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E93" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F93" t="n">
-        <v>5900</v>
+        <v>9.138461538461538</v>
       </c>
       <c r="G93" t="n">
-        <v>258.35</v>
+        <v>258.3166666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3699,10 +3701,10 @@
         <v>262</v>
       </c>
       <c r="F94" t="n">
-        <v>436.2099</v>
+        <v>5900</v>
       </c>
       <c r="G94" t="n">
-        <v>258.3833333333333</v>
+        <v>258.35</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3734,10 +3736,10 @@
         <v>262</v>
       </c>
       <c r="F95" t="n">
-        <v>2509.8546</v>
+        <v>436.2099</v>
       </c>
       <c r="G95" t="n">
-        <v>258.4166666666667</v>
+        <v>258.3833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3769,10 +3771,10 @@
         <v>262</v>
       </c>
       <c r="F96" t="n">
-        <v>12280</v>
+        <v>2509.8546</v>
       </c>
       <c r="G96" t="n">
-        <v>258.45</v>
+        <v>258.4166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3804,10 +3806,10 @@
         <v>262</v>
       </c>
       <c r="F97" t="n">
-        <v>299.019</v>
+        <v>12280</v>
       </c>
       <c r="G97" t="n">
-        <v>258.4833333333333</v>
+        <v>258.45</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3830,19 +3832,19 @@
         <v>262</v>
       </c>
       <c r="C98" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D98" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E98" t="n">
         <v>262</v>
       </c>
       <c r="F98" t="n">
-        <v>45402.06703954373</v>
+        <v>299.019</v>
       </c>
       <c r="G98" t="n">
-        <v>258.5333333333334</v>
+        <v>258.4833333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3862,22 +3864,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>262</v>
+      </c>
+      <c r="C99" t="n">
         <v>264</v>
       </c>
-      <c r="C99" t="n">
-        <v>265</v>
-      </c>
       <c r="D99" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E99" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F99" t="n">
-        <v>30791.825</v>
+        <v>45402.06703954373</v>
       </c>
       <c r="G99" t="n">
-        <v>258.6166666666667</v>
+        <v>258.5333333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3906,13 +3908,13 @@
         <v>265</v>
       </c>
       <c r="E100" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F100" t="n">
-        <v>2760.7316</v>
+        <v>30791.825</v>
       </c>
       <c r="G100" t="n">
-        <v>258.7</v>
+        <v>258.6166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3932,7 +3934,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C101" t="n">
         <v>265</v>
@@ -3941,13 +3943,13 @@
         <v>265</v>
       </c>
       <c r="E101" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F101" t="n">
-        <v>1115.322</v>
+        <v>2760.7316</v>
       </c>
       <c r="G101" t="n">
-        <v>258.8</v>
+        <v>258.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3967,22 +3969,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C102" t="n">
         <v>265</v>
       </c>
       <c r="D102" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E102" t="n">
         <v>265</v>
       </c>
       <c r="F102" t="n">
-        <v>8188.4157</v>
+        <v>1115.322</v>
       </c>
       <c r="G102" t="n">
-        <v>258.8833333333333</v>
+        <v>258.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4002,22 +4004,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C103" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D103" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E103" t="n">
         <v>265</v>
       </c>
       <c r="F103" t="n">
-        <v>757.8982</v>
+        <v>8188.4157</v>
       </c>
       <c r="G103" t="n">
-        <v>258.9666666666666</v>
+        <v>258.8833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4037,22 +4039,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C104" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D104" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E104" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F104" t="n">
-        <v>3677.097346441948</v>
+        <v>757.8982</v>
       </c>
       <c r="G104" t="n">
-        <v>259.1166666666667</v>
+        <v>258.9666666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4084,10 +4086,10 @@
         <v>267</v>
       </c>
       <c r="F105" t="n">
-        <v>32318.91105355805</v>
+        <v>3677.097346441948</v>
       </c>
       <c r="G105" t="n">
-        <v>259.25</v>
+        <v>259.1166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>267</v>
       </c>
       <c r="C106" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D106" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E106" t="n">
         <v>267</v>
       </c>
       <c r="F106" t="n">
-        <v>22234.25523283582</v>
+        <v>32318.91105355805</v>
       </c>
       <c r="G106" t="n">
-        <v>259.4166666666667</v>
+        <v>259.25</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4142,10 +4144,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>267</v>
+      </c>
+      <c r="C107" t="n">
         <v>268</v>
-      </c>
-      <c r="C107" t="n">
-        <v>267</v>
       </c>
       <c r="D107" t="n">
         <v>268</v>
@@ -4154,16 +4156,16 @@
         <v>267</v>
       </c>
       <c r="F107" t="n">
-        <v>10221.0698</v>
+        <v>22234.25523283582</v>
       </c>
       <c r="G107" t="n">
-        <v>259.5666666666667</v>
+        <v>259.4166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4180,19 +4182,19 @@
         <v>268</v>
       </c>
       <c r="C108" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D108" t="n">
         <v>268</v>
       </c>
       <c r="E108" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F108" t="n">
-        <v>9.300000000000001</v>
+        <v>10221.0698</v>
       </c>
       <c r="G108" t="n">
-        <v>259.7333333333333</v>
+        <v>259.5666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4212,28 +4214,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C109" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D109" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E109" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F109" t="n">
-        <v>4.6441947565543e-05</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>259.8833333333333</v>
+        <v>259.7333333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4247,28 +4249,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C110" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D110" t="n">
         <v>267</v>
       </c>
       <c r="E110" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F110" t="n">
-        <v>4279.1696</v>
+        <v>4.6441947565543e-05</v>
       </c>
       <c r="G110" t="n">
-        <v>260</v>
+        <v>259.8833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4285,19 +4287,19 @@
         <v>266</v>
       </c>
       <c r="C111" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D111" t="n">
+        <v>267</v>
+      </c>
+      <c r="E111" t="n">
         <v>266</v>
       </c>
-      <c r="E111" t="n">
-        <v>265</v>
-      </c>
       <c r="F111" t="n">
-        <v>929.8244</v>
+        <v>4279.1696</v>
       </c>
       <c r="G111" t="n">
-        <v>260.1</v>
+        <v>260</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4320,19 +4322,19 @@
         <v>266</v>
       </c>
       <c r="C112" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D112" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E112" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F112" t="n">
-        <v>30227.00615355805</v>
+        <v>929.8244</v>
       </c>
       <c r="G112" t="n">
-        <v>260.2166666666666</v>
+        <v>260.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4352,22 +4354,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C113" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D113" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E113" t="n">
         <v>266</v>
       </c>
       <c r="F113" t="n">
-        <v>2895.1156</v>
+        <v>30227.00615355805</v>
       </c>
       <c r="G113" t="n">
-        <v>260.35</v>
+        <v>260.2166666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4387,22 +4389,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C114" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D114" t="n">
         <v>268</v>
       </c>
       <c r="E114" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F114" t="n">
-        <v>14818.669</v>
+        <v>2895.1156</v>
       </c>
       <c r="G114" t="n">
-        <v>260.5166666666667</v>
+        <v>260.35</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4422,22 +4424,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>267</v>
+      </c>
+      <c r="C115" t="n">
         <v>268</v>
-      </c>
-      <c r="C115" t="n">
-        <v>266</v>
       </c>
       <c r="D115" t="n">
         <v>268</v>
       </c>
       <c r="E115" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F115" t="n">
-        <v>9148.821</v>
+        <v>14818.669</v>
       </c>
       <c r="G115" t="n">
-        <v>260.6333333333333</v>
+        <v>260.5166666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4457,22 +4459,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>268</v>
+      </c>
+      <c r="C116" t="n">
         <v>266</v>
       </c>
-      <c r="C116" t="n">
-        <v>265</v>
-      </c>
       <c r="D116" t="n">
+        <v>268</v>
+      </c>
+      <c r="E116" t="n">
         <v>266</v>
       </c>
-      <c r="E116" t="n">
-        <v>265</v>
-      </c>
       <c r="F116" t="n">
-        <v>7500.0639</v>
+        <v>9148.821</v>
       </c>
       <c r="G116" t="n">
-        <v>260.75</v>
+        <v>260.6333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4492,22 +4494,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C117" t="n">
         <v>265</v>
       </c>
       <c r="D117" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E117" t="n">
         <v>265</v>
       </c>
       <c r="F117" t="n">
-        <v>8004.9116</v>
+        <v>7500.0639</v>
       </c>
       <c r="G117" t="n">
-        <v>260.8833333333333</v>
+        <v>260.75</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4539,10 +4541,10 @@
         <v>265</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>8004.9116</v>
       </c>
       <c r="G118" t="n">
-        <v>261.0166666666667</v>
+        <v>260.8833333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4562,22 +4564,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C119" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D119" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E119" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>261.1666666666667</v>
+        <v>261.0166666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4609,10 +4611,10 @@
         <v>267</v>
       </c>
       <c r="F120" t="n">
-        <v>2563.7191</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>261.3333333333333</v>
+        <v>261.1666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4632,22 +4634,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C121" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D121" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E121" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F121" t="n">
-        <v>717.2761</v>
+        <v>2563.7191</v>
       </c>
       <c r="G121" t="n">
-        <v>261.5</v>
+        <v>261.3333333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4667,22 +4669,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C122" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D122" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E122" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F122" t="n">
-        <v>943.6328999999999</v>
+        <v>717.2761</v>
       </c>
       <c r="G122" t="n">
-        <v>261.6833333333333</v>
+        <v>261.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4714,10 +4716,10 @@
         <v>267</v>
       </c>
       <c r="F123" t="n">
-        <v>374.5318</v>
+        <v>943.6328999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>261.8666666666667</v>
+        <v>261.6833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4737,7 +4739,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C124" t="n">
         <v>267</v>
@@ -4746,13 +4748,13 @@
         <v>267</v>
       </c>
       <c r="E124" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F124" t="n">
-        <v>112.6629</v>
+        <v>374.5318</v>
       </c>
       <c r="G124" t="n">
-        <v>262.0333333333334</v>
+        <v>261.8666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4784,10 +4786,10 @@
         <v>266</v>
       </c>
       <c r="F125" t="n">
-        <v>3078.4441</v>
+        <v>112.6629</v>
       </c>
       <c r="G125" t="n">
-        <v>262.2</v>
+        <v>262.0333333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4810,7 +4812,7 @@
         <v>266</v>
       </c>
       <c r="C126" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D126" t="n">
         <v>267</v>
@@ -4819,10 +4821,10 @@
         <v>266</v>
       </c>
       <c r="F126" t="n">
-        <v>14875.4543</v>
+        <v>3078.4441</v>
       </c>
       <c r="G126" t="n">
-        <v>262.35</v>
+        <v>262.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4848,16 +4850,16 @@
         <v>266</v>
       </c>
       <c r="D127" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E127" t="n">
         <v>266</v>
       </c>
       <c r="F127" t="n">
-        <v>4986.0119</v>
+        <v>14875.4543</v>
       </c>
       <c r="G127" t="n">
-        <v>262.4833333333333</v>
+        <v>262.35</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4880,19 +4882,19 @@
         <v>266</v>
       </c>
       <c r="C128" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D128" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E128" t="n">
         <v>266</v>
       </c>
       <c r="F128" t="n">
-        <v>1018.6659</v>
+        <v>4986.0119</v>
       </c>
       <c r="G128" t="n">
-        <v>262.6833333333333</v>
+        <v>262.4833333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4912,22 +4914,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C129" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D129" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E129" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F129" t="n">
-        <v>7391.9153</v>
+        <v>1018.6659</v>
       </c>
       <c r="G129" t="n">
-        <v>262.8833333333333</v>
+        <v>262.6833333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4947,22 +4949,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C130" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D130" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E130" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F130" t="n">
-        <v>40</v>
+        <v>7391.9153</v>
       </c>
       <c r="G130" t="n">
-        <v>263.0666666666667</v>
+        <v>262.8833333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4982,22 +4984,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C131" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D131" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E131" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G131" t="n">
-        <v>263.2166666666666</v>
+        <v>263.0666666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5017,22 +5019,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C132" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D132" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E132" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F132" t="n">
-        <v>1724.1163</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>263.3666666666667</v>
+        <v>263.2166666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5052,22 +5054,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C133" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D133" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E133" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>1724.1163</v>
       </c>
       <c r="G133" t="n">
-        <v>263.45</v>
+        <v>263.3666666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5087,22 +5089,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C134" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D134" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E134" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>263.5666666666667</v>
+        <v>263.45</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5134,10 +5136,10 @@
         <v>264</v>
       </c>
       <c r="F135" t="n">
-        <v>2303.5483</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>263.7</v>
+        <v>263.5666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5157,22 +5159,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C136" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D136" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E136" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F136" t="n">
-        <v>298.2714</v>
+        <v>2303.5483</v>
       </c>
       <c r="G136" t="n">
-        <v>263.8</v>
+        <v>263.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5204,10 +5206,10 @@
         <v>263</v>
       </c>
       <c r="F137" t="n">
-        <v>80</v>
+        <v>298.2714</v>
       </c>
       <c r="G137" t="n">
-        <v>263.8833333333333</v>
+        <v>263.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5227,22 +5229,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C138" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D138" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E138" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F138" t="n">
-        <v>15723.7618</v>
+        <v>80</v>
       </c>
       <c r="G138" t="n">
-        <v>263.9833333333333</v>
+        <v>263.8833333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5268,16 +5270,16 @@
         <v>264</v>
       </c>
       <c r="D139" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E139" t="n">
         <v>264</v>
       </c>
       <c r="F139" t="n">
-        <v>8330.2179</v>
+        <v>15723.7618</v>
       </c>
       <c r="G139" t="n">
-        <v>264.0833333333333</v>
+        <v>263.9833333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5303,16 +5305,16 @@
         <v>264</v>
       </c>
       <c r="D140" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E140" t="n">
         <v>264</v>
       </c>
       <c r="F140" t="n">
-        <v>818.3134</v>
+        <v>8330.2179</v>
       </c>
       <c r="G140" t="n">
-        <v>264.1833333333333</v>
+        <v>264.0833333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5344,10 +5346,10 @@
         <v>264</v>
       </c>
       <c r="F141" t="n">
-        <v>1793.6774</v>
+        <v>818.3134</v>
       </c>
       <c r="G141" t="n">
-        <v>264.2666666666667</v>
+        <v>264.1833333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5370,19 +5372,19 @@
         <v>264</v>
       </c>
       <c r="C142" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D142" t="n">
         <v>264</v>
       </c>
       <c r="E142" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F142" t="n">
-        <v>13870.0001</v>
+        <v>1793.6774</v>
       </c>
       <c r="G142" t="n">
-        <v>264.3333333333333</v>
+        <v>264.2666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5402,22 +5404,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>264</v>
+      </c>
+      <c r="C143" t="n">
         <v>263</v>
       </c>
-      <c r="C143" t="n">
-        <v>261</v>
-      </c>
       <c r="D143" t="n">
+        <v>264</v>
+      </c>
+      <c r="E143" t="n">
         <v>263</v>
       </c>
-      <c r="E143" t="n">
-        <v>261</v>
-      </c>
       <c r="F143" t="n">
-        <v>31715.6904</v>
+        <v>13870.0001</v>
       </c>
       <c r="G143" t="n">
-        <v>264.35</v>
+        <v>264.3333333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5437,22 +5439,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C144" t="n">
         <v>261</v>
       </c>
       <c r="D144" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E144" t="n">
         <v>261</v>
       </c>
       <c r="F144" t="n">
-        <v>3815.6892</v>
+        <v>31715.6904</v>
       </c>
       <c r="G144" t="n">
-        <v>264.3666666666667</v>
+        <v>264.35</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5472,22 +5474,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>262</v>
+      </c>
+      <c r="C145" t="n">
         <v>261</v>
       </c>
-      <c r="C145" t="n">
-        <v>263</v>
-      </c>
       <c r="D145" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E145" t="n">
         <v>261</v>
       </c>
       <c r="F145" t="n">
-        <v>37096.5359</v>
+        <v>3815.6892</v>
       </c>
       <c r="G145" t="n">
-        <v>264.4166666666667</v>
+        <v>264.3666666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5519,10 +5521,10 @@
         <v>261</v>
       </c>
       <c r="F146" t="n">
-        <v>4502.6712</v>
+        <v>37096.5359</v>
       </c>
       <c r="G146" t="n">
-        <v>264.5</v>
+        <v>264.4166666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5545,19 +5547,19 @@
         <v>261</v>
       </c>
       <c r="C147" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D147" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E147" t="n">
         <v>261</v>
       </c>
       <c r="F147" t="n">
-        <v>2270.3935</v>
+        <v>4502.6712</v>
       </c>
       <c r="G147" t="n">
-        <v>264.5166666666667</v>
+        <v>264.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5580,19 +5582,19 @@
         <v>261</v>
       </c>
       <c r="C148" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D148" t="n">
         <v>261</v>
       </c>
       <c r="E148" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F148" t="n">
-        <v>6863.0217</v>
+        <v>2270.3935</v>
       </c>
       <c r="G148" t="n">
-        <v>264.4833333333333</v>
+        <v>264.5166666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5612,22 +5614,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C149" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D149" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E149" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F149" t="n">
-        <v>6613.7929</v>
+        <v>6863.0217</v>
       </c>
       <c r="G149" t="n">
-        <v>264.5166666666667</v>
+        <v>264.4833333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5647,7 +5649,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C150" t="n">
         <v>262</v>
@@ -5656,13 +5658,13 @@
         <v>262</v>
       </c>
       <c r="E150" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>6613.7929</v>
       </c>
       <c r="G150" t="n">
-        <v>264.5666666666667</v>
+        <v>264.5166666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5682,22 +5684,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C151" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D151" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E151" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F151" t="n">
-        <v>60.9639</v>
+        <v>200</v>
       </c>
       <c r="G151" t="n">
-        <v>264.5833333333333</v>
+        <v>264.5666666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5729,10 +5731,10 @@
         <v>261</v>
       </c>
       <c r="F152" t="n">
-        <v>7507.4288</v>
+        <v>60.9639</v>
       </c>
       <c r="G152" t="n">
-        <v>264.6</v>
+        <v>264.5833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5752,22 +5754,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C153" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D153" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E153" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F153" t="n">
-        <v>1410.1711</v>
+        <v>7507.4288</v>
       </c>
       <c r="G153" t="n">
-        <v>264.5666666666667</v>
+        <v>264.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5787,22 +5789,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C154" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D154" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E154" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F154" t="n">
-        <v>1958.4687</v>
+        <v>1410.1711</v>
       </c>
       <c r="G154" t="n">
-        <v>264.4666666666666</v>
+        <v>264.5666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5822,22 +5824,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C155" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D155" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E155" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F155" t="n">
-        <v>1896.6808</v>
+        <v>1958.4687</v>
       </c>
       <c r="G155" t="n">
-        <v>264.3833333333333</v>
+        <v>264.4666666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5869,10 +5871,10 @@
         <v>257</v>
       </c>
       <c r="F156" t="n">
-        <v>4539.464</v>
+        <v>1896.6808</v>
       </c>
       <c r="G156" t="n">
-        <v>264.3</v>
+        <v>264.3833333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5904,10 +5906,10 @@
         <v>257</v>
       </c>
       <c r="F157" t="n">
-        <v>843.47</v>
+        <v>4539.464</v>
       </c>
       <c r="G157" t="n">
-        <v>264.2166666666666</v>
+        <v>264.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5939,10 +5941,10 @@
         <v>257</v>
       </c>
       <c r="F158" t="n">
-        <v>1102</v>
+        <v>843.47</v>
       </c>
       <c r="G158" t="n">
-        <v>264.1</v>
+        <v>264.2166666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5965,19 +5967,19 @@
         <v>257</v>
       </c>
       <c r="C159" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D159" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E159" t="n">
         <v>257</v>
       </c>
       <c r="F159" t="n">
-        <v>7598.8867</v>
+        <v>1102</v>
       </c>
       <c r="G159" t="n">
-        <v>263.9833333333333</v>
+        <v>264.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5997,22 +5999,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C160" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D160" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E160" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F160" t="n">
-        <v>945.3054</v>
+        <v>7598.8867</v>
       </c>
       <c r="G160" t="n">
-        <v>263.9166666666667</v>
+        <v>263.9833333333333</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
@@ -6021,12 +6023,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>258</v>
-      </c>
-      <c r="K160" t="n">
-        <v>258</v>
-      </c>
-      <c r="L160" t="inlineStr"/>
+        <v>257</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6036,38 +6040,34 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C161" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D161" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E161" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F161" t="n">
-        <v>2570.5719</v>
+        <v>945.3054</v>
       </c>
       <c r="G161" t="n">
-        <v>263.8833333333333</v>
+        <v>263.9166666666667</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>261</v>
-      </c>
-      <c r="K161" t="n">
-        <v>258</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M161" t="n">
@@ -6082,35 +6082,31 @@
         <v>263</v>
       </c>
       <c r="C162" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D162" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E162" t="n">
         <v>263</v>
       </c>
       <c r="F162" t="n">
-        <v>6119.7375</v>
+        <v>2570.5719</v>
       </c>
       <c r="G162" t="n">
         <v>263.8833333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>263</v>
-      </c>
-      <c r="K162" t="n">
-        <v>258</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M162" t="n">
@@ -6122,38 +6118,34 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C163" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D163" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E163" t="n">
         <v>263</v>
       </c>
       <c r="F163" t="n">
-        <v>2926.8803</v>
+        <v>6119.7375</v>
       </c>
       <c r="G163" t="n">
-        <v>263.8333333333333</v>
+        <v>263.8833333333333</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>265</v>
-      </c>
-      <c r="K163" t="n">
-        <v>258</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M163" t="n">
@@ -6168,19 +6160,19 @@
         <v>264</v>
       </c>
       <c r="C164" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D164" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E164" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F164" t="n">
-        <v>4237.6032</v>
+        <v>2926.8803</v>
       </c>
       <c r="G164" t="n">
-        <v>263.8</v>
+        <v>263.8333333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6189,9 +6181,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>258</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6206,7 +6196,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C165" t="n">
         <v>265</v>
@@ -6215,13 +6205,13 @@
         <v>265</v>
       </c>
       <c r="E165" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F165" t="n">
-        <v>10735.9371</v>
+        <v>4237.6032</v>
       </c>
       <c r="G165" t="n">
-        <v>263.7666666666667</v>
+        <v>263.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6230,9 +6220,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>258</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6250,19 +6238,19 @@
         <v>265</v>
       </c>
       <c r="C166" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D166" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E166" t="n">
         <v>265</v>
       </c>
       <c r="F166" t="n">
-        <v>694.3161</v>
+        <v>10735.9371</v>
       </c>
       <c r="G166" t="n">
-        <v>263.7333333333333</v>
+        <v>263.7666666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6271,9 +6259,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>258</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6291,19 +6277,19 @@
         <v>265</v>
       </c>
       <c r="C167" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D167" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E167" t="n">
         <v>265</v>
       </c>
       <c r="F167" t="n">
-        <v>1534.2075</v>
+        <v>694.3161</v>
       </c>
       <c r="G167" t="n">
-        <v>263.7</v>
+        <v>263.7333333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6312,9 +6298,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>258</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6329,22 +6313,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C168" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D168" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E168" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F168" t="n">
-        <v>3576.4285</v>
+        <v>1534.2075</v>
       </c>
       <c r="G168" t="n">
-        <v>263.6666666666667</v>
+        <v>263.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6353,9 +6337,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>258</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6382,10 +6364,10 @@
         <v>266</v>
       </c>
       <c r="F169" t="n">
-        <v>4172.0112</v>
+        <v>3576.4285</v>
       </c>
       <c r="G169" t="n">
-        <v>263.65</v>
+        <v>263.6666666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6394,9 +6376,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>258</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6411,22 +6391,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C170" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D170" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E170" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F170" t="n">
-        <v>5809.1191</v>
+        <v>4172.0112</v>
       </c>
       <c r="G170" t="n">
-        <v>263.6166666666667</v>
+        <v>263.65</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6435,9 +6415,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>258</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6452,22 +6430,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C171" t="n">
         <v>264</v>
       </c>
       <c r="D171" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E171" t="n">
         <v>264</v>
       </c>
       <c r="F171" t="n">
-        <v>75.1189</v>
+        <v>5809.1191</v>
       </c>
       <c r="G171" t="n">
-        <v>263.6</v>
+        <v>263.6166666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6476,9 +6454,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>258</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6493,22 +6469,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C172" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D172" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E172" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F172" t="n">
-        <v>588.8986</v>
+        <v>75.1189</v>
       </c>
       <c r="G172" t="n">
-        <v>263.5666666666667</v>
+        <v>263.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6517,9 +6493,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>258</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6534,19 +6508,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C173" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D173" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E173" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F173" t="n">
-        <v>15.0996</v>
+        <v>588.8986</v>
       </c>
       <c r="G173" t="n">
         <v>263.5666666666667</v>
@@ -6558,9 +6532,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>258</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6587,10 +6559,10 @@
         <v>266</v>
       </c>
       <c r="F174" t="n">
-        <v>379.6015</v>
+        <v>15.0996</v>
       </c>
       <c r="G174" t="n">
-        <v>263.5333333333334</v>
+        <v>263.5666666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6599,9 +6571,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>258</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6616,22 +6586,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C175" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D175" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E175" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F175" t="n">
-        <v>4100</v>
+        <v>379.6015</v>
       </c>
       <c r="G175" t="n">
-        <v>263.5166666666667</v>
+        <v>263.5333333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6640,9 +6610,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>258</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6669,7 +6637,7 @@
         <v>265</v>
       </c>
       <c r="F176" t="n">
-        <v>2273.0964</v>
+        <v>4100</v>
       </c>
       <c r="G176" t="n">
         <v>263.5166666666667</v>
@@ -6681,9 +6649,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>258</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6710,7 +6676,7 @@
         <v>265</v>
       </c>
       <c r="F177" t="n">
-        <v>341.928</v>
+        <v>2273.0964</v>
       </c>
       <c r="G177" t="n">
         <v>263.5166666666667</v>
@@ -6722,9 +6688,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>258</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6742,19 +6706,19 @@
         <v>265</v>
       </c>
       <c r="C178" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D178" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E178" t="n">
         <v>265</v>
       </c>
       <c r="F178" t="n">
-        <v>16024.0533</v>
+        <v>341.928</v>
       </c>
       <c r="G178" t="n">
-        <v>263.5333333333334</v>
+        <v>263.5166666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6763,9 +6727,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>258</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6780,19 +6742,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>265</v>
+      </c>
+      <c r="C179" t="n">
         <v>266</v>
       </c>
-      <c r="C179" t="n">
-        <v>267</v>
-      </c>
       <c r="D179" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E179" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F179" t="n">
-        <v>3355.291756554307</v>
+        <v>16024.0533</v>
       </c>
       <c r="G179" t="n">
         <v>263.5333333333334</v>
@@ -6804,9 +6766,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>258</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6833,7 +6793,7 @@
         <v>266</v>
       </c>
       <c r="F180" t="n">
-        <v>2620.368946816479</v>
+        <v>3355.291756554307</v>
       </c>
       <c r="G180" t="n">
         <v>263.5333333333334</v>
@@ -6845,9 +6805,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>258</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6865,16 +6823,16 @@
         <v>266</v>
       </c>
       <c r="C181" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D181" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E181" t="n">
         <v>266</v>
       </c>
       <c r="F181" t="n">
-        <v>2979.4098</v>
+        <v>2620.368946816479</v>
       </c>
       <c r="G181" t="n">
         <v>263.5333333333334</v>
@@ -6886,9 +6844,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>258</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6903,19 +6859,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C182" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D182" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E182" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F182" t="n">
-        <v>1.8539</v>
+        <v>2979.4098</v>
       </c>
       <c r="G182" t="n">
         <v>263.5333333333334</v>
@@ -6927,9 +6883,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>258</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6944,22 +6898,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C183" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D183" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E183" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F183" t="n">
-        <v>2006.7245</v>
+        <v>1.8539</v>
       </c>
       <c r="G183" t="n">
-        <v>263.5</v>
+        <v>263.5333333333334</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6968,9 +6922,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>258</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6997,10 +6949,10 @@
         <v>265</v>
       </c>
       <c r="F184" t="n">
-        <v>2608.4252</v>
+        <v>2006.7245</v>
       </c>
       <c r="G184" t="n">
-        <v>263.4666666666666</v>
+        <v>263.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7009,9 +6961,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>258</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7038,10 +6988,10 @@
         <v>265</v>
       </c>
       <c r="F185" t="n">
-        <v>1605.766</v>
+        <v>2608.4252</v>
       </c>
       <c r="G185" t="n">
-        <v>263.4333333333333</v>
+        <v>263.4666666666666</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7050,9 +7000,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>258</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7079,10 +7027,10 @@
         <v>265</v>
       </c>
       <c r="F186" t="n">
-        <v>100</v>
+        <v>1605.766</v>
       </c>
       <c r="G186" t="n">
-        <v>263.4166666666667</v>
+        <v>263.4333333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7091,9 +7039,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>258</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7120,10 +7066,10 @@
         <v>265</v>
       </c>
       <c r="F187" t="n">
-        <v>42.1473</v>
+        <v>100</v>
       </c>
       <c r="G187" t="n">
-        <v>263.4</v>
+        <v>263.4166666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7132,9 +7078,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>258</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7161,10 +7105,10 @@
         <v>265</v>
       </c>
       <c r="F188" t="n">
-        <v>270.294</v>
+        <v>42.1473</v>
       </c>
       <c r="G188" t="n">
-        <v>263.35</v>
+        <v>263.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7173,9 +7117,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>258</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7190,22 +7132,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C189" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D189" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E189" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F189" t="n">
-        <v>8434.446400000001</v>
+        <v>270.294</v>
       </c>
       <c r="G189" t="n">
-        <v>263.3</v>
+        <v>263.35</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7214,9 +7156,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>258</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7243,10 +7183,10 @@
         <v>264</v>
       </c>
       <c r="F190" t="n">
-        <v>5451.7542</v>
+        <v>8434.446400000001</v>
       </c>
       <c r="G190" t="n">
-        <v>263.2666666666667</v>
+        <v>263.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7255,9 +7195,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>258</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7272,22 +7210,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C191" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D191" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E191" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F191" t="n">
-        <v>12.295</v>
+        <v>5451.7542</v>
       </c>
       <c r="G191" t="n">
-        <v>263.2833333333334</v>
+        <v>263.2666666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7296,9 +7234,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>258</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7316,19 +7252,19 @@
         <v>265</v>
       </c>
       <c r="C192" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D192" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E192" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F192" t="n">
-        <v>7607.9456</v>
+        <v>12.295</v>
       </c>
       <c r="G192" t="n">
-        <v>263.3</v>
+        <v>263.2833333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7337,9 +7273,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>258</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7357,19 +7291,19 @@
         <v>265</v>
       </c>
       <c r="C193" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D193" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E193" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F193" t="n">
-        <v>3753.8608</v>
+        <v>7607.9456</v>
       </c>
       <c r="G193" t="n">
-        <v>263.3333333333333</v>
+        <v>263.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7378,9 +7312,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>258</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7407,10 +7339,10 @@
         <v>265</v>
       </c>
       <c r="F194" t="n">
-        <v>42138.058</v>
+        <v>3753.8608</v>
       </c>
       <c r="G194" t="n">
-        <v>263.35</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7419,9 +7351,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>258</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7436,7 +7366,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C195" t="n">
         <v>265</v>
@@ -7445,13 +7375,13 @@
         <v>265</v>
       </c>
       <c r="E195" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F195" t="n">
-        <v>10527.7377</v>
+        <v>42138.058</v>
       </c>
       <c r="G195" t="n">
-        <v>263.3666666666667</v>
+        <v>263.35</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7460,9 +7390,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>258</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7480,19 +7408,19 @@
         <v>264</v>
       </c>
       <c r="C196" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D196" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E196" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F196" t="n">
-        <v>406.8402</v>
+        <v>10527.7377</v>
       </c>
       <c r="G196" t="n">
-        <v>263.3833333333333</v>
+        <v>263.3666666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7501,9 +7429,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>258</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7518,22 +7444,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C197" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D197" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E197" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F197" t="n">
-        <v>1670</v>
+        <v>406.8402</v>
       </c>
       <c r="G197" t="n">
-        <v>263.3666666666667</v>
+        <v>263.3833333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7542,9 +7468,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>258</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7571,10 +7495,10 @@
         <v>262</v>
       </c>
       <c r="F198" t="n">
-        <v>3007.9908</v>
+        <v>1670</v>
       </c>
       <c r="G198" t="n">
-        <v>263.3333333333333</v>
+        <v>263.3666666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7583,9 +7507,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>258</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7612,10 +7534,10 @@
         <v>262</v>
       </c>
       <c r="F199" t="n">
-        <v>13303.8209</v>
+        <v>3007.9908</v>
       </c>
       <c r="G199" t="n">
-        <v>263.3</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7624,9 +7546,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>258</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7641,22 +7561,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C200" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D200" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E200" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F200" t="n">
-        <v>1900</v>
+        <v>13303.8209</v>
       </c>
       <c r="G200" t="n">
-        <v>263.25</v>
+        <v>263.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7665,9 +7585,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>258</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7682,22 +7600,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C201" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D201" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E201" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F201" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="G201" t="n">
-        <v>263.2166666666666</v>
+        <v>263.25</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7706,9 +7624,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>258</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7735,10 +7651,10 @@
         <v>262</v>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="G202" t="n">
-        <v>263.2</v>
+        <v>263.2166666666666</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7747,9 +7663,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>258</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7776,10 +7690,10 @@
         <v>262</v>
       </c>
       <c r="F203" t="n">
-        <v>3410</v>
+        <v>200</v>
       </c>
       <c r="G203" t="n">
-        <v>263.2166666666666</v>
+        <v>263.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7788,9 +7702,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>258</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7817,10 +7729,10 @@
         <v>262</v>
       </c>
       <c r="F204" t="n">
-        <v>13510</v>
+        <v>3410</v>
       </c>
       <c r="G204" t="n">
-        <v>263.2333333333333</v>
+        <v>263.2166666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7829,9 +7741,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>258</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7858,10 +7768,10 @@
         <v>262</v>
       </c>
       <c r="F205" t="n">
-        <v>160.3726</v>
+        <v>13510</v>
       </c>
       <c r="G205" t="n">
-        <v>263.2166666666666</v>
+        <v>263.2333333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7870,9 +7780,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>258</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7899,10 +7807,10 @@
         <v>262</v>
       </c>
       <c r="F206" t="n">
-        <v>1149.0562</v>
+        <v>160.3726</v>
       </c>
       <c r="G206" t="n">
-        <v>263.2</v>
+        <v>263.2166666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7911,9 +7819,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>258</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7928,22 +7834,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C207" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D207" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E207" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F207" t="n">
-        <v>10</v>
+        <v>1149.0562</v>
       </c>
       <c r="G207" t="n">
-        <v>263.2333333333333</v>
+        <v>263.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7952,9 +7858,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>258</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7969,22 +7873,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C208" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D208" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E208" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F208" t="n">
-        <v>530.3330999999999</v>
+        <v>10</v>
       </c>
       <c r="G208" t="n">
-        <v>263.3</v>
+        <v>263.2333333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7993,9 +7897,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>258</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8022,7 +7924,7 @@
         <v>262</v>
       </c>
       <c r="F209" t="n">
-        <v>500</v>
+        <v>530.3330999999999</v>
       </c>
       <c r="G209" t="n">
         <v>263.3</v>
@@ -8034,9 +7936,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>258</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8063,7 +7963,7 @@
         <v>262</v>
       </c>
       <c r="F210" t="n">
-        <v>2000.8729</v>
+        <v>500</v>
       </c>
       <c r="G210" t="n">
         <v>263.3</v>
@@ -8075,9 +7975,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>258</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8092,22 +7990,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C211" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D211" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E211" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F211" t="n">
-        <v>5062.3069</v>
+        <v>2000.8729</v>
       </c>
       <c r="G211" t="n">
-        <v>263.3333333333333</v>
+        <v>263.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8116,9 +8014,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>258</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8145,10 +8041,10 @@
         <v>263</v>
       </c>
       <c r="F212" t="n">
-        <v>2144.6626</v>
+        <v>5062.3069</v>
       </c>
       <c r="G212" t="n">
-        <v>263.3666666666667</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8157,9 +8053,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>258</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8174,22 +8068,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C213" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D213" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E213" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F213" t="n">
-        <v>97593.02439999999</v>
+        <v>2144.6626</v>
       </c>
       <c r="G213" t="n">
-        <v>263.4333333333333</v>
+        <v>263.3666666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8198,9 +8092,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>258</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8218,19 +8110,19 @@
         <v>262</v>
       </c>
       <c r="C214" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D214" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E214" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F214" t="n">
-        <v>7633.5876</v>
+        <v>97593.02439999999</v>
       </c>
       <c r="G214" t="n">
-        <v>263.5333333333334</v>
+        <v>263.4333333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8239,9 +8131,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>258</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8256,22 +8146,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C215" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D215" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E215" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F215" t="n">
-        <v>6030</v>
+        <v>7633.5876</v>
       </c>
       <c r="G215" t="n">
-        <v>263.6333333333333</v>
+        <v>263.5333333333334</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8280,9 +8170,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>258</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8297,22 +8185,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C216" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D216" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E216" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F216" t="n">
-        <v>21731.751</v>
+        <v>6030</v>
       </c>
       <c r="G216" t="n">
-        <v>263.8</v>
+        <v>263.6333333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8321,9 +8209,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>258</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8338,22 +8224,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C217" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D217" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E217" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F217" t="n">
-        <v>1016.6225</v>
+        <v>21731.751</v>
       </c>
       <c r="G217" t="n">
-        <v>264</v>
+        <v>263.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8362,9 +8248,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>258</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8379,22 +8263,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C218" t="n">
         <v>269</v>
       </c>
       <c r="D218" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E218" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F218" t="n">
-        <v>9550.7515</v>
+        <v>1016.6225</v>
       </c>
       <c r="G218" t="n">
-        <v>264.2</v>
+        <v>264</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8403,9 +8287,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>258</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8420,22 +8302,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C219" t="n">
         <v>269</v>
       </c>
       <c r="D219" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E219" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F219" t="n">
-        <v>1445.8813</v>
+        <v>9550.7515</v>
       </c>
       <c r="G219" t="n">
-        <v>264.3833333333333</v>
+        <v>264.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8444,9 +8326,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>258</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8461,22 +8341,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C220" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D220" t="n">
         <v>270</v>
       </c>
       <c r="E220" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F220" t="n">
-        <v>518.8074</v>
+        <v>1445.8813</v>
       </c>
       <c r="G220" t="n">
-        <v>264.5333333333334</v>
+        <v>264.3833333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8485,9 +8365,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>258</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8502,22 +8380,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C221" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D221" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E221" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F221" t="n">
-        <v>26978.5241</v>
+        <v>518.8074</v>
       </c>
       <c r="G221" t="n">
-        <v>264.6333333333333</v>
+        <v>264.5333333333334</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8526,9 +8404,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>258</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8543,22 +8419,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C222" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D222" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E222" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F222" t="n">
-        <v>200</v>
+        <v>26978.5241</v>
       </c>
       <c r="G222" t="n">
-        <v>264.7166666666666</v>
+        <v>264.6333333333333</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8567,9 +8443,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>258</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8584,22 +8458,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C223" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D223" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E223" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F223" t="n">
-        <v>2152.4435</v>
+        <v>200</v>
       </c>
       <c r="G223" t="n">
-        <v>264.85</v>
+        <v>264.7166666666666</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8608,9 +8482,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>258</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8625,22 +8497,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C224" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D224" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E224" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F224" t="n">
-        <v>200.6722</v>
+        <v>2152.4435</v>
       </c>
       <c r="G224" t="n">
-        <v>264.9666666666666</v>
+        <v>264.85</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8649,9 +8521,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>258</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8678,10 +8548,10 @@
         <v>272</v>
       </c>
       <c r="F225" t="n">
-        <v>30.6985</v>
+        <v>200.6722</v>
       </c>
       <c r="G225" t="n">
-        <v>265.0833333333333</v>
+        <v>264.9666666666666</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8690,9 +8560,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>258</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8719,10 +8587,10 @@
         <v>272</v>
       </c>
       <c r="F226" t="n">
-        <v>946.9917</v>
+        <v>30.6985</v>
       </c>
       <c r="G226" t="n">
-        <v>265.1833333333333</v>
+        <v>265.0833333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8731,9 +8599,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>258</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8748,22 +8614,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C227" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D227" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E227" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F227" t="n">
-        <v>8498.414500000001</v>
+        <v>946.9917</v>
       </c>
       <c r="G227" t="n">
-        <v>265.2666666666667</v>
+        <v>265.1833333333333</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8772,9 +8638,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>258</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8789,22 +8653,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C228" t="n">
         <v>270</v>
       </c>
       <c r="D228" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E228" t="n">
         <v>270</v>
       </c>
       <c r="F228" t="n">
-        <v>6375.6464</v>
+        <v>8498.414500000001</v>
       </c>
       <c r="G228" t="n">
-        <v>265.3333333333333</v>
+        <v>265.2666666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8813,9 +8677,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>258</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8830,22 +8692,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C229" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D229" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E229" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F229" t="n">
-        <v>9028.9229</v>
+        <v>6375.6464</v>
       </c>
       <c r="G229" t="n">
-        <v>265.3833333333333</v>
+        <v>265.3333333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8854,9 +8716,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>258</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8871,22 +8731,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C230" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D230" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E230" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F230" t="n">
-        <v>43.0969</v>
+        <v>9028.9229</v>
       </c>
       <c r="G230" t="n">
-        <v>265.4833333333333</v>
+        <v>265.3833333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8895,9 +8755,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>258</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8924,10 +8782,10 @@
         <v>270</v>
       </c>
       <c r="F231" t="n">
-        <v>9151.2986</v>
+        <v>43.0969</v>
       </c>
       <c r="G231" t="n">
-        <v>265.5833333333333</v>
+        <v>265.4833333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8936,9 +8794,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>258</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8956,19 +8812,19 @@
         <v>270</v>
       </c>
       <c r="C232" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D232" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E232" t="n">
         <v>270</v>
       </c>
       <c r="F232" t="n">
-        <v>356.6683</v>
+        <v>9151.2986</v>
       </c>
       <c r="G232" t="n">
-        <v>265.6833333333333</v>
+        <v>265.5833333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8977,9 +8833,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>258</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8994,22 +8848,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C233" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D233" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E233" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F233" t="n">
-        <v>12694.0183</v>
+        <v>356.6683</v>
       </c>
       <c r="G233" t="n">
-        <v>265.7833333333334</v>
+        <v>265.6833333333333</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9018,9 +8872,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>258</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9047,10 +8899,10 @@
         <v>272</v>
       </c>
       <c r="F234" t="n">
-        <v>23187.0208</v>
+        <v>12694.0183</v>
       </c>
       <c r="G234" t="n">
-        <v>265.8833333333333</v>
+        <v>265.7833333333334</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9059,9 +8911,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>258</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9088,10 +8938,10 @@
         <v>272</v>
       </c>
       <c r="F235" t="n">
-        <v>20531.7316</v>
+        <v>23187.0208</v>
       </c>
       <c r="G235" t="n">
-        <v>266</v>
+        <v>265.8833333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9100,9 +8950,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>258</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9129,10 +8977,10 @@
         <v>272</v>
       </c>
       <c r="F236" t="n">
-        <v>2000</v>
+        <v>20531.7316</v>
       </c>
       <c r="G236" t="n">
-        <v>266.1166666666667</v>
+        <v>266</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9141,9 +8989,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>258</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9158,22 +9004,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C237" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D237" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E237" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F237" t="n">
-        <v>2251.0794</v>
+        <v>2000</v>
       </c>
       <c r="G237" t="n">
-        <v>266.25</v>
+        <v>266.1166666666667</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9182,9 +9028,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>258</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9199,22 +9043,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C238" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D238" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E238" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F238" t="n">
-        <v>984.7626</v>
+        <v>2251.0794</v>
       </c>
       <c r="G238" t="n">
-        <v>266.3833333333333</v>
+        <v>266.25</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9223,9 +9067,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>258</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9240,22 +9082,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C239" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D239" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E239" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F239" t="n">
-        <v>191.3931</v>
+        <v>984.7626</v>
       </c>
       <c r="G239" t="n">
-        <v>266.45</v>
+        <v>266.3833333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9264,9 +9106,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>258</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9284,19 +9124,19 @@
         <v>272</v>
       </c>
       <c r="C240" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D240" t="n">
         <v>272</v>
       </c>
       <c r="E240" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F240" t="n">
-        <v>710.2437</v>
+        <v>191.3931</v>
       </c>
       <c r="G240" t="n">
-        <v>266.5333333333334</v>
+        <v>266.45</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9305,9 +9145,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>258</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9334,10 +9172,10 @@
         <v>272</v>
       </c>
       <c r="F241" t="n">
-        <v>40.9045</v>
+        <v>710.2437</v>
       </c>
       <c r="G241" t="n">
-        <v>266.6333333333333</v>
+        <v>266.5333333333334</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9346,9 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>258</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9366,19 +9202,19 @@
         <v>272</v>
       </c>
       <c r="C242" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D242" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E242" t="n">
         <v>272</v>
       </c>
       <c r="F242" t="n">
-        <v>2535.7524</v>
+        <v>40.9045</v>
       </c>
       <c r="G242" t="n">
-        <v>266.75</v>
+        <v>266.6333333333333</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9387,9 +9223,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>258</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9404,7 +9238,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C243" t="n">
         <v>274</v>
@@ -9413,13 +9247,13 @@
         <v>274</v>
       </c>
       <c r="E243" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F243" t="n">
-        <v>100</v>
+        <v>2535.7524</v>
       </c>
       <c r="G243" t="n">
-        <v>266.9</v>
+        <v>266.75</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9428,9 +9262,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>258</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9445,7 +9277,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C244" t="n">
         <v>274</v>
@@ -9454,13 +9286,13 @@
         <v>274</v>
       </c>
       <c r="E244" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F244" t="n">
-        <v>314.2591</v>
+        <v>100</v>
       </c>
       <c r="G244" t="n">
-        <v>267.05</v>
+        <v>266.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9469,9 +9301,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>258</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9486,22 +9316,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C245" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D245" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E245" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F245" t="n">
-        <v>123.9375</v>
+        <v>314.2591</v>
       </c>
       <c r="G245" t="n">
-        <v>267.1666666666667</v>
+        <v>267.05</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9510,9 +9340,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>258</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9527,22 +9355,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C246" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D246" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E246" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F246" t="n">
-        <v>111.8571</v>
+        <v>123.9375</v>
       </c>
       <c r="G246" t="n">
-        <v>267.3</v>
+        <v>267.1666666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9551,9 +9379,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>258</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9568,22 +9394,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C247" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D247" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E247" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F247" t="n">
-        <v>8420.4511</v>
+        <v>111.8571</v>
       </c>
       <c r="G247" t="n">
-        <v>267.4166666666667</v>
+        <v>267.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9592,9 +9418,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>258</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9621,10 +9445,10 @@
         <v>272</v>
       </c>
       <c r="F248" t="n">
-        <v>3259.225</v>
+        <v>8420.4511</v>
       </c>
       <c r="G248" t="n">
-        <v>267.5333333333334</v>
+        <v>267.4166666666667</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9633,9 +9457,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>258</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9650,22 +9472,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C249" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D249" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E249" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F249" t="n">
-        <v>2536.4422</v>
+        <v>3259.225</v>
       </c>
       <c r="G249" t="n">
-        <v>267.65</v>
+        <v>267.5333333333334</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9674,9 +9496,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>258</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9703,10 +9523,10 @@
         <v>271</v>
       </c>
       <c r="F250" t="n">
-        <v>4002.26</v>
+        <v>2536.4422</v>
       </c>
       <c r="G250" t="n">
-        <v>267.7666666666667</v>
+        <v>267.65</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9715,9 +9535,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>258</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9732,22 +9550,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C251" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D251" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E251" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F251" t="n">
-        <v>40496.1375</v>
+        <v>4002.26</v>
       </c>
       <c r="G251" t="n">
-        <v>267.8333333333333</v>
+        <v>267.7666666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9756,9 +9574,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>258</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9773,22 +9589,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C252" t="n">
         <v>269</v>
       </c>
       <c r="D252" t="n">
+        <v>270</v>
+      </c>
+      <c r="E252" t="n">
         <v>269</v>
       </c>
-      <c r="E252" t="n">
-        <v>268</v>
-      </c>
       <c r="F252" t="n">
-        <v>2340.4313</v>
+        <v>40496.1375</v>
       </c>
       <c r="G252" t="n">
-        <v>267.8833333333333</v>
+        <v>267.8333333333333</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9797,9 +9613,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>258</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9817,19 +9631,19 @@
         <v>268</v>
       </c>
       <c r="C253" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D253" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E253" t="n">
         <v>268</v>
       </c>
       <c r="F253" t="n">
-        <v>688.1143</v>
+        <v>2340.4313</v>
       </c>
       <c r="G253" t="n">
-        <v>267.9333333333333</v>
+        <v>267.8833333333333</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9838,9 +9652,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>258</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9855,22 +9667,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C254" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D254" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E254" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F254" t="n">
-        <v>9.933</v>
+        <v>688.1143</v>
       </c>
       <c r="G254" t="n">
-        <v>268</v>
+        <v>267.9333333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9879,9 +9691,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>258</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9896,22 +9706,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C255" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D255" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E255" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F255" t="n">
-        <v>1243.8604</v>
+        <v>9.933</v>
       </c>
       <c r="G255" t="n">
-        <v>268.0333333333334</v>
+        <v>268</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9920,9 +9730,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>258</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9937,22 +9745,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C256" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D256" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E256" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F256" t="n">
-        <v>4134.7267</v>
+        <v>1243.8604</v>
       </c>
       <c r="G256" t="n">
-        <v>268.1166666666667</v>
+        <v>268.0333333333334</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9961,9 +9769,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>258</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9978,22 +9784,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C257" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D257" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E257" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F257" t="n">
-        <v>193.5037</v>
+        <v>4134.7267</v>
       </c>
       <c r="G257" t="n">
-        <v>268.25</v>
+        <v>268.1166666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10002,9 +9808,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>258</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10019,22 +9823,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C258" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D258" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E258" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F258" t="n">
-        <v>11876.7145</v>
+        <v>193.5037</v>
       </c>
       <c r="G258" t="n">
-        <v>268.3666666666667</v>
+        <v>268.25</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10043,9 +9847,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>258</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10060,22 +9862,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C259" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D259" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E259" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F259" t="n">
-        <v>6135.2776</v>
+        <v>11876.7145</v>
       </c>
       <c r="G259" t="n">
-        <v>268.5</v>
+        <v>268.3666666666667</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10084,9 +9886,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>258</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10116,7 +9916,7 @@
         <v>6135.2776</v>
       </c>
       <c r="G260" t="n">
-        <v>268.65</v>
+        <v>268.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10125,9 +9925,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>258</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10142,22 +9940,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C261" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D261" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E261" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F261" t="n">
-        <v>4311.9338</v>
+        <v>6135.2776</v>
       </c>
       <c r="G261" t="n">
-        <v>268.8166666666667</v>
+        <v>268.65</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10166,9 +9964,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>258</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10183,7 +9979,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C262" t="n">
         <v>272</v>
@@ -10192,13 +9988,13 @@
         <v>272</v>
       </c>
       <c r="E262" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F262" t="n">
-        <v>3167.074</v>
+        <v>4311.9338</v>
       </c>
       <c r="G262" t="n">
-        <v>268.9833333333333</v>
+        <v>268.8166666666667</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10207,9 +10003,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>258</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10227,19 +10021,19 @@
         <v>271</v>
       </c>
       <c r="C263" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D263" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E263" t="n">
         <v>271</v>
       </c>
       <c r="F263" t="n">
-        <v>415.6821</v>
+        <v>3167.074</v>
       </c>
       <c r="G263" t="n">
-        <v>269.1333333333333</v>
+        <v>268.9833333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10248,9 +10042,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>258</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10268,19 +10060,19 @@
         <v>271</v>
       </c>
       <c r="C264" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D264" t="n">
         <v>271</v>
       </c>
       <c r="E264" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F264" t="n">
-        <v>216.7661</v>
+        <v>415.6821</v>
       </c>
       <c r="G264" t="n">
-        <v>269.2666666666667</v>
+        <v>269.1333333333333</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10289,9 +10081,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>258</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10309,19 +10099,19 @@
         <v>271</v>
       </c>
       <c r="C265" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D265" t="n">
         <v>271</v>
       </c>
       <c r="E265" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F265" t="n">
-        <v>1791.4531</v>
+        <v>216.7661</v>
       </c>
       <c r="G265" t="n">
-        <v>269.4166666666667</v>
+        <v>269.2666666666667</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10330,9 +10120,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>258</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10359,10 +10147,10 @@
         <v>271</v>
       </c>
       <c r="F266" t="n">
-        <v>789.789</v>
+        <v>1791.4531</v>
       </c>
       <c r="G266" t="n">
-        <v>269.5666666666667</v>
+        <v>269.4166666666667</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10371,9 +10159,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>258</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10400,10 +10186,10 @@
         <v>271</v>
       </c>
       <c r="F267" t="n">
-        <v>1184.6836</v>
+        <v>789.789</v>
       </c>
       <c r="G267" t="n">
-        <v>269.7</v>
+        <v>269.5666666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10412,9 +10198,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>258</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10441,10 +10225,10 @@
         <v>271</v>
       </c>
       <c r="F268" t="n">
-        <v>1184.6837</v>
+        <v>1184.6836</v>
       </c>
       <c r="G268" t="n">
-        <v>269.85</v>
+        <v>269.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10453,9 +10237,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>258</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10470,22 +10252,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C269" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D269" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E269" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F269" t="n">
-        <v>9325.7348</v>
+        <v>1184.6837</v>
       </c>
       <c r="G269" t="n">
-        <v>270.0333333333334</v>
+        <v>269.85</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10494,9 +10276,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>258</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10511,22 +10291,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C270" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D270" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E270" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F270" t="n">
-        <v>10109.6557</v>
+        <v>9325.7348</v>
       </c>
       <c r="G270" t="n">
-        <v>270.2333333333333</v>
+        <v>270.0333333333334</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10535,9 +10315,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>258</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10564,10 +10342,10 @@
         <v>274</v>
       </c>
       <c r="F271" t="n">
-        <v>1061.0857</v>
+        <v>10109.6557</v>
       </c>
       <c r="G271" t="n">
-        <v>270.4166666666667</v>
+        <v>270.2333333333333</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10576,9 +10354,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>258</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10605,10 +10381,10 @@
         <v>274</v>
       </c>
       <c r="F272" t="n">
-        <v>1168.6986</v>
+        <v>1061.0857</v>
       </c>
       <c r="G272" t="n">
-        <v>270.6</v>
+        <v>270.4166666666667</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10617,9 +10393,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>258</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10634,22 +10408,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C273" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D273" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E273" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F273" t="n">
-        <v>3658.448</v>
+        <v>1168.6986</v>
       </c>
       <c r="G273" t="n">
-        <v>270.7833333333334</v>
+        <v>270.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10658,9 +10432,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>258</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10684,13 +10456,13 @@
         <v>275</v>
       </c>
       <c r="E274" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F274" t="n">
-        <v>10798.0704</v>
+        <v>3658.448</v>
       </c>
       <c r="G274" t="n">
-        <v>271</v>
+        <v>270.7833333333334</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10699,9 +10471,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>258</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10719,19 +10489,19 @@
         <v>275</v>
       </c>
       <c r="C275" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D275" t="n">
         <v>275</v>
       </c>
       <c r="E275" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F275" t="n">
-        <v>948</v>
+        <v>10798.0704</v>
       </c>
       <c r="G275" t="n">
-        <v>271.1833333333333</v>
+        <v>271</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10740,9 +10510,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>258</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10757,22 +10525,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C276" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D276" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E276" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F276" t="n">
-        <v>10</v>
+        <v>948</v>
       </c>
       <c r="G276" t="n">
-        <v>271.3333333333333</v>
+        <v>271.1833333333333</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10781,9 +10549,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>258</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10798,22 +10564,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C277" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D277" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E277" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F277" t="n">
-        <v>21531.9138</v>
+        <v>10</v>
       </c>
       <c r="G277" t="n">
-        <v>271.4166666666667</v>
+        <v>271.3333333333333</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10822,9 +10588,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>258</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10842,19 +10606,19 @@
         <v>275</v>
       </c>
       <c r="C278" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D278" t="n">
         <v>275</v>
       </c>
       <c r="E278" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F278" t="n">
-        <v>27936.0819</v>
+        <v>21531.9138</v>
       </c>
       <c r="G278" t="n">
-        <v>271.5166666666667</v>
+        <v>271.4166666666667</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10863,9 +10627,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>258</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10883,19 +10645,19 @@
         <v>275</v>
       </c>
       <c r="C279" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D279" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E279" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F279" t="n">
-        <v>15634.8711</v>
+        <v>27936.0819</v>
       </c>
       <c r="G279" t="n">
-        <v>271.6333333333333</v>
+        <v>271.5166666666667</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10904,9 +10666,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>258</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10921,10 +10681,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
+        <v>275</v>
+      </c>
+      <c r="C280" t="n">
         <v>276</v>
-      </c>
-      <c r="C280" t="n">
-        <v>277</v>
       </c>
       <c r="D280" t="n">
         <v>277</v>
@@ -10933,10 +10693,10 @@
         <v>275</v>
       </c>
       <c r="F280" t="n">
-        <v>15914.54930866426</v>
+        <v>15634.8711</v>
       </c>
       <c r="G280" t="n">
-        <v>271.75</v>
+        <v>271.6333333333333</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10945,9 +10705,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>258</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10965,19 +10723,19 @@
         <v>276</v>
       </c>
       <c r="C281" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D281" t="n">
         <v>277</v>
       </c>
       <c r="E281" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F281" t="n">
-        <v>957.5409</v>
+        <v>15914.54930866426</v>
       </c>
       <c r="G281" t="n">
-        <v>271.8666666666667</v>
+        <v>271.75</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10986,9 +10744,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>258</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11006,7 +10762,7 @@
         <v>276</v>
       </c>
       <c r="C282" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D282" t="n">
         <v>277</v>
@@ -11015,10 +10771,10 @@
         <v>276</v>
       </c>
       <c r="F282" t="n">
-        <v>6476.2987</v>
+        <v>957.5409</v>
       </c>
       <c r="G282" t="n">
-        <v>271.9833333333333</v>
+        <v>271.8666666666667</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -11027,9 +10783,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>258</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11044,7 +10798,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C283" t="n">
         <v>277</v>
@@ -11053,13 +10807,13 @@
         <v>277</v>
       </c>
       <c r="E283" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F283" t="n">
-        <v>27714.8797</v>
+        <v>6476.2987</v>
       </c>
       <c r="G283" t="n">
-        <v>272.0833333333333</v>
+        <v>271.9833333333333</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -11068,9 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>258</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11085,22 +10837,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C284" t="n">
         <v>277</v>
       </c>
       <c r="D284" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E284" t="n">
         <v>277</v>
       </c>
       <c r="F284" t="n">
-        <v>28679.55582230216</v>
+        <v>27714.8797</v>
       </c>
       <c r="G284" t="n">
-        <v>272.1666666666667</v>
+        <v>272.0833333333333</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -11109,9 +10861,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>258</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11126,22 +10876,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C285" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D285" t="n">
         <v>278</v>
       </c>
       <c r="E285" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F285" t="n">
-        <v>2760.129977697842</v>
+        <v>28679.55582230216</v>
       </c>
       <c r="G285" t="n">
-        <v>272.2666666666667</v>
+        <v>272.1666666666667</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -11150,9 +10900,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>258</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11167,22 +10915,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
+        <v>276</v>
+      </c>
+      <c r="C286" t="n">
         <v>278</v>
       </c>
-      <c r="C286" t="n">
-        <v>279</v>
-      </c>
       <c r="D286" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E286" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F286" t="n">
-        <v>12326.4634</v>
+        <v>2760.129977697842</v>
       </c>
       <c r="G286" t="n">
-        <v>272.3833333333333</v>
+        <v>272.2666666666667</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -11191,9 +10939,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>258</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11211,19 +10957,19 @@
         <v>278</v>
       </c>
       <c r="C287" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D287" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E287" t="n">
         <v>278</v>
       </c>
       <c r="F287" t="n">
-        <v>34174.11570464286</v>
+        <v>12326.4634</v>
       </c>
       <c r="G287" t="n">
-        <v>272.55</v>
+        <v>272.3833333333333</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -11232,9 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>258</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11249,7 +10993,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C288" t="n">
         <v>280</v>
@@ -11258,13 +11002,13 @@
         <v>280</v>
       </c>
       <c r="E288" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F288" t="n">
-        <v>8361.1499</v>
+        <v>34174.11570464286</v>
       </c>
       <c r="G288" t="n">
-        <v>272.7166666666666</v>
+        <v>272.55</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -11273,9 +11017,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>258</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11302,28 +11044,26 @@
         <v>280</v>
       </c>
       <c r="F289" t="n">
-        <v>4656.766</v>
+        <v>8361.1499</v>
       </c>
       <c r="G289" t="n">
-        <v>272.9</v>
+        <v>272.7166666666666</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
       </c>
       <c r="I289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>258</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>1.080271317829457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -11331,32 +11071,36 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C290" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D290" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E290" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F290" t="n">
-        <v>791.9175</v>
+        <v>4656.766</v>
       </c>
       <c r="G290" t="n">
-        <v>273.05</v>
+        <v>272.9</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11369,29 +11113,33 @@
         <v>279</v>
       </c>
       <c r="C291" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D291" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E291" t="n">
         <v>279</v>
       </c>
       <c r="F291" t="n">
-        <v>5147.6248</v>
+        <v>791.9175</v>
       </c>
       <c r="G291" t="n">
-        <v>273.2166666666666</v>
+        <v>273.05</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
       </c>
       <c r="I291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11401,7 +11149,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C292" t="n">
         <v>280</v>
@@ -11410,13 +11158,13 @@
         <v>280</v>
       </c>
       <c r="E292" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F292" t="n">
-        <v>153.1571428571428</v>
+        <v>5147.6248</v>
       </c>
       <c r="G292" t="n">
-        <v>273.3666666666667</v>
+        <v>273.2166666666666</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11426,7 +11174,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11448,10 +11200,10 @@
         <v>280</v>
       </c>
       <c r="F293" t="n">
-        <v>1363.2</v>
+        <v>153.1571428571428</v>
       </c>
       <c r="G293" t="n">
-        <v>273.5</v>
+        <v>273.3666666666667</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11461,7 +11213,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11471,22 +11227,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C294" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D294" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E294" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F294" t="n">
-        <v>12254.1426</v>
+        <v>1363.2</v>
       </c>
       <c r="G294" t="n">
-        <v>273.6</v>
+        <v>273.5</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11496,7 +11252,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11506,22 +11266,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C295" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D295" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E295" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F295" t="n">
-        <v>2641.9677</v>
+        <v>12254.1426</v>
       </c>
       <c r="G295" t="n">
-        <v>273.7333333333333</v>
+        <v>273.6</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11531,7 +11291,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11553,10 +11317,10 @@
         <v>280</v>
       </c>
       <c r="F296" t="n">
-        <v>2540.6358</v>
+        <v>2641.9677</v>
       </c>
       <c r="G296" t="n">
-        <v>273.8666666666667</v>
+        <v>273.7333333333333</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11566,7 +11330,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11576,22 +11344,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C297" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D297" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E297" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F297" t="n">
-        <v>184.5996</v>
+        <v>2540.6358</v>
       </c>
       <c r="G297" t="n">
-        <v>273.9666666666666</v>
+        <v>273.8666666666667</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11601,7 +11369,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11614,19 +11386,19 @@
         <v>281</v>
       </c>
       <c r="C298" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D298" t="n">
         <v>281</v>
       </c>
       <c r="E298" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F298" t="n">
-        <v>1579.1619</v>
+        <v>184.5996</v>
       </c>
       <c r="G298" t="n">
-        <v>274.0833333333333</v>
+        <v>273.9666666666666</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -11636,7 +11408,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11646,22 +11422,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C299" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D299" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E299" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F299" t="n">
-        <v>162.3361</v>
+        <v>1579.1619</v>
       </c>
       <c r="G299" t="n">
-        <v>274.2666666666667</v>
+        <v>274.0833333333333</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -11671,7 +11447,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11693,10 +11473,10 @@
         <v>282</v>
       </c>
       <c r="F300" t="n">
-        <v>319.5141</v>
+        <v>162.3361</v>
       </c>
       <c r="G300" t="n">
-        <v>274.4333333333333</v>
+        <v>274.2666666666667</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -11706,7 +11486,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11719,19 +11503,19 @@
         <v>282</v>
       </c>
       <c r="C301" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D301" t="n">
         <v>282</v>
       </c>
       <c r="E301" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F301" t="n">
-        <v>7422.3475</v>
+        <v>319.5141</v>
       </c>
       <c r="G301" t="n">
-        <v>274.5666666666667</v>
+        <v>274.4333333333333</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11741,7 +11525,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11754,19 +11542,19 @@
         <v>282</v>
       </c>
       <c r="C302" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D302" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E302" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F302" t="n">
-        <v>18245.9543</v>
+        <v>7422.3475</v>
       </c>
       <c r="G302" t="n">
-        <v>274.7166666666666</v>
+        <v>274.5666666666667</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11776,7 +11564,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11789,19 +11581,19 @@
         <v>282</v>
       </c>
       <c r="C303" t="n">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D303" t="n">
+        <v>283</v>
+      </c>
+      <c r="E303" t="n">
         <v>282</v>
       </c>
-      <c r="E303" t="n">
-        <v>276</v>
-      </c>
       <c r="F303" t="n">
-        <v>36762.9324</v>
+        <v>18245.9543</v>
       </c>
       <c r="G303" t="n">
-        <v>274.75</v>
+        <v>274.7166666666666</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11811,7 +11603,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11821,22 +11617,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C304" t="n">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D304" t="n">
         <v>282</v>
       </c>
       <c r="E304" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F304" t="n">
-        <v>23798.1455</v>
+        <v>36762.9324</v>
       </c>
       <c r="G304" t="n">
-        <v>274.8833333333333</v>
+        <v>274.75</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11846,7 +11642,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11856,22 +11656,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C305" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D305" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E305" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F305" t="n">
-        <v>689.9724</v>
+        <v>23798.1455</v>
       </c>
       <c r="G305" t="n">
-        <v>274.9666666666666</v>
+        <v>274.8833333333333</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11881,7 +11681,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11891,22 +11695,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C306" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D306" t="n">
         <v>279</v>
       </c>
       <c r="E306" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F306" t="n">
-        <v>6175.9538</v>
+        <v>689.9724</v>
       </c>
       <c r="G306" t="n">
-        <v>275.0666666666667</v>
+        <v>274.9666666666666</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11916,7 +11720,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11926,22 +11734,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C307" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D307" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E307" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F307" t="n">
-        <v>18.4595</v>
+        <v>6175.9538</v>
       </c>
       <c r="G307" t="n">
-        <v>275.1666666666667</v>
+        <v>275.0666666666667</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11951,7 +11759,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11964,19 +11776,19 @@
         <v>278</v>
       </c>
       <c r="C308" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D308" t="n">
         <v>278</v>
       </c>
       <c r="E308" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F308" t="n">
-        <v>396.3633</v>
+        <v>18.4595</v>
       </c>
       <c r="G308" t="n">
-        <v>275.25</v>
+        <v>275.1666666666667</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11986,7 +11798,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11996,22 +11812,22 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C309" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D309" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E309" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F309" t="n">
-        <v>5806.669</v>
+        <v>396.3633</v>
       </c>
       <c r="G309" t="n">
-        <v>275.3166666666667</v>
+        <v>275.25</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -12021,7 +11837,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12031,22 +11851,22 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C310" t="n">
         <v>275</v>
       </c>
       <c r="D310" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E310" t="n">
         <v>274</v>
       </c>
       <c r="F310" t="n">
-        <v>1465.8896</v>
+        <v>5806.669</v>
       </c>
       <c r="G310" t="n">
-        <v>275.3833333333333</v>
+        <v>275.3166666666667</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -12056,7 +11876,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12069,19 +11893,19 @@
         <v>274</v>
       </c>
       <c r="C311" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D311" t="n">
+        <v>275</v>
+      </c>
+      <c r="E311" t="n">
         <v>274</v>
       </c>
-      <c r="E311" t="n">
-        <v>273</v>
-      </c>
       <c r="F311" t="n">
-        <v>12.1582</v>
+        <v>1465.8896</v>
       </c>
       <c r="G311" t="n">
-        <v>275.45</v>
+        <v>275.3833333333333</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -12091,7 +11915,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12101,22 +11929,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C312" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D312" t="n">
         <v>274</v>
       </c>
       <c r="E312" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F312" t="n">
-        <v>7606.3462</v>
+        <v>12.1582</v>
       </c>
       <c r="G312" t="n">
-        <v>275.5333333333334</v>
+        <v>275.45</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -12126,7 +11954,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12136,7 +11968,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C313" t="n">
         <v>274</v>
@@ -12145,13 +11977,13 @@
         <v>274</v>
       </c>
       <c r="E313" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F313" t="n">
-        <v>1949.3682</v>
+        <v>7606.3462</v>
       </c>
       <c r="G313" t="n">
-        <v>275.6333333333333</v>
+        <v>275.5333333333334</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -12161,7 +11993,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12174,19 +12010,19 @@
         <v>273</v>
       </c>
       <c r="C314" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D314" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E314" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F314" t="n">
-        <v>3585.3198</v>
+        <v>1949.3682</v>
       </c>
       <c r="G314" t="n">
-        <v>275.7333333333333</v>
+        <v>275.6333333333333</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -12196,7 +12032,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12206,7 +12046,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C315" t="n">
         <v>275</v>
@@ -12218,10 +12058,10 @@
         <v>273</v>
       </c>
       <c r="F315" t="n">
-        <v>1567.4706</v>
+        <v>3585.3198</v>
       </c>
       <c r="G315" t="n">
-        <v>275.8666666666667</v>
+        <v>275.7333333333333</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -12231,7 +12071,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12244,19 +12088,19 @@
         <v>274</v>
       </c>
       <c r="C316" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D316" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E316" t="n">
         <v>273</v>
       </c>
       <c r="F316" t="n">
-        <v>3730.4382</v>
+        <v>1567.4706</v>
       </c>
       <c r="G316" t="n">
-        <v>275.9333333333333</v>
+        <v>275.8666666666667</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -12266,7 +12110,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12276,10 +12124,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
+        <v>274</v>
+      </c>
+      <c r="C317" t="n">
         <v>273</v>
-      </c>
-      <c r="C317" t="n">
-        <v>274</v>
       </c>
       <c r="D317" t="n">
         <v>274</v>
@@ -12288,10 +12136,10 @@
         <v>273</v>
       </c>
       <c r="F317" t="n">
-        <v>6844.6088</v>
+        <v>3730.4382</v>
       </c>
       <c r="G317" t="n">
-        <v>276</v>
+        <v>275.9333333333333</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -12301,7 +12149,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12311,22 +12163,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C318" t="n">
         <v>274</v>
       </c>
       <c r="D318" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E318" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F318" t="n">
-        <v>3</v>
+        <v>6844.6088</v>
       </c>
       <c r="G318" t="n">
-        <v>276.0833333333333</v>
+        <v>276</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -12336,7 +12188,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12355,13 +12211,13 @@
         <v>275</v>
       </c>
       <c r="E319" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F319" t="n">
-        <v>617.1507</v>
+        <v>3</v>
       </c>
       <c r="G319" t="n">
-        <v>276.15</v>
+        <v>276.0833333333333</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -12371,7 +12227,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12381,22 +12241,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
+        <v>275</v>
+      </c>
+      <c r="C320" t="n">
+        <v>274</v>
+      </c>
+      <c r="D320" t="n">
+        <v>275</v>
+      </c>
+      <c r="E320" t="n">
         <v>273</v>
       </c>
-      <c r="C320" t="n">
-        <v>272</v>
-      </c>
-      <c r="D320" t="n">
-        <v>273</v>
-      </c>
-      <c r="E320" t="n">
-        <v>272</v>
-      </c>
       <c r="F320" t="n">
-        <v>3202</v>
+        <v>617.1507</v>
       </c>
       <c r="G320" t="n">
-        <v>276.1833333333333</v>
+        <v>276.15</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -12406,8 +12266,51 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>273</v>
+      </c>
+      <c r="C321" t="n">
+        <v>272</v>
+      </c>
+      <c r="D321" t="n">
+        <v>273</v>
+      </c>
+      <c r="E321" t="n">
+        <v>272</v>
+      </c>
+      <c r="F321" t="n">
+        <v>3202</v>
+      </c>
+      <c r="G321" t="n">
+        <v>276.1833333333333</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M321" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest BAT.xlsx
+++ b/BackTest/2019-10-15 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>95487.0626477912</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>95494.1934477912</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>255</v>
@@ -521,7 +521,7 @@
         <v>95494.1934477912</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>256</v>
@@ -562,7 +562,7 @@
         <v>91397.9703477912</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>256</v>
@@ -603,7 +603,7 @@
         <v>90789.49534779119</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>254</v>
@@ -644,7 +644,7 @@
         <v>91185.40864779119</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>253</v>
@@ -685,7 +685,7 @@
         <v>91185.40864779119</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>254</v>
@@ -726,7 +726,7 @@
         <v>88140.1308477912</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>254</v>
@@ -767,7 +767,7 @@
         <v>88140.1308477912</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>253</v>
@@ -808,7 +808,7 @@
         <v>90148.00484779119</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>253</v>
@@ -849,7 +849,7 @@
         <v>82928.2745477912</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>254</v>
@@ -890,7 +890,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>252</v>
@@ -931,7 +931,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>254</v>
@@ -972,7 +972,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>254</v>
@@ -1013,7 +1013,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>254</v>
@@ -1054,7 +1054,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>254</v>
@@ -1095,7 +1095,7 @@
         <v>73579.0818477912</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>254</v>
@@ -1136,7 +1136,7 @@
         <v>76596.8377477912</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>253</v>
@@ -1177,7 +1177,7 @@
         <v>76596.8377477912</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>254</v>
@@ -1218,7 +1218,7 @@
         <v>73314.4957477912</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>254</v>
@@ -1259,7 +1259,7 @@
         <v>73314.4957477912</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>253</v>
@@ -1300,7 +1300,7 @@
         <v>73320.9130477912</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>253</v>
@@ -1341,7 +1341,7 @@
         <v>73320.9130477912</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>254</v>
@@ -1382,9 +1382,11 @@
         <v>71396.52044779119</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>254</v>
+      </c>
       <c r="J25" t="n">
         <v>255</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>71813.84424779119</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>252</v>
@@ -1462,9 +1464,11 @@
         <v>71813.84424779119</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>254</v>
+      </c>
       <c r="J27" t="n">
         <v>255</v>
       </c>
@@ -1501,9 +1505,11 @@
         <v>71813.84424779119</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>254</v>
+      </c>
       <c r="J28" t="n">
         <v>255</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>70041.14404779118</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>254</v>
@@ -1581,7 +1587,7 @@
         <v>70041.14404779118</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>253</v>
@@ -1622,7 +1628,7 @@
         <v>47365.96454779118</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>253</v>
@@ -1663,7 +1669,7 @@
         <v>51161.03974779118</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>252</v>
@@ -1704,7 +1710,7 @@
         <v>51138.01474779118</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>253</v>
@@ -1745,7 +1751,7 @@
         <v>51138.01474779118</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>252</v>
@@ -1786,7 +1792,7 @@
         <v>52993.46474779118</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>252</v>
@@ -1827,7 +1833,7 @@
         <v>50388.80394779118</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>253</v>
@@ -1868,7 +1874,7 @@
         <v>50388.80394779118</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>252</v>
@@ -1909,7 +1915,7 @@
         <v>50455.96824779118</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>252</v>
@@ -1950,7 +1956,7 @@
         <v>50679.17514779117</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>253</v>
@@ -1991,7 +1997,7 @@
         <v>50679.17514779117</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>254</v>
@@ -2032,7 +2038,7 @@
         <v>50679.17514779117</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>254</v>
@@ -2073,7 +2079,7 @@
         <v>50462.00594779118</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>254</v>
@@ -2114,7 +2120,7 @@
         <v>50602.88404779118</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>253</v>
@@ -2155,7 +2161,7 @@
         <v>50602.88404779118</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>255</v>
@@ -2196,7 +2202,7 @@
         <v>50602.88404779118</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>255</v>
@@ -2237,7 +2243,7 @@
         <v>50598.88404779118</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>255</v>
@@ -2278,9 +2284,11 @@
         <v>49723.68254779118</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>254</v>
+      </c>
       <c r="J47" t="n">
         <v>255</v>
       </c>
@@ -2317,7 +2325,7 @@
         <v>45786.50834779118</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>253</v>
@@ -2358,7 +2366,7 @@
         <v>53950.01224779118</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>252</v>
@@ -2399,7 +2407,7 @@
         <v>53950.01224779118</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>254</v>
@@ -2440,7 +2448,7 @@
         <v>42046.21644779118</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>254</v>
@@ -2481,7 +2489,7 @@
         <v>42046.21644779118</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>251</v>
@@ -2522,7 +2530,7 @@
         <v>72699.49134779118</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>251</v>
@@ -2563,7 +2571,7 @@
         <v>84223.43024779117</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>253</v>
@@ -2604,7 +2612,7 @@
         <v>82217.43024779117</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>254</v>
@@ -2645,7 +2653,7 @@
         <v>67520.30114779116</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>252</v>
@@ -2686,7 +2694,7 @@
         <v>68536.77344779116</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>250</v>
@@ -2727,7 +2735,7 @@
         <v>69913.99854779115</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>252</v>
@@ -2768,7 +2776,7 @@
         <v>69913.99854779115</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>253</v>
@@ -2809,7 +2817,7 @@
         <v>70052.17764779115</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>253</v>
@@ -2850,7 +2858,7 @@
         <v>70052.17764779115</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>254</v>
@@ -2891,7 +2899,7 @@
         <v>70052.17764779115</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>254</v>
@@ -2932,7 +2940,7 @@
         <v>70052.17764779115</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>254</v>
@@ -2973,7 +2981,7 @@
         <v>100075.5540477911</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>254</v>
@@ -3014,7 +3022,7 @@
         <v>121927.0266477912</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>255</v>
@@ -3055,7 +3063,7 @@
         <v>119123.0661665411</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>256</v>
@@ -3096,7 +3104,7 @@
         <v>119123.0661665411</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>255</v>
@@ -3137,7 +3145,7 @@
         <v>119379.9332665411</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>255</v>
@@ -3178,9 +3186,11 @@
         <v>119379.9332665411</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>256</v>
+      </c>
       <c r="J69" t="n">
         <v>255</v>
       </c>
@@ -3217,9 +3227,11 @@
         <v>119379.9332665411</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>256</v>
+      </c>
       <c r="J70" t="n">
         <v>255</v>
       </c>
@@ -3256,9 +3268,11 @@
         <v>119379.9332665411</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>256</v>
+      </c>
       <c r="J71" t="n">
         <v>255</v>
       </c>
@@ -3295,7 +3309,7 @@
         <v>119379.9332665411</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>256</v>
@@ -3336,9 +3350,11 @@
         <v>119379.9332665411</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>256</v>
+      </c>
       <c r="J73" t="n">
         <v>255</v>
       </c>
@@ -3375,11 +3391,9 @@
         <v>119379.9332665411</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>255</v>
       </c>
@@ -3416,7 +3430,7 @@
         <v>126758.4687665411</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>256</v>
@@ -3457,7 +3471,7 @@
         <v>130307.2826665411</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>257</v>
@@ -3498,7 +3512,7 @@
         <v>130307.2826665411</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>258</v>
@@ -3539,7 +3553,7 @@
         <v>130307.2826665411</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>258</v>
@@ -3580,7 +3594,7 @@
         <v>130307.2826665411</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>258</v>
@@ -3621,11 +3635,9 @@
         <v>139939.6751665411</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>255</v>
       </c>
@@ -3662,11 +3674,9 @@
         <v>103416.8335665411</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>255</v>
       </c>
@@ -3703,11 +3713,9 @@
         <v>103416.8335665411</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>255</v>
       </c>
@@ -3744,11 +3752,9 @@
         <v>184999.7001665411</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>255</v>
       </c>
@@ -3785,11 +3791,9 @@
         <v>154120.3414665411</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>255</v>
       </c>
@@ -3865,11 +3869,9 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>255</v>
       </c>
@@ -3906,11 +3908,9 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>255</v>
       </c>
@@ -3947,11 +3947,9 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>255</v>
       </c>
@@ -3988,11 +3986,9 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>255</v>
       </c>
@@ -4029,7 +4025,7 @@
         <v>157869.7962860813</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>259</v>
@@ -4265,11 +4261,9 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>255</v>
       </c>
@@ -4345,11 +4339,9 @@
         <v>153426.0434860814</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>255</v>
       </c>
@@ -4425,11 +4417,9 @@
         <v>151175.8349860813</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>255</v>
       </c>
@@ -4466,11 +4456,9 @@
         <v>190803.337160794</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>255</v>
       </c>
@@ -4507,11 +4495,9 @@
         <v>195184.754660794</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>255</v>
       </c>
@@ -4626,9 +4612,11 @@
         <v>196829.048960794</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>259</v>
+      </c>
       <c r="J105" t="n">
         <v>255</v>
       </c>
@@ -4704,11 +4692,9 @@
         <v>196829.048960794</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>255</v>
       </c>
@@ -4745,11 +4731,9 @@
         <v>196829.048960794</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>255</v>
       </c>
@@ -4786,7 +4770,7 @@
         <v>202331.210160794</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>258</v>
@@ -4827,11 +4811,9 @@
         <v>202331.210160794</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>255</v>
       </c>
@@ -5024,11 +5006,9 @@
         <v>205199.408060794</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
         <v>255</v>
       </c>
@@ -5065,11 +5045,9 @@
         <v>200323.436060794</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
         <v>255</v>
       </c>
@@ -5106,11 +5084,9 @@
         <v>200323.436060794</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
         <v>255</v>
       </c>
@@ -5147,11 +5123,9 @@
         <v>221657.818460794</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
         <v>255</v>
       </c>
@@ -5227,9 +5201,11 @@
         <v>220783.865160794</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>257</v>
+      </c>
       <c r="J120" t="n">
         <v>255</v>
       </c>
@@ -5266,9 +5242,11 @@
         <v>220783.865160794</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>256</v>
+      </c>
       <c r="J121" t="n">
         <v>255</v>
       </c>
@@ -7021,7 +6999,7 @@
         <v>319563.796018077</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
@@ -7029,11 +7007,11 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.042058823529412</v>
+        <v>1</v>
       </c>
       <c r="M166" t="inlineStr"/>
     </row>
@@ -7060,11 +7038,17 @@
         <v>319573.096018077</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>255</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7093,11 +7077,17 @@
         <v>319573.095971635</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>255</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7129,8 +7119,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>255</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7159,11 +7155,17 @@
         <v>314364.101971635</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>255</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7195,8 +7197,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>255</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7228,8 +7236,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>255</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7261,8 +7275,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>255</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7294,8 +7314,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>255</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7327,8 +7353,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>255</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7360,8 +7392,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>255</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7393,8 +7431,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>255</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7426,8 +7470,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>255</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7459,8 +7509,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>255</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7492,8 +7548,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>255</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7525,8 +7587,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>255</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7558,8 +7626,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>255</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7591,8 +7665,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>255</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7624,8 +7704,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>255</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7657,8 +7743,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>255</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7690,8 +7782,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>255</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7723,8 +7821,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>255</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7756,8 +7860,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>255</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7789,8 +7899,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>255</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7822,8 +7938,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>255</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7855,8 +7977,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>255</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7888,8 +8016,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>255</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7921,8 +8055,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>255</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7954,8 +8094,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>255</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7987,8 +8133,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>255</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8020,8 +8172,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>255</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8053,8 +8211,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>255</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8086,8 +8250,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>255</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8119,8 +8289,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>255</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8152,8 +8328,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>255</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8185,8 +8367,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>255</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8218,8 +8406,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>255</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8251,8 +8445,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>255</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8284,8 +8484,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>255</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8317,8 +8523,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>255</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8350,8 +8562,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>255</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8383,8 +8601,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>255</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8416,8 +8640,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>255</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8449,8 +8679,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>255</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8482,8 +8718,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>255</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8515,8 +8757,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>255</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8545,11 +8793,17 @@
         <v>323473.1245251931</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>255</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8578,11 +8832,17 @@
         <v>321514.655825193</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>255</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8611,11 +8871,17 @@
         <v>323411.336625193</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>255</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8644,11 +8910,17 @@
         <v>323411.336625193</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>255</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8677,11 +8949,17 @@
         <v>323411.336625193</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>255</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8710,11 +8988,17 @@
         <v>323411.336625193</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>255</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8743,11 +9027,17 @@
         <v>331010.223325193</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>255</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8776,11 +9066,17 @@
         <v>331955.528725193</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>255</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8809,11 +9105,17 @@
         <v>334526.100625193</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>255</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8842,11 +9144,17 @@
         <v>340645.838125193</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>255</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8875,11 +9183,17 @@
         <v>337718.9578251929</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>255</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8908,11 +9222,17 @@
         <v>341956.561025193</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>255</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8941,11 +9261,17 @@
         <v>341956.561025193</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>255</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8974,11 +9300,17 @@
         <v>342650.877125193</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>255</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9007,11 +9339,17 @@
         <v>341116.6696251929</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>255</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9040,11 +9378,17 @@
         <v>344693.0981251929</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>255</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9073,11 +9417,17 @@
         <v>344693.0981251929</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>255</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9106,11 +9456,17 @@
         <v>338883.9790251929</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>255</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9139,11 +9495,17 @@
         <v>338883.9790251929</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>255</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9172,11 +9534,17 @@
         <v>339472.8776251929</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>255</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9205,11 +9573,17 @@
         <v>339487.9772251929</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>255</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9238,11 +9612,17 @@
         <v>339487.9772251929</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>255</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9271,11 +9651,17 @@
         <v>335387.9772251929</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>255</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9304,11 +9690,17 @@
         <v>335387.9772251929</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>255</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9337,11 +9729,17 @@
         <v>335387.9772251929</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>255</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9370,11 +9768,17 @@
         <v>351412.030525193</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>255</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9403,11 +9807,17 @@
         <v>354767.3222817473</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>255</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9436,11 +9846,17 @@
         <v>354767.3222817473</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>255</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9469,11 +9885,17 @@
         <v>351787.9124817473</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>255</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9505,8 +9927,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>255</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9538,8 +9966,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>255</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9571,8 +10005,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>255</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9604,8 +10044,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>255</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9637,8 +10083,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>255</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9670,8 +10122,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>255</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9700,11 +10158,17 @@
         <v>349783.0418817473</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>255</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9733,11 +10197,17 @@
         <v>341348.5954817472</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>255</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9766,11 +10236,17 @@
         <v>341348.5954817472</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>255</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9799,11 +10275,17 @@
         <v>341360.8904817472</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>255</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9832,11 +10314,17 @@
         <v>348968.8360817472</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>255</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9865,11 +10353,17 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>255</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9898,11 +10392,17 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>255</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9931,11 +10431,17 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>255</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9964,11 +10470,17 @@
         <v>344808.1350817472</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>255</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9997,11 +10509,17 @@
         <v>343138.1350817472</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>255</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10033,8 +10551,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>255</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10063,11 +10587,17 @@
         <v>343138.1350817472</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>255</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10096,11 +10626,17 @@
         <v>341238.1350817472</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>255</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10129,11 +10665,17 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>255</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10162,11 +10704,17 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>255</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10195,11 +10743,17 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>255</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10228,11 +10782,17 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>255</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10264,8 +10824,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>255</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10294,11 +10860,17 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>255</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10330,8 +10902,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>255</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10363,8 +10941,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>255</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10396,8 +10980,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>255</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10429,8 +11019,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>255</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10462,8 +11058,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>255</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10495,8 +11097,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>255</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10528,8 +11136,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>255</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10561,8 +11175,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>255</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10594,8 +11214,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>255</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10627,8 +11253,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>255</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10660,8 +11292,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>255</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10693,8 +11331,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>255</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10726,8 +11370,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>255</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10759,8 +11409,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>255</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10792,8 +11448,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>255</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10825,8 +11487,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>255</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10858,8 +11526,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>255</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10891,8 +11565,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>255</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10924,8 +11604,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>255</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10957,8 +11643,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>255</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10987,11 +11679,17 @@
         <v>433512.9036817471</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>255</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11020,11 +11718,17 @@
         <v>433512.9036817471</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>255</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11053,11 +11757,17 @@
         <v>424483.9807817471</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>255</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11086,11 +11796,17 @@
         <v>424527.0776817471</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>255</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11119,11 +11835,17 @@
         <v>424527.0776817471</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>255</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11155,8 +11877,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>255</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11188,8 +11916,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>255</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11221,8 +11955,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>255</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11254,8 +11994,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>255</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11284,11 +12030,17 @@
         <v>437577.7642817472</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>255</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11320,8 +12072,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>255</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11350,11 +12108,17 @@
         <v>440813.6062817472</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>255</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11383,11 +12147,17 @@
         <v>440622.2131817472</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>255</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11416,11 +12186,17 @@
         <v>441332.4568817472</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>255</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11452,8 +12228,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>255</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11482,11 +12264,17 @@
         <v>443868.2092817472</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>255</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11518,8 +12306,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>255</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11548,11 +12342,17 @@
         <v>443868.2092817472</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>255</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11581,11 +12381,17 @@
         <v>443744.2717817472</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>255</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11617,8 +12423,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>255</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11650,8 +12462,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>255</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11683,8 +12501,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>255</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11716,8 +12540,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>255</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11749,8 +12579,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>255</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11782,8 +12618,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>255</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11815,8 +12657,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>255</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11848,8 +12696,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>255</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11881,8 +12735,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>255</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11914,8 +12774,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>255</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11947,8 +12813,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>255</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11977,15 +12849,23 @@
         <v>394809.2867817472</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>255</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+        <v>1.053823529411765</v>
+      </c>
+      <c r="M316" t="n">
+        <v>1.003921568627451</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12010,7 +12890,7 @@
         <v>382932.5722817472</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12043,7 +12923,7 @@
         <v>389067.8498817472</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12076,7 +12956,7 @@
         <v>389067.8498817472</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12109,7 +12989,7 @@
         <v>393379.7836817472</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12142,7 +13022,7 @@
         <v>393379.7836817472</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12175,7 +13055,7 @@
         <v>392964.1015817472</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12208,7 +13088,7 @@
         <v>392747.3354817472</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12241,7 +13121,7 @@
         <v>394538.7885817472</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12307,7 +13187,7 @@
         <v>394538.7885817472</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12340,7 +13220,7 @@
         <v>394538.7885817472</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12373,7 +13253,7 @@
         <v>403864.5233817471</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12406,7 +13286,7 @@
         <v>413974.1790817471</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12439,7 +13319,7 @@
         <v>413974.1790817471</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12472,7 +13352,7 @@
         <v>413974.1790817471</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12571,7 +13451,7 @@
         <v>416684.6270817471</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12703,7 +13583,7 @@
         <v>438733.6662817471</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12736,7 +13616,7 @@
         <v>454648.2155904114</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12769,7 +13649,7 @@
         <v>453690.6746904114</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12802,7 +13682,7 @@
         <v>460166.9733904114</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12835,7 +13715,7 @@
         <v>460166.9733904114</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12868,7 +13748,7 @@
         <v>460166.9733904114</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12901,7 +13781,7 @@
         <v>462927.1033681092</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12934,7 +13814,7 @@
         <v>475253.5667681092</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12967,7 +13847,7 @@
         <v>509427.6824727521</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13000,7 +13880,7 @@
         <v>509427.6824727521</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13033,7 +13913,7 @@
         <v>509427.6824727521</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13066,7 +13946,7 @@
         <v>508635.7649727521</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13099,7 +13979,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13132,7 +14012,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13165,7 +14045,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13198,7 +14078,7 @@
         <v>501529.247172752</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13231,7 +14111,7 @@
         <v>504171.214872752</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13264,7 +14144,7 @@
         <v>504171.214872752</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13297,7 +14177,7 @@
         <v>503986.615272752</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13330,7 +14210,7 @@
         <v>505565.777172752</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13363,7 +14243,7 @@
         <v>505728.113272752</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13396,7 +14276,7 @@
         <v>505728.113272752</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13429,7 +14309,7 @@
         <v>498305.7657727521</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13462,7 +14342,7 @@
         <v>516551.720072752</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13495,7 +14375,7 @@
         <v>479788.787672752</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13528,7 +14408,7 @@
         <v>503586.933172752</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13561,7 +14441,7 @@
         <v>502896.960772752</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13594,7 +14474,7 @@
         <v>509072.914572752</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13627,7 +14507,7 @@
         <v>509054.455072752</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13660,7 +14540,7 @@
         <v>508658.091772752</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13693,7 +14573,7 @@
         <v>502851.422772752</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13726,7 +14606,7 @@
         <v>502851.422772752</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13759,7 +14639,7 @@
         <v>502839.264572752</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13792,7 +14672,7 @@
         <v>510445.610772752</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13825,7 +14705,7 @@
         <v>510445.610772752</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13858,7 +14738,7 @@
         <v>514030.930572752</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13891,7 +14771,7 @@
         <v>514030.930572752</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13924,7 +14804,7 @@
         <v>510300.492372752</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13990,7 +14870,7 @@
         <v>517145.101172752</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14188,7 +15068,7 @@
         <v>515505.456972752</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14254,7 +15134,7 @@
         <v>515505.456972752</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14397,6 +15277,6 @@
       <c r="M389" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest BAT.xlsx
+++ b/BackTest/2019-10-15 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>95487.0626477912</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>95494.1934477912</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>255</v>
-      </c>
-      <c r="J3" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,1577 +517,1315 @@
         <v>95494.1934477912</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>256</v>
-      </c>
-      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>255</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="C5" t="n">
+        <v>254</v>
+      </c>
+      <c r="D5" t="n">
+        <v>255</v>
+      </c>
+      <c r="E5" t="n">
+        <v>254</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4096.2231</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91397.9703477912</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>253</v>
+      </c>
+      <c r="C6" t="n">
+        <v>253</v>
+      </c>
+      <c r="D6" t="n">
+        <v>253</v>
+      </c>
+      <c r="E6" t="n">
+        <v>253</v>
+      </c>
+      <c r="F6" t="n">
+        <v>608.475</v>
+      </c>
+      <c r="G6" t="n">
+        <v>90789.49534779119</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>254</v>
+      </c>
+      <c r="C7" t="n">
+        <v>254</v>
+      </c>
+      <c r="D7" t="n">
+        <v>254</v>
+      </c>
+      <c r="E7" t="n">
+        <v>254</v>
+      </c>
+      <c r="F7" t="n">
+        <v>395.9133</v>
+      </c>
+      <c r="G7" t="n">
+        <v>91185.40864779119</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>254</v>
+      </c>
+      <c r="C8" t="n">
+        <v>254</v>
+      </c>
+      <c r="D8" t="n">
+        <v>254</v>
+      </c>
+      <c r="E8" t="n">
+        <v>254</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G8" t="n">
+        <v>91185.40864779119</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>253</v>
+      </c>
+      <c r="C9" t="n">
+        <v>253</v>
+      </c>
+      <c r="D9" t="n">
+        <v>253</v>
+      </c>
+      <c r="E9" t="n">
+        <v>253</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3045.2778</v>
+      </c>
+      <c r="G9" t="n">
+        <v>88140.1308477912</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>253</v>
+      </c>
+      <c r="C10" t="n">
+        <v>253</v>
+      </c>
+      <c r="D10" t="n">
+        <v>253</v>
+      </c>
+      <c r="E10" t="n">
+        <v>253</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.113</v>
+      </c>
+      <c r="G10" t="n">
+        <v>88140.1308477912</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>254</v>
+      </c>
+      <c r="C11" t="n">
+        <v>254</v>
+      </c>
+      <c r="D11" t="n">
+        <v>254</v>
+      </c>
+      <c r="E11" t="n">
+        <v>254</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2007.874</v>
+      </c>
+      <c r="G11" t="n">
+        <v>90148.00484779119</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>253</v>
+      </c>
+      <c r="C12" t="n">
+        <v>252</v>
+      </c>
+      <c r="D12" t="n">
+        <v>253</v>
+      </c>
+      <c r="E12" t="n">
+        <v>252</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7219.7303</v>
+      </c>
+      <c r="G12" t="n">
+        <v>82928.2745477912</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>254</v>
+      </c>
+      <c r="C13" t="n">
+        <v>254</v>
+      </c>
+      <c r="D13" t="n">
+        <v>254</v>
+      </c>
+      <c r="E13" t="n">
+        <v>254</v>
+      </c>
+      <c r="F13" t="n">
+        <v>343.7007</v>
+      </c>
+      <c r="G13" t="n">
+        <v>83271.9752477912</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>254</v>
+      </c>
+      <c r="C14" t="n">
+        <v>254</v>
+      </c>
+      <c r="D14" t="n">
+        <v>254</v>
+      </c>
+      <c r="E14" t="n">
+        <v>254</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20.0787</v>
+      </c>
+      <c r="G14" t="n">
+        <v>83271.9752477912</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>254</v>
+      </c>
+      <c r="C15" t="n">
+        <v>254</v>
+      </c>
+      <c r="D15" t="n">
+        <v>254</v>
+      </c>
+      <c r="E15" t="n">
+        <v>254</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4414.7598</v>
+      </c>
+      <c r="G15" t="n">
+        <v>83271.9752477912</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>254</v>
+      </c>
+      <c r="C16" t="n">
+        <v>254</v>
+      </c>
+      <c r="D16" t="n">
+        <v>254</v>
+      </c>
+      <c r="E16" t="n">
+        <v>254</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11848.6417</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83271.9752477912</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>254</v>
+      </c>
+      <c r="C17" t="n">
+        <v>254</v>
+      </c>
+      <c r="D17" t="n">
+        <v>254</v>
+      </c>
+      <c r="E17" t="n">
+        <v>254</v>
+      </c>
+      <c r="F17" t="n">
+        <v>699.2952</v>
+      </c>
+      <c r="G17" t="n">
+        <v>83271.9752477912</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>254</v>
+      </c>
+      <c r="C18" t="n">
+        <v>253</v>
+      </c>
+      <c r="D18" t="n">
+        <v>255</v>
+      </c>
+      <c r="E18" t="n">
+        <v>253</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9692.893400000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>73579.0818477912</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>254</v>
+      </c>
+      <c r="C19" t="n">
+        <v>254</v>
+      </c>
+      <c r="D19" t="n">
+        <v>254</v>
+      </c>
+      <c r="E19" t="n">
+        <v>254</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3017.7559</v>
+      </c>
+      <c r="G19" t="n">
+        <v>76596.8377477912</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>254</v>
+      </c>
+      <c r="C20" t="n">
+        <v>254</v>
+      </c>
+      <c r="D20" t="n">
+        <v>254</v>
+      </c>
+      <c r="E20" t="n">
+        <v>254</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1071.4685</v>
+      </c>
+      <c r="G20" t="n">
+        <v>76596.8377477912</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>252</v>
+      </c>
+      <c r="C21" t="n">
+        <v>253</v>
+      </c>
+      <c r="D21" t="n">
+        <v>253</v>
+      </c>
+      <c r="E21" t="n">
+        <v>252</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3282.342</v>
+      </c>
+      <c r="G21" t="n">
+        <v>73314.4957477912</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>253</v>
+      </c>
+      <c r="C22" t="n">
+        <v>253</v>
+      </c>
+      <c r="D22" t="n">
+        <v>253</v>
+      </c>
+      <c r="E22" t="n">
+        <v>253</v>
+      </c>
+      <c r="F22" t="n">
+        <v>280</v>
+      </c>
+      <c r="G22" t="n">
+        <v>73314.4957477912</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>254</v>
+      </c>
+      <c r="C23" t="n">
+        <v>254</v>
+      </c>
+      <c r="D23" t="n">
+        <v>254</v>
+      </c>
+      <c r="E23" t="n">
+        <v>254</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6.4173</v>
+      </c>
+      <c r="G23" t="n">
+        <v>73320.9130477912</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>254</v>
+      </c>
+      <c r="C24" t="n">
+        <v>254</v>
+      </c>
+      <c r="D24" t="n">
+        <v>254</v>
+      </c>
+      <c r="E24" t="n">
+        <v>254</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6722.74992992126</v>
+      </c>
+      <c r="G24" t="n">
+        <v>73320.9130477912</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>252</v>
+      </c>
+      <c r="C25" t="n">
+        <v>252</v>
+      </c>
+      <c r="D25" t="n">
+        <v>252</v>
+      </c>
+      <c r="E25" t="n">
+        <v>252</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1924.3926</v>
+      </c>
+      <c r="G25" t="n">
+        <v>71396.52044779119</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>252</v>
+      </c>
+      <c r="C26" t="n">
+        <v>254</v>
+      </c>
+      <c r="D26" t="n">
+        <v>254</v>
+      </c>
+      <c r="E26" t="n">
+        <v>252</v>
+      </c>
+      <c r="F26" t="n">
+        <v>417.3238</v>
+      </c>
+      <c r="G26" t="n">
+        <v>71813.84424779119</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>254</v>
+      </c>
+      <c r="C27" t="n">
+        <v>254</v>
+      </c>
+      <c r="D27" t="n">
+        <v>254</v>
+      </c>
+      <c r="E27" t="n">
+        <v>254</v>
+      </c>
+      <c r="F27" t="n">
+        <v>297.7865</v>
+      </c>
+      <c r="G27" t="n">
+        <v>71813.84424779119</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>254</v>
+      </c>
+      <c r="C28" t="n">
+        <v>254</v>
+      </c>
+      <c r="D28" t="n">
+        <v>254</v>
+      </c>
+      <c r="E28" t="n">
+        <v>254</v>
+      </c>
+      <c r="F28" t="n">
+        <v>31.786</v>
+      </c>
+      <c r="G28" t="n">
+        <v>71813.84424779119</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>254</v>
+      </c>
+      <c r="C29" t="n">
+        <v>253</v>
+      </c>
+      <c r="D29" t="n">
+        <v>254</v>
+      </c>
+      <c r="E29" t="n">
+        <v>253</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1772.7002</v>
+      </c>
+      <c r="G29" t="n">
+        <v>70041.14404779118</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>253</v>
+      </c>
+      <c r="C30" t="n">
+        <v>253</v>
+      </c>
+      <c r="D30" t="n">
+        <v>253</v>
+      </c>
+      <c r="E30" t="n">
+        <v>253</v>
+      </c>
+      <c r="F30" t="n">
+        <v>380.7251</v>
+      </c>
+      <c r="G30" t="n">
+        <v>70041.14404779118</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>253</v>
+      </c>
+      <c r="C31" t="n">
+        <v>252</v>
+      </c>
+      <c r="D31" t="n">
+        <v>253</v>
+      </c>
+      <c r="E31" t="n">
+        <v>252</v>
+      </c>
+      <c r="F31" t="n">
+        <v>22675.1795</v>
+      </c>
+      <c r="G31" t="n">
+        <v>47365.96454779118</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>253</v>
+      </c>
+      <c r="C32" t="n">
+        <v>253</v>
+      </c>
+      <c r="D32" t="n">
+        <v>253</v>
+      </c>
+      <c r="E32" t="n">
+        <v>253</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3795.0752</v>
+      </c>
+      <c r="G32" t="n">
+        <v>51161.03974779118</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>252</v>
+      </c>
+      <c r="C33" t="n">
+        <v>252</v>
+      </c>
+      <c r="D33" t="n">
+        <v>252</v>
+      </c>
+      <c r="E33" t="n">
+        <v>252</v>
+      </c>
+      <c r="F33" t="n">
+        <v>23.025</v>
+      </c>
+      <c r="G33" t="n">
+        <v>51138.01474779118</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>252</v>
+      </c>
+      <c r="C34" t="n">
+        <v>252</v>
+      </c>
+      <c r="D34" t="n">
+        <v>252</v>
+      </c>
+      <c r="E34" t="n">
+        <v>252</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2917.3085</v>
+      </c>
+      <c r="G34" t="n">
+        <v>51138.01474779118</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>252</v>
+      </c>
+      <c r="J34" t="n">
+        <v>252</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>253</v>
+      </c>
+      <c r="C35" t="n">
+        <v>253</v>
+      </c>
+      <c r="D35" t="n">
+        <v>253</v>
+      </c>
+      <c r="E35" t="n">
+        <v>253</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1855.45</v>
+      </c>
+      <c r="G35" t="n">
+        <v>52993.46474779118</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>252</v>
+      </c>
+      <c r="J35" t="n">
+        <v>252</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>252</v>
+      </c>
+      <c r="C36" t="n">
+        <v>252</v>
+      </c>
+      <c r="D36" t="n">
+        <v>252</v>
+      </c>
+      <c r="E36" t="n">
+        <v>252</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2604.6608</v>
+      </c>
+      <c r="G36" t="n">
+        <v>50388.80394779118</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>252</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>252</v>
+      </c>
+      <c r="C37" t="n">
+        <v>252</v>
+      </c>
+      <c r="D37" t="n">
+        <v>252</v>
+      </c>
+      <c r="E37" t="n">
+        <v>252</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1172.0973</v>
+      </c>
+      <c r="G37" t="n">
+        <v>50388.80394779118</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>253</v>
+      </c>
+      <c r="C38" t="n">
+        <v>253</v>
+      </c>
+      <c r="D38" t="n">
+        <v>253</v>
+      </c>
+      <c r="E38" t="n">
+        <v>253</v>
+      </c>
+      <c r="F38" t="n">
+        <v>67.1643</v>
+      </c>
+      <c r="G38" t="n">
+        <v>50455.96824779118</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>252</v>
+      </c>
+      <c r="J38" t="n">
+        <v>252</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>254</v>
+      </c>
+      <c r="C39" t="n">
+        <v>254</v>
+      </c>
+      <c r="D39" t="n">
+        <v>254</v>
+      </c>
+      <c r="E39" t="n">
+        <v>254</v>
+      </c>
+      <c r="F39" t="n">
+        <v>223.2069</v>
+      </c>
+      <c r="G39" t="n">
+        <v>50679.17514779117</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>253</v>
+      </c>
+      <c r="J39" t="n">
+        <v>252</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>254</v>
+      </c>
+      <c r="C40" t="n">
+        <v>254</v>
+      </c>
+      <c r="D40" t="n">
+        <v>254</v>
+      </c>
+      <c r="E40" t="n">
+        <v>254</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2873.1836</v>
+      </c>
+      <c r="G40" t="n">
+        <v>50679.17514779117</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>254</v>
+      </c>
+      <c r="J40" t="n">
+        <v>252</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>254</v>
+      </c>
+      <c r="C41" t="n">
+        <v>254</v>
+      </c>
+      <c r="D41" t="n">
+        <v>254</v>
+      </c>
+      <c r="E41" t="n">
+        <v>254</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4400</v>
+      </c>
+      <c r="G41" t="n">
+        <v>50679.17514779117</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>254</v>
+      </c>
+      <c r="J41" t="n">
+        <v>254</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
         <v>255</v>
       </c>
-      <c r="C5" t="n">
-        <v>254</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C42" t="n">
+        <v>253</v>
+      </c>
+      <c r="D42" t="n">
         <v>255</v>
       </c>
-      <c r="E5" t="n">
-        <v>254</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4096.2231</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91397.9703477912</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>256</v>
-      </c>
-      <c r="J5" t="n">
-        <v>255</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="E42" t="n">
+        <v>253</v>
+      </c>
+      <c r="F42" t="n">
+        <v>217.1692</v>
+      </c>
+      <c r="G42" t="n">
+        <v>50462.00594779118</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>254</v>
+      </c>
+      <c r="J42" t="n">
+        <v>254</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>253</v>
-      </c>
-      <c r="C6" t="n">
-        <v>253</v>
-      </c>
-      <c r="D6" t="n">
-        <v>253</v>
-      </c>
-      <c r="E6" t="n">
-        <v>253</v>
-      </c>
-      <c r="F6" t="n">
-        <v>608.475</v>
-      </c>
-      <c r="G6" t="n">
-        <v>90789.49534779119</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>254</v>
-      </c>
-      <c r="J6" t="n">
-        <v>255</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>254</v>
-      </c>
-      <c r="C7" t="n">
-        <v>254</v>
-      </c>
-      <c r="D7" t="n">
-        <v>254</v>
-      </c>
-      <c r="E7" t="n">
-        <v>254</v>
-      </c>
-      <c r="F7" t="n">
-        <v>395.9133</v>
-      </c>
-      <c r="G7" t="n">
-        <v>91185.40864779119</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>253</v>
-      </c>
-      <c r="J7" t="n">
-        <v>255</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>254</v>
-      </c>
-      <c r="C8" t="n">
-        <v>254</v>
-      </c>
-      <c r="D8" t="n">
-        <v>254</v>
-      </c>
-      <c r="E8" t="n">
-        <v>254</v>
-      </c>
-      <c r="F8" t="n">
-        <v>50</v>
-      </c>
-      <c r="G8" t="n">
-        <v>91185.40864779119</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>254</v>
-      </c>
-      <c r="J8" t="n">
-        <v>255</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>253</v>
-      </c>
-      <c r="C9" t="n">
-        <v>253</v>
-      </c>
-      <c r="D9" t="n">
-        <v>253</v>
-      </c>
-      <c r="E9" t="n">
-        <v>253</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3045.2778</v>
-      </c>
-      <c r="G9" t="n">
-        <v>88140.1308477912</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>254</v>
-      </c>
-      <c r="J9" t="n">
-        <v>255</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>253</v>
-      </c>
-      <c r="C10" t="n">
-        <v>253</v>
-      </c>
-      <c r="D10" t="n">
-        <v>253</v>
-      </c>
-      <c r="E10" t="n">
-        <v>253</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7.113</v>
-      </c>
-      <c r="G10" t="n">
-        <v>88140.1308477912</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>253</v>
-      </c>
-      <c r="J10" t="n">
-        <v>255</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>254</v>
-      </c>
-      <c r="C11" t="n">
-        <v>254</v>
-      </c>
-      <c r="D11" t="n">
-        <v>254</v>
-      </c>
-      <c r="E11" t="n">
-        <v>254</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2007.874</v>
-      </c>
-      <c r="G11" t="n">
-        <v>90148.00484779119</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>253</v>
-      </c>
-      <c r="J11" t="n">
-        <v>255</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>253</v>
-      </c>
-      <c r="C12" t="n">
-        <v>252</v>
-      </c>
-      <c r="D12" t="n">
-        <v>253</v>
-      </c>
-      <c r="E12" t="n">
-        <v>252</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7219.7303</v>
-      </c>
-      <c r="G12" t="n">
-        <v>82928.2745477912</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>254</v>
-      </c>
-      <c r="J12" t="n">
-        <v>255</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>254</v>
-      </c>
-      <c r="C13" t="n">
-        <v>254</v>
-      </c>
-      <c r="D13" t="n">
-        <v>254</v>
-      </c>
-      <c r="E13" t="n">
-        <v>254</v>
-      </c>
-      <c r="F13" t="n">
-        <v>343.7007</v>
-      </c>
-      <c r="G13" t="n">
-        <v>83271.9752477912</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>252</v>
-      </c>
-      <c r="J13" t="n">
-        <v>255</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>254</v>
-      </c>
-      <c r="C14" t="n">
-        <v>254</v>
-      </c>
-      <c r="D14" t="n">
-        <v>254</v>
-      </c>
-      <c r="E14" t="n">
-        <v>254</v>
-      </c>
-      <c r="F14" t="n">
-        <v>20.0787</v>
-      </c>
-      <c r="G14" t="n">
-        <v>83271.9752477912</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>254</v>
-      </c>
-      <c r="J14" t="n">
-        <v>255</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>254</v>
-      </c>
-      <c r="C15" t="n">
-        <v>254</v>
-      </c>
-      <c r="D15" t="n">
-        <v>254</v>
-      </c>
-      <c r="E15" t="n">
-        <v>254</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4414.7598</v>
-      </c>
-      <c r="G15" t="n">
-        <v>83271.9752477912</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>254</v>
-      </c>
-      <c r="J15" t="n">
-        <v>255</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>254</v>
-      </c>
-      <c r="C16" t="n">
-        <v>254</v>
-      </c>
-      <c r="D16" t="n">
-        <v>254</v>
-      </c>
-      <c r="E16" t="n">
-        <v>254</v>
-      </c>
-      <c r="F16" t="n">
-        <v>11848.6417</v>
-      </c>
-      <c r="G16" t="n">
-        <v>83271.9752477912</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>254</v>
-      </c>
-      <c r="J16" t="n">
-        <v>255</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>254</v>
-      </c>
-      <c r="C17" t="n">
-        <v>254</v>
-      </c>
-      <c r="D17" t="n">
-        <v>254</v>
-      </c>
-      <c r="E17" t="n">
-        <v>254</v>
-      </c>
-      <c r="F17" t="n">
-        <v>699.2952</v>
-      </c>
-      <c r="G17" t="n">
-        <v>83271.9752477912</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>254</v>
-      </c>
-      <c r="J17" t="n">
-        <v>255</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>254</v>
-      </c>
-      <c r="C18" t="n">
-        <v>253</v>
-      </c>
-      <c r="D18" t="n">
-        <v>255</v>
-      </c>
-      <c r="E18" t="n">
-        <v>253</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9692.893400000001</v>
-      </c>
-      <c r="G18" t="n">
-        <v>73579.0818477912</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>254</v>
-      </c>
-      <c r="J18" t="n">
-        <v>255</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>254</v>
-      </c>
-      <c r="C19" t="n">
-        <v>254</v>
-      </c>
-      <c r="D19" t="n">
-        <v>254</v>
-      </c>
-      <c r="E19" t="n">
-        <v>254</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3017.7559</v>
-      </c>
-      <c r="G19" t="n">
-        <v>76596.8377477912</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>253</v>
-      </c>
-      <c r="J19" t="n">
-        <v>255</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>254</v>
-      </c>
-      <c r="C20" t="n">
-        <v>254</v>
-      </c>
-      <c r="D20" t="n">
-        <v>254</v>
-      </c>
-      <c r="E20" t="n">
-        <v>254</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1071.4685</v>
-      </c>
-      <c r="G20" t="n">
-        <v>76596.8377477912</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>254</v>
-      </c>
-      <c r="J20" t="n">
-        <v>255</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>252</v>
-      </c>
-      <c r="C21" t="n">
-        <v>253</v>
-      </c>
-      <c r="D21" t="n">
-        <v>253</v>
-      </c>
-      <c r="E21" t="n">
-        <v>252</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3282.342</v>
-      </c>
-      <c r="G21" t="n">
-        <v>73314.4957477912</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>254</v>
-      </c>
-      <c r="J21" t="n">
-        <v>255</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>253</v>
-      </c>
-      <c r="C22" t="n">
-        <v>253</v>
-      </c>
-      <c r="D22" t="n">
-        <v>253</v>
-      </c>
-      <c r="E22" t="n">
-        <v>253</v>
-      </c>
-      <c r="F22" t="n">
-        <v>280</v>
-      </c>
-      <c r="G22" t="n">
-        <v>73314.4957477912</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>253</v>
-      </c>
-      <c r="J22" t="n">
-        <v>255</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>254</v>
-      </c>
-      <c r="C23" t="n">
-        <v>254</v>
-      </c>
-      <c r="D23" t="n">
-        <v>254</v>
-      </c>
-      <c r="E23" t="n">
-        <v>254</v>
-      </c>
-      <c r="F23" t="n">
-        <v>6.4173</v>
-      </c>
-      <c r="G23" t="n">
-        <v>73320.9130477912</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>253</v>
-      </c>
-      <c r="J23" t="n">
-        <v>255</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>254</v>
-      </c>
-      <c r="C24" t="n">
-        <v>254</v>
-      </c>
-      <c r="D24" t="n">
-        <v>254</v>
-      </c>
-      <c r="E24" t="n">
-        <v>254</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6722.74992992126</v>
-      </c>
-      <c r="G24" t="n">
-        <v>73320.9130477912</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>254</v>
-      </c>
-      <c r="J24" t="n">
-        <v>255</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>252</v>
-      </c>
-      <c r="C25" t="n">
-        <v>252</v>
-      </c>
-      <c r="D25" t="n">
-        <v>252</v>
-      </c>
-      <c r="E25" t="n">
-        <v>252</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1924.3926</v>
-      </c>
-      <c r="G25" t="n">
-        <v>71396.52044779119</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>254</v>
-      </c>
-      <c r="J25" t="n">
-        <v>255</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>252</v>
-      </c>
-      <c r="C26" t="n">
-        <v>254</v>
-      </c>
-      <c r="D26" t="n">
-        <v>254</v>
-      </c>
-      <c r="E26" t="n">
-        <v>252</v>
-      </c>
-      <c r="F26" t="n">
-        <v>417.3238</v>
-      </c>
-      <c r="G26" t="n">
-        <v>71813.84424779119</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>252</v>
-      </c>
-      <c r="J26" t="n">
-        <v>255</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>254</v>
-      </c>
-      <c r="C27" t="n">
-        <v>254</v>
-      </c>
-      <c r="D27" t="n">
-        <v>254</v>
-      </c>
-      <c r="E27" t="n">
-        <v>254</v>
-      </c>
-      <c r="F27" t="n">
-        <v>297.7865</v>
-      </c>
-      <c r="G27" t="n">
-        <v>71813.84424779119</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>254</v>
-      </c>
-      <c r="J27" t="n">
-        <v>255</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>254</v>
-      </c>
-      <c r="C28" t="n">
-        <v>254</v>
-      </c>
-      <c r="D28" t="n">
-        <v>254</v>
-      </c>
-      <c r="E28" t="n">
-        <v>254</v>
-      </c>
-      <c r="F28" t="n">
-        <v>31.786</v>
-      </c>
-      <c r="G28" t="n">
-        <v>71813.84424779119</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>254</v>
-      </c>
-      <c r="J28" t="n">
-        <v>255</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>254</v>
-      </c>
-      <c r="C29" t="n">
-        <v>253</v>
-      </c>
-      <c r="D29" t="n">
-        <v>254</v>
-      </c>
-      <c r="E29" t="n">
-        <v>253</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1772.7002</v>
-      </c>
-      <c r="G29" t="n">
-        <v>70041.14404779118</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>254</v>
-      </c>
-      <c r="J29" t="n">
-        <v>255</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>253</v>
-      </c>
-      <c r="C30" t="n">
-        <v>253</v>
-      </c>
-      <c r="D30" t="n">
-        <v>253</v>
-      </c>
-      <c r="E30" t="n">
-        <v>253</v>
-      </c>
-      <c r="F30" t="n">
-        <v>380.7251</v>
-      </c>
-      <c r="G30" t="n">
-        <v>70041.14404779118</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>253</v>
-      </c>
-      <c r="J30" t="n">
-        <v>255</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>253</v>
-      </c>
-      <c r="C31" t="n">
-        <v>252</v>
-      </c>
-      <c r="D31" t="n">
-        <v>253</v>
-      </c>
-      <c r="E31" t="n">
-        <v>252</v>
-      </c>
-      <c r="F31" t="n">
-        <v>22675.1795</v>
-      </c>
-      <c r="G31" t="n">
-        <v>47365.96454779118</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>253</v>
-      </c>
-      <c r="J31" t="n">
-        <v>255</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>253</v>
-      </c>
-      <c r="C32" t="n">
-        <v>253</v>
-      </c>
-      <c r="D32" t="n">
-        <v>253</v>
-      </c>
-      <c r="E32" t="n">
-        <v>253</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3795.0752</v>
-      </c>
-      <c r="G32" t="n">
-        <v>51161.03974779118</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>252</v>
-      </c>
-      <c r="J32" t="n">
-        <v>255</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>252</v>
-      </c>
-      <c r="C33" t="n">
-        <v>252</v>
-      </c>
-      <c r="D33" t="n">
-        <v>252</v>
-      </c>
-      <c r="E33" t="n">
-        <v>252</v>
-      </c>
-      <c r="F33" t="n">
-        <v>23.025</v>
-      </c>
-      <c r="G33" t="n">
-        <v>51138.01474779118</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>253</v>
-      </c>
-      <c r="J33" t="n">
-        <v>255</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>252</v>
-      </c>
-      <c r="C34" t="n">
-        <v>252</v>
-      </c>
-      <c r="D34" t="n">
-        <v>252</v>
-      </c>
-      <c r="E34" t="n">
-        <v>252</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2917.3085</v>
-      </c>
-      <c r="G34" t="n">
-        <v>51138.01474779118</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>252</v>
-      </c>
-      <c r="J34" t="n">
-        <v>255</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>253</v>
-      </c>
-      <c r="C35" t="n">
-        <v>253</v>
-      </c>
-      <c r="D35" t="n">
-        <v>253</v>
-      </c>
-      <c r="E35" t="n">
-        <v>253</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1855.45</v>
-      </c>
-      <c r="G35" t="n">
-        <v>52993.46474779118</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>252</v>
-      </c>
-      <c r="J35" t="n">
-        <v>255</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>252</v>
-      </c>
-      <c r="C36" t="n">
-        <v>252</v>
-      </c>
-      <c r="D36" t="n">
-        <v>252</v>
-      </c>
-      <c r="E36" t="n">
-        <v>252</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2604.6608</v>
-      </c>
-      <c r="G36" t="n">
-        <v>50388.80394779118</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>253</v>
-      </c>
-      <c r="J36" t="n">
-        <v>255</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>252</v>
-      </c>
-      <c r="C37" t="n">
-        <v>252</v>
-      </c>
-      <c r="D37" t="n">
-        <v>252</v>
-      </c>
-      <c r="E37" t="n">
-        <v>252</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1172.0973</v>
-      </c>
-      <c r="G37" t="n">
-        <v>50388.80394779118</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>252</v>
-      </c>
-      <c r="J37" t="n">
-        <v>255</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>253</v>
-      </c>
-      <c r="C38" t="n">
-        <v>253</v>
-      </c>
-      <c r="D38" t="n">
-        <v>253</v>
-      </c>
-      <c r="E38" t="n">
-        <v>253</v>
-      </c>
-      <c r="F38" t="n">
-        <v>67.1643</v>
-      </c>
-      <c r="G38" t="n">
-        <v>50455.96824779118</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>252</v>
-      </c>
-      <c r="J38" t="n">
-        <v>255</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>254</v>
-      </c>
-      <c r="C39" t="n">
-        <v>254</v>
-      </c>
-      <c r="D39" t="n">
-        <v>254</v>
-      </c>
-      <c r="E39" t="n">
-        <v>254</v>
-      </c>
-      <c r="F39" t="n">
-        <v>223.2069</v>
-      </c>
-      <c r="G39" t="n">
-        <v>50679.17514779117</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>253</v>
-      </c>
-      <c r="J39" t="n">
-        <v>255</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>254</v>
-      </c>
-      <c r="C40" t="n">
-        <v>254</v>
-      </c>
-      <c r="D40" t="n">
-        <v>254</v>
-      </c>
-      <c r="E40" t="n">
-        <v>254</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2873.1836</v>
-      </c>
-      <c r="G40" t="n">
-        <v>50679.17514779117</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>254</v>
-      </c>
-      <c r="J40" t="n">
-        <v>255</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>254</v>
-      </c>
-      <c r="C41" t="n">
-        <v>254</v>
-      </c>
-      <c r="D41" t="n">
-        <v>254</v>
-      </c>
-      <c r="E41" t="n">
-        <v>254</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4400</v>
-      </c>
-      <c r="G41" t="n">
-        <v>50679.17514779117</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>254</v>
-      </c>
-      <c r="J41" t="n">
-        <v>255</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>255</v>
-      </c>
-      <c r="C42" t="n">
-        <v>253</v>
-      </c>
-      <c r="D42" t="n">
-        <v>255</v>
-      </c>
-      <c r="E42" t="n">
-        <v>253</v>
-      </c>
-      <c r="F42" t="n">
-        <v>217.1692</v>
-      </c>
-      <c r="G42" t="n">
-        <v>50462.00594779118</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>254</v>
-      </c>
-      <c r="J42" t="n">
-        <v>255</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2126,7 +1860,7 @@
         <v>253</v>
       </c>
       <c r="J43" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2167,7 +1901,7 @@
         <v>255</v>
       </c>
       <c r="J44" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2208,7 +1942,7 @@
         <v>255</v>
       </c>
       <c r="J45" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2249,7 +1983,7 @@
         <v>255</v>
       </c>
       <c r="J46" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2290,7 +2024,7 @@
         <v>254</v>
       </c>
       <c r="J47" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2331,7 +2065,7 @@
         <v>253</v>
       </c>
       <c r="J48" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2372,7 +2106,7 @@
         <v>252</v>
       </c>
       <c r="J49" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2413,7 +2147,7 @@
         <v>254</v>
       </c>
       <c r="J50" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2454,7 +2188,7 @@
         <v>254</v>
       </c>
       <c r="J51" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2495,7 +2229,7 @@
         <v>251</v>
       </c>
       <c r="J52" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2536,7 +2270,7 @@
         <v>251</v>
       </c>
       <c r="J53" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2577,7 +2311,7 @@
         <v>253</v>
       </c>
       <c r="J54" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2618,7 +2352,7 @@
         <v>254</v>
       </c>
       <c r="J55" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2659,7 +2393,7 @@
         <v>252</v>
       </c>
       <c r="J56" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2700,7 +2434,7 @@
         <v>250</v>
       </c>
       <c r="J57" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2741,7 +2475,7 @@
         <v>252</v>
       </c>
       <c r="J58" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2782,7 +2516,7 @@
         <v>253</v>
       </c>
       <c r="J59" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2823,7 +2557,7 @@
         <v>253</v>
       </c>
       <c r="J60" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2864,7 +2598,7 @@
         <v>254</v>
       </c>
       <c r="J61" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2905,7 +2639,7 @@
         <v>254</v>
       </c>
       <c r="J62" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2946,7 +2680,7 @@
         <v>254</v>
       </c>
       <c r="J63" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2987,7 +2721,7 @@
         <v>254</v>
       </c>
       <c r="J64" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3022,13 +2756,11 @@
         <v>121927.0266477912</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3063,13 +2795,11 @@
         <v>119123.0661665411</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3104,13 +2834,11 @@
         <v>119123.0661665411</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3145,13 +2873,11 @@
         <v>119379.9332665411</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3186,13 +2912,11 @@
         <v>119379.9332665411</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3227,13 +2951,11 @@
         <v>119379.9332665411</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3268,13 +2990,11 @@
         <v>119379.9332665411</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3309,13 +3029,11 @@
         <v>119379.9332665411</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3350,13 +3068,11 @@
         <v>119379.9332665411</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3395,7 +3111,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3430,13 +3146,11 @@
         <v>126758.4687665411</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3471,13 +3185,11 @@
         <v>130307.2826665411</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3512,13 +3224,11 @@
         <v>130307.2826665411</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3553,13 +3263,11 @@
         <v>130307.2826665411</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3594,13 +3302,11 @@
         <v>130307.2826665411</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3639,7 +3345,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3674,19 +3380,19 @@
         <v>103416.8335665411</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>1.018622047244095</v>
       </c>
       <c r="M81" t="inlineStr"/>
     </row>
@@ -3713,17 +3419,11 @@
         <v>103416.8335665411</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>255</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3755,14 +3455,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>255</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3791,17 +3485,11 @@
         <v>154120.3414665411</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>255</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3830,17 +3518,11 @@
         <v>157334.1773860813</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>255</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3869,17 +3551,11 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>255</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3908,17 +3584,11 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>255</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3947,17 +3617,11 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>255</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3989,14 +3653,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>255</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -4025,19 +3683,11 @@
         <v>157869.7962860813</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>259</v>
-      </c>
-      <c r="J90" t="n">
-        <v>255</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4066,17 +3716,11 @@
         <v>158748.5489860814</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>255</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4105,17 +3749,11 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>255</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4144,17 +3782,11 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>255</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4183,17 +3815,11 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>255</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4222,17 +3848,11 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>255</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4261,17 +3881,11 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>255</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4303,14 +3917,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>255</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4339,17 +3947,11 @@
         <v>153426.0434860814</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>255</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4381,14 +3983,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>255</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4420,14 +4016,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>255</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4459,14 +4049,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>255</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4495,17 +4079,11 @@
         <v>195184.754660794</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>255</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4534,17 +4112,11 @@
         <v>194984.754660794</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>255</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4573,17 +4145,11 @@
         <v>197429.111460794</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>255</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4612,19 +4178,11 @@
         <v>196829.048960794</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>259</v>
-      </c>
-      <c r="J105" t="n">
-        <v>255</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4653,17 +4211,11 @@
         <v>196829.048960794</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>255</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4692,17 +4244,11 @@
         <v>196829.048960794</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>255</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4731,17 +4277,11 @@
         <v>196829.048960794</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>255</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4770,19 +4310,11 @@
         <v>202331.210160794</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>258</v>
-      </c>
-      <c r="J109" t="n">
-        <v>255</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4811,17 +4343,11 @@
         <v>202331.210160794</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>255</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4850,17 +4376,11 @@
         <v>206112.760060794</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>255</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4889,17 +4409,11 @@
         <v>204862.619360794</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>255</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4928,17 +4442,11 @@
         <v>204862.619360794</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>255</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4967,17 +4475,11 @@
         <v>205594.960360794</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>255</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -5006,17 +4508,11 @@
         <v>205199.408060794</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>255</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5048,14 +4544,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>255</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5087,14 +4577,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>255</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5126,14 +4610,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>255</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5165,14 +4643,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>255</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5201,19 +4673,11 @@
         <v>220783.865160794</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>257</v>
-      </c>
-      <c r="J120" t="n">
-        <v>255</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5242,19 +4706,11 @@
         <v>220783.865160794</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>256</v>
-      </c>
-      <c r="J121" t="n">
-        <v>255</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5283,17 +4739,11 @@
         <v>220783.865160794</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>255</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5322,17 +4772,11 @@
         <v>220959.601460794</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>255</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5361,17 +4805,11 @@
         <v>220959.601460794</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>255</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5403,14 +4841,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>255</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5442,14 +4874,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>255</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5481,14 +4907,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>255</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5520,14 +4940,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>255</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5559,14 +4973,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>255</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5598,14 +5006,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>255</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5637,14 +5039,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>255</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5676,14 +5072,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>255</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5715,14 +5105,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>255</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5754,14 +5138,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>255</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5793,14 +5171,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>255</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5832,14 +5204,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>255</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5871,14 +5237,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>255</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5910,14 +5270,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>255</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5949,14 +5303,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>255</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5988,14 +5336,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>255</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6027,14 +5369,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>255</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6066,14 +5402,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>255</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6105,14 +5435,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>255</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6144,14 +5468,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>255</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6183,14 +5501,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>255</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6222,14 +5534,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>255</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6261,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>255</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6300,14 +5600,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>255</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6339,14 +5633,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>255</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6378,14 +5666,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>255</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6417,14 +5699,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>255</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6456,14 +5732,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>255</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6495,14 +5765,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>255</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6534,14 +5798,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>255</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6573,14 +5831,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>255</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6612,14 +5864,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>255</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6651,14 +5897,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>255</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6687,17 +5927,11 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>255</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6726,17 +5960,11 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>255</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6765,17 +5993,11 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>255</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6804,17 +6026,11 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>255</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6843,17 +6059,11 @@
         <v>303873.5132387992</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>255</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6882,17 +6092,11 @@
         <v>307550.6105852412</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>255</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6921,17 +6125,11 @@
         <v>307550.6105852412</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>255</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6960,17 +6158,11 @@
         <v>329784.865818077</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>255</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6999,17 +6191,11 @@
         <v>319563.796018077</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>255</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7038,17 +6224,11 @@
         <v>319573.096018077</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>255</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7077,17 +6257,11 @@
         <v>319573.095971635</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>255</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7116,17 +6290,11 @@
         <v>315293.926371635</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>255</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7155,17 +6323,11 @@
         <v>314364.101971635</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>255</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7194,17 +6356,11 @@
         <v>344591.108125193</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>255</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7233,17 +6389,11 @@
         <v>341695.992525193</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>255</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7272,17 +6422,11 @@
         <v>356514.661525193</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>255</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7311,17 +6455,11 @@
         <v>347365.840525193</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>255</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7350,17 +6488,11 @@
         <v>339865.776625193</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>255</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7389,17 +6521,11 @@
         <v>339865.776625193</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>255</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7428,17 +6554,11 @@
         <v>339865.776625193</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>255</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7467,17 +6587,11 @@
         <v>339866.776625193</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>255</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7506,17 +6620,11 @@
         <v>339866.776625193</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>255</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7545,17 +6653,11 @@
         <v>339149.500525193</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>255</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7584,17 +6686,11 @@
         <v>340093.133425193</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>255</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7623,17 +6719,11 @@
         <v>340093.133425193</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>255</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7662,17 +6752,11 @@
         <v>340093.133425193</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>255</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7701,17 +6785,11 @@
         <v>340093.133425193</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>255</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7740,17 +6818,11 @@
         <v>325217.679125193</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>255</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7779,17 +6851,11 @@
         <v>325217.679125193</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>255</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7818,17 +6884,11 @@
         <v>326236.3450251931</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>255</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7857,17 +6917,11 @@
         <v>318844.4297251931</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>255</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7896,17 +6950,11 @@
         <v>318804.4297251931</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>255</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7935,17 +6983,11 @@
         <v>318803.4297251931</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>255</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7974,17 +7016,11 @@
         <v>320527.5460251931</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>255</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8013,17 +7049,11 @@
         <v>320526.5460251931</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>255</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8052,17 +7082,11 @@
         <v>320527.5460251931</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>255</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8091,17 +7115,11 @@
         <v>320527.5460251931</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>255</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8130,17 +7148,11 @@
         <v>320229.274625193</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>255</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8169,17 +7181,11 @@
         <v>320229.274625193</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>255</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8208,17 +7214,11 @@
         <v>335953.036425193</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>255</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8247,17 +7247,11 @@
         <v>335953.036425193</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>255</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8286,17 +7280,11 @@
         <v>335953.036425193</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>255</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8325,17 +7313,11 @@
         <v>335953.036425193</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>255</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8364,17 +7346,11 @@
         <v>322083.036325193</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>255</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8403,17 +7379,11 @@
         <v>290367.345925193</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>255</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8445,14 +7415,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>255</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8481,17 +7445,11 @@
         <v>327463.881825193</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>255</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8520,17 +7478,11 @@
         <v>327463.881825193</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>255</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8559,17 +7511,11 @@
         <v>325193.488325193</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>255</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8601,14 +7547,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>255</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8640,14 +7580,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>255</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8679,14 +7613,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>255</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8718,14 +7646,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>255</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8757,14 +7679,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>255</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8796,14 +7712,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>255</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8835,14 +7745,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>255</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8874,14 +7778,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>255</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8913,14 +7811,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>255</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8952,14 +7844,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>255</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8991,14 +7877,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>255</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9030,14 +7910,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>255</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9069,14 +7943,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>255</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9108,14 +7976,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>255</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9147,14 +8009,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>255</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9186,14 +8042,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>255</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9225,14 +8075,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>255</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9264,14 +8108,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>255</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9303,14 +8141,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>255</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9342,14 +8174,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>255</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9381,14 +8207,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>255</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9420,14 +8240,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>255</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9459,14 +8273,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>255</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9498,14 +8306,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>255</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9537,14 +8339,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>255</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9576,14 +8372,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>255</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9615,14 +8405,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>255</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9654,14 +8438,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>255</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9693,14 +8471,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>255</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9732,14 +8504,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>255</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9771,14 +8537,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>255</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9810,14 +8570,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>255</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9849,14 +8603,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>255</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9888,14 +8636,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>255</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9927,14 +8669,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>255</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9966,14 +8702,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>255</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -10002,17 +8732,11 @@
         <v>349783.0418817473</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>255</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10041,17 +8765,11 @@
         <v>349783.0418817473</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>255</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10080,17 +8798,11 @@
         <v>349783.0418817473</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>255</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10122,14 +8834,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>255</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10161,14 +8867,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>255</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10197,17 +8897,11 @@
         <v>341348.5954817472</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>255</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10236,17 +8930,11 @@
         <v>341348.5954817472</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>255</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10275,17 +8963,11 @@
         <v>341360.8904817472</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>255</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10314,17 +8996,11 @@
         <v>348968.8360817472</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>255</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10353,17 +9029,11 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>255</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10392,17 +9062,11 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>255</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10431,17 +9095,11 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>255</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10470,17 +9128,11 @@
         <v>344808.1350817472</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>255</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10509,17 +9161,11 @@
         <v>343138.1350817472</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>255</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10548,17 +9194,11 @@
         <v>343138.1350817472</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>255</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10587,17 +9227,11 @@
         <v>343138.1350817472</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>255</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10626,17 +9260,11 @@
         <v>341238.1350817472</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>255</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10665,17 +9293,11 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>255</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10704,17 +9326,11 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>255</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10743,17 +9359,11 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>255</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10782,17 +9392,11 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>255</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10821,17 +9425,11 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>255</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10860,17 +9458,11 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>255</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10899,17 +9491,11 @@
         <v>342648.1350817472</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>255</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10938,17 +9524,11 @@
         <v>342117.8019817472</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>255</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10977,17 +9557,11 @@
         <v>342117.8019817472</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>255</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11019,14 +9593,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>255</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11058,14 +9626,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>255</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11097,14 +9659,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>255</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11136,14 +9692,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>255</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11175,14 +9725,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>255</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11214,14 +9758,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>255</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11253,14 +9791,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>255</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11292,14 +9824,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>255</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11331,14 +9857,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>255</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11370,14 +9890,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>255</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11409,14 +9923,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>255</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11448,14 +9956,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>255</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11487,14 +9989,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>255</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11526,14 +10022,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>255</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11565,14 +10055,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>255</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11604,14 +10088,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>255</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11643,14 +10121,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>255</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11682,14 +10154,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>255</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11721,14 +10187,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>255</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11760,14 +10220,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>255</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11799,14 +10253,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>255</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11838,14 +10286,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>255</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11877,14 +10319,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>255</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11916,14 +10352,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>255</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11955,14 +10385,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>255</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11994,14 +10418,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>255</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12030,17 +10448,11 @@
         <v>437577.7642817472</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>255</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12072,14 +10484,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>255</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12108,17 +10514,11 @@
         <v>440813.6062817472</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>255</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12147,17 +10547,11 @@
         <v>440622.2131817472</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>255</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12186,17 +10580,11 @@
         <v>441332.4568817472</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>255</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12225,17 +10613,11 @@
         <v>441332.4568817472</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>255</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12264,17 +10646,11 @@
         <v>443868.2092817472</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>255</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12303,17 +10679,11 @@
         <v>443868.2092817472</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>255</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12342,17 +10712,11 @@
         <v>443868.2092817472</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>255</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12381,17 +10745,11 @@
         <v>443744.2717817472</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>255</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12420,17 +10778,11 @@
         <v>443856.1288817472</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>255</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12459,17 +10811,11 @@
         <v>435435.6777817472</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>255</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12498,17 +10844,11 @@
         <v>435435.6777817472</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>255</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12540,14 +10880,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>255</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12579,14 +10913,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>255</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12618,14 +10946,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>255</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12657,14 +10979,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>255</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12693,17 +11009,11 @@
         <v>391714.9837817472</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>255</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12735,14 +11045,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>255</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12774,14 +11078,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>255</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12813,14 +11111,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>255</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12849,23 +11141,15 @@
         <v>394809.2867817472</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>255</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
-        <v>1.053823529411765</v>
-      </c>
-      <c r="M316" t="n">
-        <v>1.003921568627451</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12890,7 +11174,7 @@
         <v>382932.5722817472</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12923,7 +11207,7 @@
         <v>389067.8498817472</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12956,7 +11240,7 @@
         <v>389067.8498817472</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12989,7 +11273,7 @@
         <v>393379.7836817472</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -13022,7 +11306,7 @@
         <v>393379.7836817472</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -13055,7 +11339,7 @@
         <v>392964.1015817472</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -13088,7 +11372,7 @@
         <v>392747.3354817472</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -13121,7 +11405,7 @@
         <v>394538.7885817472</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -13187,7 +11471,7 @@
         <v>394538.7885817472</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -13220,7 +11504,7 @@
         <v>394538.7885817472</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -13253,7 +11537,7 @@
         <v>403864.5233817471</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -13286,7 +11570,7 @@
         <v>413974.1790817471</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -13319,7 +11603,7 @@
         <v>413974.1790817471</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -13352,7 +11636,7 @@
         <v>413974.1790817471</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13451,7 +11735,7 @@
         <v>416684.6270817471</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13583,7 +11867,7 @@
         <v>438733.6662817471</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13616,7 +11900,7 @@
         <v>454648.2155904114</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13748,7 +12032,7 @@
         <v>460166.9733904114</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13781,7 +12065,7 @@
         <v>462927.1033681092</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13814,7 +12098,7 @@
         <v>475253.5667681092</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13847,7 +12131,7 @@
         <v>509427.6824727521</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13880,7 +12164,7 @@
         <v>509427.6824727521</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13913,7 +12197,7 @@
         <v>509427.6824727521</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13946,7 +12230,7 @@
         <v>508635.7649727521</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13979,7 +12263,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -14012,7 +12296,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -14045,7 +12329,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -14078,7 +12362,7 @@
         <v>501529.247172752</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -14111,7 +12395,7 @@
         <v>504171.214872752</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -14144,7 +12428,7 @@
         <v>504171.214872752</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -14177,7 +12461,7 @@
         <v>503986.615272752</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14210,7 +12494,7 @@
         <v>505565.777172752</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14243,7 +12527,7 @@
         <v>505728.113272752</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14276,7 +12560,7 @@
         <v>505728.113272752</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14309,7 +12593,7 @@
         <v>498305.7657727521</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14342,7 +12626,7 @@
         <v>516551.720072752</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14375,7 +12659,7 @@
         <v>479788.787672752</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14441,7 +12725,7 @@
         <v>502896.960772752</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14474,7 +12758,7 @@
         <v>509072.914572752</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14507,7 +12791,7 @@
         <v>509054.455072752</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14540,7 +12824,7 @@
         <v>508658.091772752</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14573,7 +12857,7 @@
         <v>502851.422772752</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14606,7 +12890,7 @@
         <v>502851.422772752</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14639,7 +12923,7 @@
         <v>502839.264572752</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14672,7 +12956,7 @@
         <v>510445.610772752</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14705,7 +12989,7 @@
         <v>510445.610772752</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14738,7 +13022,7 @@
         <v>514030.930572752</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14771,7 +13055,7 @@
         <v>514030.930572752</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14804,7 +13088,7 @@
         <v>510300.492372752</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14870,7 +13154,7 @@
         <v>517145.101172752</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -15277,6 +13561,6 @@
       <c r="M389" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest BAT.xlsx
+++ b/BackTest/2019-10-15 BackTest BAT.xlsx
@@ -451,7 +451,7 @@
         <v>95487.0626477912</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>95494.1934477912</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J3" t="n">
+        <v>255</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>95494.1934477912</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>256</v>
+      </c>
+      <c r="J4" t="n">
+        <v>255</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>91397.9703477912</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>256</v>
+      </c>
+      <c r="J5" t="n">
+        <v>255</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>90789.49534779119</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>254</v>
+      </c>
+      <c r="J6" t="n">
+        <v>255</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>91185.40864779119</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>253</v>
+      </c>
+      <c r="J7" t="n">
+        <v>255</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>91185.40864779119</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>254</v>
+      </c>
+      <c r="J8" t="n">
+        <v>255</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>88140.1308477912</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>254</v>
+      </c>
+      <c r="J9" t="n">
+        <v>255</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>88140.1308477912</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>253</v>
+      </c>
+      <c r="J10" t="n">
+        <v>255</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>90148.00484779119</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>253</v>
+      </c>
+      <c r="J11" t="n">
+        <v>255</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>82928.2745477912</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>254</v>
+      </c>
+      <c r="J12" t="n">
+        <v>255</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>252</v>
+      </c>
+      <c r="J13" t="n">
+        <v>255</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>254</v>
+      </c>
+      <c r="J14" t="n">
+        <v>255</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +972,19 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>254</v>
+      </c>
+      <c r="J15" t="n">
+        <v>255</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1013,19 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>254</v>
+      </c>
+      <c r="J16" t="n">
+        <v>255</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1054,19 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>254</v>
+      </c>
+      <c r="J17" t="n">
+        <v>255</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1095,19 @@
         <v>73579.0818477912</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>254</v>
+      </c>
+      <c r="J18" t="n">
+        <v>255</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1136,19 @@
         <v>76596.8377477912</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>253</v>
+      </c>
+      <c r="J19" t="n">
+        <v>255</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1177,19 @@
         <v>76596.8377477912</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>254</v>
+      </c>
+      <c r="J20" t="n">
+        <v>255</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1218,19 @@
         <v>73314.4957477912</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>254</v>
+      </c>
+      <c r="J21" t="n">
+        <v>255</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1259,19 @@
         <v>73314.4957477912</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>253</v>
+      </c>
+      <c r="J22" t="n">
+        <v>255</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1300,19 @@
         <v>73320.9130477912</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>253</v>
+      </c>
+      <c r="J23" t="n">
+        <v>255</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1341,19 @@
         <v>73320.9130477912</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>254</v>
+      </c>
+      <c r="J24" t="n">
+        <v>255</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1382,19 @@
         <v>71396.52044779119</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>254</v>
+      </c>
+      <c r="J25" t="n">
+        <v>255</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1423,19 @@
         <v>71813.84424779119</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>252</v>
+      </c>
+      <c r="J26" t="n">
+        <v>255</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1464,19 @@
         <v>71813.84424779119</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>254</v>
+      </c>
+      <c r="J27" t="n">
+        <v>255</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1505,19 @@
         <v>71813.84424779119</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>254</v>
+      </c>
+      <c r="J28" t="n">
+        <v>255</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1546,19 @@
         <v>70041.14404779118</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>254</v>
+      </c>
+      <c r="J29" t="n">
+        <v>255</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1587,19 @@
         <v>70041.14404779118</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>253</v>
+      </c>
+      <c r="J30" t="n">
+        <v>255</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1628,19 @@
         <v>47365.96454779118</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>253</v>
+      </c>
+      <c r="J31" t="n">
+        <v>255</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1669,19 @@
         <v>51161.03974779118</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>252</v>
+      </c>
+      <c r="J32" t="n">
+        <v>255</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1710,19 @@
         <v>51138.01474779118</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>253</v>
+      </c>
+      <c r="J33" t="n">
+        <v>255</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1513,9 +1757,13 @@
         <v>252</v>
       </c>
       <c r="J34" t="n">
-        <v>252</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>255</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1550,11 +1798,11 @@
         <v>252</v>
       </c>
       <c r="J35" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1585,15 +1833,17 @@
         <v>50388.80394779118</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>253</v>
+      </c>
       <c r="J36" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1624,11 +1874,19 @@
         <v>50388.80394779118</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>252</v>
+      </c>
+      <c r="J37" t="n">
+        <v>255</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1663,9 +1921,13 @@
         <v>252</v>
       </c>
       <c r="J38" t="n">
-        <v>252</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>255</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1700,11 +1962,11 @@
         <v>253</v>
       </c>
       <c r="J39" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1741,11 +2003,11 @@
         <v>254</v>
       </c>
       <c r="J40" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1782,9 +2044,13 @@
         <v>254</v>
       </c>
       <c r="J41" t="n">
-        <v>254</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>255</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1819,11 +2085,11 @@
         <v>254</v>
       </c>
       <c r="J42" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1860,7 +2126,7 @@
         <v>253</v>
       </c>
       <c r="J43" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1901,7 +2167,7 @@
         <v>255</v>
       </c>
       <c r="J44" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -1942,7 +2208,7 @@
         <v>255</v>
       </c>
       <c r="J45" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -1983,7 +2249,7 @@
         <v>255</v>
       </c>
       <c r="J46" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2024,7 +2290,7 @@
         <v>254</v>
       </c>
       <c r="J47" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2065,7 +2331,7 @@
         <v>253</v>
       </c>
       <c r="J48" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2106,7 +2372,7 @@
         <v>252</v>
       </c>
       <c r="J49" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2147,7 +2413,7 @@
         <v>254</v>
       </c>
       <c r="J50" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2188,7 +2454,7 @@
         <v>254</v>
       </c>
       <c r="J51" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2229,7 +2495,7 @@
         <v>251</v>
       </c>
       <c r="J52" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2270,7 +2536,7 @@
         <v>251</v>
       </c>
       <c r="J53" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2311,7 +2577,7 @@
         <v>253</v>
       </c>
       <c r="J54" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2352,7 +2618,7 @@
         <v>254</v>
       </c>
       <c r="J55" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2393,7 +2659,7 @@
         <v>252</v>
       </c>
       <c r="J56" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2434,7 +2700,7 @@
         <v>250</v>
       </c>
       <c r="J57" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2475,7 +2741,7 @@
         <v>252</v>
       </c>
       <c r="J58" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2516,7 +2782,7 @@
         <v>253</v>
       </c>
       <c r="J59" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2557,7 +2823,7 @@
         <v>253</v>
       </c>
       <c r="J60" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2598,7 +2864,7 @@
         <v>254</v>
       </c>
       <c r="J61" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2639,7 +2905,7 @@
         <v>254</v>
       </c>
       <c r="J62" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2680,7 +2946,7 @@
         <v>254</v>
       </c>
       <c r="J63" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2721,7 +2987,7 @@
         <v>254</v>
       </c>
       <c r="J64" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2756,11 +3022,13 @@
         <v>121927.0266477912</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>255</v>
+      </c>
       <c r="J65" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2795,11 +3063,13 @@
         <v>119123.0661665411</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>256</v>
+      </c>
       <c r="J66" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2838,7 +3108,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2877,7 +3147,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2916,7 +3186,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2955,7 +3225,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2994,7 +3264,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3033,7 +3303,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3072,7 +3342,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3111,7 +3381,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3150,7 +3420,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3189,7 +3459,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3228,7 +3498,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3267,7 +3537,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3306,7 +3576,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3345,7 +3615,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3380,19 +3650,19 @@
         <v>103416.8335665411</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.018622047244095</v>
+        <v>1</v>
       </c>
       <c r="M81" t="inlineStr"/>
     </row>
@@ -3419,11 +3689,17 @@
         <v>103416.8335665411</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>255</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3455,8 +3731,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>255</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3485,11 +3767,17 @@
         <v>154120.3414665411</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>255</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3518,11 +3806,17 @@
         <v>157334.1773860813</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>255</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3551,11 +3845,17 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>255</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3584,11 +3884,17 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>255</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3617,11 +3923,17 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3653,8 +3965,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>255</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3686,8 +4004,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>255</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3716,11 +4040,17 @@
         <v>158748.5489860814</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>255</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3749,11 +4079,17 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>255</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3782,11 +4118,17 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>255</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3815,11 +4157,17 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>255</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3848,11 +4196,17 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>255</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3881,11 +4235,17 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>255</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3917,8 +4277,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>255</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3947,11 +4313,17 @@
         <v>153426.0434860814</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>255</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3983,8 +4355,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>255</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4016,8 +4394,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>255</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4049,8 +4433,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>255</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4079,11 +4469,17 @@
         <v>195184.754660794</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>255</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4112,11 +4508,17 @@
         <v>194984.754660794</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>255</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4145,11 +4547,17 @@
         <v>197429.111460794</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>255</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4178,11 +4586,17 @@
         <v>196829.048960794</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>255</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4211,11 +4625,17 @@
         <v>196829.048960794</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>255</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4244,11 +4664,17 @@
         <v>196829.048960794</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>255</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4277,11 +4703,17 @@
         <v>196829.048960794</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>255</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4310,11 +4742,17 @@
         <v>202331.210160794</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>255</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4343,11 +4781,17 @@
         <v>202331.210160794</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>255</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4376,11 +4820,17 @@
         <v>206112.760060794</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>255</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4409,11 +4859,17 @@
         <v>204862.619360794</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>255</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4442,11 +4898,17 @@
         <v>204862.619360794</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>255</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4475,11 +4937,17 @@
         <v>205594.960360794</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>255</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4508,11 +4976,17 @@
         <v>205199.408060794</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>255</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4544,8 +5018,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>255</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4577,8 +5057,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>255</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4610,8 +5096,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>255</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4643,8 +5135,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>255</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4676,8 +5174,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>255</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4709,8 +5213,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>255</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4739,11 +5249,17 @@
         <v>220783.865160794</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>255</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4772,11 +5288,17 @@
         <v>220959.601460794</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>255</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4805,11 +5327,17 @@
         <v>220959.601460794</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>255</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4841,8 +5369,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>255</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4874,8 +5408,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>255</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4907,8 +5447,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>255</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4940,8 +5486,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>255</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4973,8 +5525,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>255</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5006,8 +5564,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>255</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5039,8 +5603,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>255</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5072,8 +5642,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>255</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5105,8 +5681,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>255</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5138,8 +5720,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>255</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5171,8 +5759,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>255</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5204,8 +5798,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>255</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5237,8 +5837,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>255</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5270,8 +5876,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>255</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5303,8 +5915,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>255</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5336,8 +5954,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>255</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5369,8 +5993,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>255</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5402,8 +6032,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>255</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5435,8 +6071,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>255</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5468,8 +6110,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>255</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5501,8 +6149,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>255</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5534,8 +6188,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>255</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5567,8 +6227,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>255</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5600,8 +6266,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>255</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5633,8 +6305,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>255</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5666,8 +6344,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>255</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5699,8 +6383,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>255</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5732,8 +6422,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>255</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5765,8 +6461,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>255</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5798,8 +6500,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>255</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5831,8 +6539,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>255</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5864,8 +6578,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>255</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5897,8 +6617,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>255</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5927,11 +6653,17 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>255</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5960,11 +6692,17 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>255</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5993,11 +6731,17 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>255</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6026,11 +6770,17 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>255</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6059,11 +6809,17 @@
         <v>303873.5132387992</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>255</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6092,11 +6848,17 @@
         <v>307550.6105852412</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>255</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6125,11 +6887,17 @@
         <v>307550.6105852412</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>255</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6158,11 +6926,17 @@
         <v>329784.865818077</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>255</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6191,11 +6965,17 @@
         <v>319563.796018077</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>255</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6224,11 +7004,17 @@
         <v>319573.096018077</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>255</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6257,11 +7043,17 @@
         <v>319573.095971635</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>255</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6290,11 +7082,17 @@
         <v>315293.926371635</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>255</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6323,11 +7121,17 @@
         <v>314364.101971635</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>255</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6356,11 +7160,17 @@
         <v>344591.108125193</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>255</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6389,11 +7199,17 @@
         <v>341695.992525193</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>255</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6422,11 +7238,17 @@
         <v>356514.661525193</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>255</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6455,11 +7277,17 @@
         <v>347365.840525193</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>255</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6488,11 +7316,17 @@
         <v>339865.776625193</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>255</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6521,11 +7355,17 @@
         <v>339865.776625193</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>255</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6554,11 +7394,17 @@
         <v>339865.776625193</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>255</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6587,11 +7433,17 @@
         <v>339866.776625193</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>255</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6620,11 +7472,17 @@
         <v>339866.776625193</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>255</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6653,11 +7511,17 @@
         <v>339149.500525193</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>255</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6686,11 +7550,17 @@
         <v>340093.133425193</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>255</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6719,11 +7589,17 @@
         <v>340093.133425193</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>255</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6752,11 +7628,17 @@
         <v>340093.133425193</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>255</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6785,11 +7667,17 @@
         <v>340093.133425193</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>255</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6818,11 +7706,17 @@
         <v>325217.679125193</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>255</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6851,11 +7745,17 @@
         <v>325217.679125193</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>255</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6884,11 +7784,17 @@
         <v>326236.3450251931</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>255</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6917,11 +7823,17 @@
         <v>318844.4297251931</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>255</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6950,11 +7862,17 @@
         <v>318804.4297251931</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>255</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6983,11 +7901,17 @@
         <v>318803.4297251931</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>255</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7016,11 +7940,17 @@
         <v>320527.5460251931</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>255</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7049,11 +7979,17 @@
         <v>320526.5460251931</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>255</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7082,11 +8018,17 @@
         <v>320527.5460251931</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>255</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7115,11 +8057,17 @@
         <v>320527.5460251931</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>255</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7148,11 +8096,17 @@
         <v>320229.274625193</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>255</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7181,11 +8135,17 @@
         <v>320229.274625193</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>255</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7214,11 +8174,17 @@
         <v>335953.036425193</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>255</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7247,11 +8213,17 @@
         <v>335953.036425193</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>255</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7280,11 +8252,17 @@
         <v>335953.036425193</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>255</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7313,11 +8291,17 @@
         <v>335953.036425193</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>255</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7346,11 +8330,17 @@
         <v>322083.036325193</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>255</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7379,11 +8369,17 @@
         <v>290367.345925193</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>255</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7415,8 +8411,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>255</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7445,11 +8447,17 @@
         <v>327463.881825193</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>255</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7478,11 +8486,17 @@
         <v>327463.881825193</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>255</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7511,11 +8525,17 @@
         <v>325193.488325193</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>255</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7547,8 +8567,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>255</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7580,8 +8606,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>255</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7613,8 +8645,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>255</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7646,8 +8684,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>255</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7679,8 +8723,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>255</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7712,8 +8762,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>255</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7745,8 +8801,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>255</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7778,8 +8840,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>255</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7811,8 +8879,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>255</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7844,8 +8918,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>255</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7877,8 +8957,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>255</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7910,8 +8996,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>255</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7943,8 +9035,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>255</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7976,8 +9074,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>255</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8009,8 +9113,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>255</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8042,8 +9152,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>255</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8075,8 +9191,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>255</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8108,8 +9230,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>255</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8141,8 +9269,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>255</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8174,8 +9308,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>255</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8207,8 +9347,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>255</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8240,8 +9386,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>255</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8273,8 +9425,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>255</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8306,8 +9464,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>255</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8339,8 +9503,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>255</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8372,8 +9542,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>255</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8405,8 +9581,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>255</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8438,8 +9620,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>255</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8471,8 +9659,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>255</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8504,8 +9698,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>255</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8537,8 +9737,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>255</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8570,8 +9776,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>255</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8603,8 +9815,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>255</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8636,8 +9854,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>255</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8669,8 +9893,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>255</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8702,8 +9932,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>255</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8732,11 +9968,17 @@
         <v>349783.0418817473</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>255</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8765,11 +10007,17 @@
         <v>349783.0418817473</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>255</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8798,11 +10046,17 @@
         <v>349783.0418817473</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>255</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8834,8 +10088,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>255</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8867,8 +10127,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>255</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8897,11 +10163,17 @@
         <v>341348.5954817472</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>255</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8930,11 +10202,17 @@
         <v>341348.5954817472</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>255</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8963,11 +10241,17 @@
         <v>341360.8904817472</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>255</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8996,11 +10280,17 @@
         <v>348968.8360817472</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>255</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9029,11 +10319,17 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>255</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9062,11 +10358,17 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>255</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9095,11 +10397,17 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>255</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9128,11 +10436,17 @@
         <v>344808.1350817472</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>255</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9161,11 +10475,17 @@
         <v>343138.1350817472</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>255</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9194,11 +10514,17 @@
         <v>343138.1350817472</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>255</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9227,11 +10553,17 @@
         <v>343138.1350817472</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>255</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9260,11 +10592,17 @@
         <v>341238.1350817472</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>255</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9293,11 +10631,17 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>255</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9326,11 +10670,17 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>255</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9359,11 +10709,17 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>255</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9392,11 +10748,17 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>255</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9425,11 +10787,17 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>255</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9458,11 +10826,17 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>255</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9491,11 +10865,17 @@
         <v>342648.1350817472</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>255</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9524,11 +10904,17 @@
         <v>342117.8019817472</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>255</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9557,11 +10943,17 @@
         <v>342117.8019817472</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>255</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9593,8 +10985,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>255</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9626,8 +11024,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>255</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9659,8 +11063,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>255</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9692,8 +11102,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>255</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9725,8 +11141,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>255</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9758,8 +11180,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>255</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9791,8 +11219,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>255</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9824,8 +11258,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>255</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9857,8 +11297,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>255</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9890,8 +11336,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>255</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9923,8 +11375,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>255</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9956,8 +11414,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>255</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9989,8 +11453,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>255</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10022,8 +11492,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>255</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10055,8 +11531,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>255</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10088,8 +11570,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>255</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10121,8 +11609,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>255</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10154,8 +11648,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>255</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10187,8 +11687,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>255</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10220,8 +11726,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>255</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10253,8 +11765,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>255</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10286,8 +11804,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>255</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10319,8 +11843,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>255</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10352,8 +11882,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>255</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10385,8 +11921,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>255</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10418,8 +11960,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>255</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10448,11 +11996,17 @@
         <v>437577.7642817472</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>255</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10484,8 +12038,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>255</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10514,11 +12074,17 @@
         <v>440813.6062817472</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>255</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10547,11 +12113,17 @@
         <v>440622.2131817472</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>255</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10580,11 +12152,17 @@
         <v>441332.4568817472</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>255</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10613,11 +12191,17 @@
         <v>441332.4568817472</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>255</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10646,11 +12230,17 @@
         <v>443868.2092817472</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>255</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10679,11 +12269,17 @@
         <v>443868.2092817472</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>255</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10712,11 +12308,17 @@
         <v>443868.2092817472</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>255</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10745,11 +12347,17 @@
         <v>443744.2717817472</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>255</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10778,11 +12386,17 @@
         <v>443856.1288817472</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>255</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10811,11 +12425,17 @@
         <v>435435.6777817472</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>255</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10844,11 +12464,17 @@
         <v>435435.6777817472</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>255</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10880,8 +12506,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>255</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10913,8 +12545,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>255</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10946,8 +12584,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>255</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10979,8 +12623,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>255</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11009,11 +12659,17 @@
         <v>391714.9837817472</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>255</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11045,8 +12701,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>255</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11078,8 +12740,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>255</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11111,8 +12779,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>255</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11144,8 +12818,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>255</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11177,8 +12857,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>255</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11210,8 +12896,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>255</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11243,8 +12935,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>255</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11276,8 +12974,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>255</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11309,8 +13013,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>255</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11342,8 +13052,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>255</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11375,8 +13091,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>255</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11408,8 +13130,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>255</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11441,8 +13169,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>255</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11474,8 +13208,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>255</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11507,8 +13247,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>255</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11540,8 +13286,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>255</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11573,8 +13325,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>255</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11606,8 +13364,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>255</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11639,8 +13403,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>255</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11672,8 +13442,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>255</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11705,8 +13481,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>255</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11738,8 +13520,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>255</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11771,8 +13559,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>255</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11804,8 +13598,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>255</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11837,8 +13637,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>255</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11870,8 +13676,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>255</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11903,8 +13715,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>255</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11936,8 +13754,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>255</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11969,8 +13793,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>255</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12002,8 +13832,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>255</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12032,15 +13868,23 @@
         <v>460166.9733904114</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>255</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+        <v>1.081274509803922</v>
+      </c>
+      <c r="M343" t="n">
+        <v>1.003921568627451</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12131,7 +13975,7 @@
         <v>509427.6824727521</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12164,7 +14008,7 @@
         <v>509427.6824727521</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12197,7 +14041,7 @@
         <v>509427.6824727521</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12230,7 +14074,7 @@
         <v>508635.7649727521</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12263,7 +14107,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12296,7 +14140,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12329,7 +14173,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12362,7 +14206,7 @@
         <v>501529.247172752</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12395,7 +14239,7 @@
         <v>504171.214872752</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12428,7 +14272,7 @@
         <v>504171.214872752</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12461,7 +14305,7 @@
         <v>503986.615272752</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12494,7 +14338,7 @@
         <v>505565.777172752</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12527,7 +14371,7 @@
         <v>505728.113272752</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12560,7 +14404,7 @@
         <v>505728.113272752</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12593,7 +14437,7 @@
         <v>498305.7657727521</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12626,7 +14470,7 @@
         <v>516551.720072752</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12659,7 +14503,7 @@
         <v>479788.787672752</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12692,7 +14536,7 @@
         <v>503586.933172752</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12725,7 +14569,7 @@
         <v>502896.960772752</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12758,7 +14602,7 @@
         <v>509072.914572752</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12791,7 +14635,7 @@
         <v>509054.455072752</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12824,7 +14668,7 @@
         <v>508658.091772752</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12857,7 +14701,7 @@
         <v>502851.422772752</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12890,7 +14734,7 @@
         <v>502851.422772752</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12923,7 +14767,7 @@
         <v>502839.264572752</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12956,7 +14800,7 @@
         <v>510445.610772752</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12989,7 +14833,7 @@
         <v>510445.610772752</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13055,7 +14899,7 @@
         <v>514030.930572752</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13121,7 +14965,7 @@
         <v>517145.101172752</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13418,7 +15262,7 @@
         <v>515505.456972752</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
